--- a/Datasets/Erlach/Data/Erlach_JR.xlsx
+++ b/Datasets/Erlach/Data/Erlach_JR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julerickert/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julerickert/Documents/Akademie_Projekt/Datasets/Erlach/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{584962CF-40C2-264F-A69E-259B049F0D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63EFE18-0A78-454D-93A3-AC32D340C72A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="0" windowWidth="14200" windowHeight="18000" xr2:uid="{667C5683-ADBE-2B49-ACEF-B63231E960A4}"/>
+    <workbookView xWindow="14600" yWindow="500" windowWidth="14200" windowHeight="16020" xr2:uid="{667C5683-ADBE-2B49-ACEF-B63231E960A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1152,7 +1152,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B144"/>
+      <selection pane="bottomLeft" activeCell="K143" sqref="K143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Datasets/Erlach/Data/Erlach_JR.xlsx
+++ b/Datasets/Erlach/Data/Erlach_JR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julerickert/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julerickert/Documents/Akademie_Projekt/Datasets/Erlach/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF64AED-C6B0-9F42-A0F4-F591C07BDABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F157D3-10F9-F54D-A166-84C5A3B4EA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{667C5683-ADBE-2B49-ACEF-B63231E960A4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{667C5683-ADBE-2B49-ACEF-B63231E960A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -557,18 +557,12 @@
     <t>Dithmarschen</t>
   </si>
   <si>
-    <t>Plattdeutsch</t>
-  </si>
-  <si>
     <t>Herzogtum Sachsen - Koburg</t>
   </si>
   <si>
     <t>Holzland / Jena</t>
   </si>
   <si>
-    <t>Preußisch-Plattdeutsch / Königsberg</t>
-  </si>
-  <si>
     <t>Schwarzwald</t>
   </si>
   <si>
@@ -1563,6 +1557,12 @@
   </si>
   <si>
     <t>Zeile von JR eingefügt/überarbeitet</t>
+  </si>
+  <si>
+    <t>[Plattdeutsch]</t>
+  </si>
+  <si>
+    <t>[Preußisch-Plattdeutsch] / Königsberg</t>
   </si>
 </sst>
 </file>
@@ -1668,7 +1668,7 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1684,7 +1684,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1982,9 +1982,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB7810F-2200-2649-9C2C-F3C9823F050E}">
   <dimension ref="A1:XFA169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z155" sqref="Z155"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W63" sqref="W63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2098,19 +2098,19 @@
         <v>28</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AI1" s="2" t="s">
         <v>30</v>
@@ -18464,7 +18464,7 @@
     </row>
     <row r="2" spans="1:16381" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
@@ -18482,7 +18482,7 @@
         <v>170</v>
       </c>
       <c r="J2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K2" t="s">
         <v>171</v>
@@ -18491,36 +18491,36 @@
         <v>170</v>
       </c>
       <c r="M2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V2" t="s">
         <v>43</v>
       </c>
       <c r="W2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AD2" t="s">
         <v>169</v>
       </c>
       <c r="AH2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AI2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:16381" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C3" t="s">
         <v>31</v>
@@ -18538,7 +18538,7 @@
         <v>170</v>
       </c>
       <c r="J3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K3" t="s">
         <v>171</v>
@@ -18547,33 +18547,33 @@
         <v>170</v>
       </c>
       <c r="M3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V3" t="s">
         <v>44</v>
       </c>
       <c r="W3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AD3" t="s">
         <v>169</v>
       </c>
       <c r="AH3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:16381" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
@@ -18591,7 +18591,7 @@
         <v>170</v>
       </c>
       <c r="J4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K4" t="s">
         <v>171</v>
@@ -18600,36 +18600,36 @@
         <v>170</v>
       </c>
       <c r="M4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V4" t="s">
         <v>45</v>
       </c>
       <c r="W4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AD4" t="s">
         <v>169</v>
       </c>
       <c r="AH4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AI4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5" spans="1:16381" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -18647,7 +18647,7 @@
         <v>170</v>
       </c>
       <c r="J5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K5" t="s">
         <v>171</v>
@@ -18656,33 +18656,33 @@
         <v>170</v>
       </c>
       <c r="M5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V5" t="s">
         <v>46</v>
       </c>
       <c r="W5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AD5" t="s">
         <v>169</v>
       </c>
       <c r="AH5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:16381" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -18700,7 +18700,7 @@
         <v>170</v>
       </c>
       <c r="J6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K6" t="s">
         <v>171</v>
@@ -18709,33 +18709,33 @@
         <v>170</v>
       </c>
       <c r="M6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V6" t="s">
         <v>47</v>
       </c>
       <c r="W6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AD6" t="s">
         <v>169</v>
       </c>
       <c r="AH6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7" spans="1:16381" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
@@ -18753,7 +18753,7 @@
         <v>170</v>
       </c>
       <c r="J7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K7" t="s">
         <v>171</v>
@@ -18762,36 +18762,36 @@
         <v>170</v>
       </c>
       <c r="M7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V7" t="s">
         <v>48</v>
       </c>
       <c r="W7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AD7" t="s">
         <v>169</v>
       </c>
       <c r="AH7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AI7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="8" spans="1:16381" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
@@ -18809,7 +18809,7 @@
         <v>170</v>
       </c>
       <c r="J8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K8" t="s">
         <v>171</v>
@@ -18818,33 +18818,33 @@
         <v>170</v>
       </c>
       <c r="M8" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V8" t="s">
         <v>49</v>
       </c>
       <c r="W8" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AD8" t="s">
         <v>169</v>
       </c>
       <c r="AH8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9" spans="1:16381" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
@@ -18862,7 +18862,7 @@
         <v>170</v>
       </c>
       <c r="J9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K9" t="s">
         <v>171</v>
@@ -18871,33 +18871,33 @@
         <v>170</v>
       </c>
       <c r="M9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V9" t="s">
         <v>50</v>
       </c>
       <c r="W9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AD9" t="s">
         <v>169</v>
       </c>
       <c r="AH9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:16381" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
@@ -18915,7 +18915,7 @@
         <v>170</v>
       </c>
       <c r="J10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K10" t="s">
         <v>171</v>
@@ -18924,36 +18924,36 @@
         <v>170</v>
       </c>
       <c r="M10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V10" t="s">
         <v>51</v>
       </c>
       <c r="W10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AD10" t="s">
         <v>169</v>
       </c>
       <c r="AH10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AI10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:16381" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
@@ -18971,7 +18971,7 @@
         <v>170</v>
       </c>
       <c r="J11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K11" t="s">
         <v>171</v>
@@ -18980,36 +18980,36 @@
         <v>170</v>
       </c>
       <c r="M11" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V11" t="s">
         <v>52</v>
       </c>
       <c r="W11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AD11" t="s">
         <v>169</v>
       </c>
       <c r="AH11" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AI11" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12" spans="1:16381" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C12" t="s">
         <v>31</v>
@@ -19027,7 +19027,7 @@
         <v>170</v>
       </c>
       <c r="J12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K12" t="s">
         <v>171</v>
@@ -19036,33 +19036,33 @@
         <v>170</v>
       </c>
       <c r="M12" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V12" t="s">
         <v>53</v>
       </c>
       <c r="W12" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AD12" t="s">
         <v>169</v>
       </c>
       <c r="AH12" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:16381" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C13" t="s">
         <v>31</v>
@@ -19080,7 +19080,7 @@
         <v>170</v>
       </c>
       <c r="J13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K13" t="s">
         <v>171</v>
@@ -19089,36 +19089,36 @@
         <v>170</v>
       </c>
       <c r="M13" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V13" t="s">
         <v>54</v>
       </c>
       <c r="W13" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AD13" t="s">
         <v>169</v>
       </c>
       <c r="AH13" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AI13" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:16381" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C14" t="s">
         <v>31</v>
@@ -19136,7 +19136,7 @@
         <v>170</v>
       </c>
       <c r="J14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K14" t="s">
         <v>171</v>
@@ -19145,33 +19145,33 @@
         <v>170</v>
       </c>
       <c r="M14" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V14" t="s">
         <v>55</v>
       </c>
       <c r="W14" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AD14" t="s">
         <v>169</v>
       </c>
       <c r="AH14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:16381" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C15" t="s">
         <v>31</v>
@@ -19189,7 +19189,7 @@
         <v>170</v>
       </c>
       <c r="J15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K15" t="s">
         <v>171</v>
@@ -19198,36 +19198,36 @@
         <v>170</v>
       </c>
       <c r="M15" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V15" t="s">
         <v>56</v>
       </c>
       <c r="W15" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AD15" t="s">
         <v>169</v>
       </c>
       <c r="AH15" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AI15" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="16" spans="1:16381" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
@@ -19245,7 +19245,7 @@
         <v>170</v>
       </c>
       <c r="J16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K16" t="s">
         <v>171</v>
@@ -19254,33 +19254,33 @@
         <v>170</v>
       </c>
       <c r="M16" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V16" t="s">
         <v>57</v>
       </c>
       <c r="W16" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AD16" t="s">
         <v>169</v>
       </c>
       <c r="AH16" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C17" t="s">
         <v>31</v>
@@ -19298,7 +19298,7 @@
         <v>170</v>
       </c>
       <c r="J17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K17" t="s">
         <v>171</v>
@@ -19307,36 +19307,36 @@
         <v>170</v>
       </c>
       <c r="M17" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V17" t="s">
         <v>58</v>
       </c>
       <c r="W17" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AD17" t="s">
         <v>169</v>
       </c>
       <c r="AH17" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AI17" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
@@ -19354,7 +19354,7 @@
         <v>170</v>
       </c>
       <c r="J18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K18" t="s">
         <v>171</v>
@@ -19363,36 +19363,36 @@
         <v>170</v>
       </c>
       <c r="M18" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V18" t="s">
         <v>59</v>
       </c>
       <c r="W18" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC18" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AD18" t="s">
         <v>169</v>
       </c>
       <c r="AH18" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AI18" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="19" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C19" t="s">
         <v>31</v>
@@ -19410,7 +19410,7 @@
         <v>170</v>
       </c>
       <c r="J19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K19" t="s">
         <v>171</v>
@@ -19419,36 +19419,36 @@
         <v>170</v>
       </c>
       <c r="M19" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V19" t="s">
         <v>60</v>
       </c>
       <c r="W19" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AD19" t="s">
         <v>169</v>
       </c>
       <c r="AH19" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AI19" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C20" t="s">
         <v>31</v>
@@ -19466,7 +19466,7 @@
         <v>170</v>
       </c>
       <c r="J20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K20" t="s">
         <v>171</v>
@@ -19475,36 +19475,36 @@
         <v>170</v>
       </c>
       <c r="M20" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V20" t="s">
         <v>61</v>
       </c>
       <c r="W20" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AD20" t="s">
         <v>169</v>
       </c>
       <c r="AH20" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AI20" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="21" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
@@ -19522,7 +19522,7 @@
         <v>170</v>
       </c>
       <c r="J21" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K21" t="s">
         <v>171</v>
@@ -19531,36 +19531,36 @@
         <v>170</v>
       </c>
       <c r="M21" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V21" t="s">
         <v>62</v>
       </c>
       <c r="W21" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC21" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AD21" t="s">
         <v>169</v>
       </c>
       <c r="AH21" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AI21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="22" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
@@ -19578,7 +19578,7 @@
         <v>170</v>
       </c>
       <c r="J22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K22" t="s">
         <v>171</v>
@@ -19587,36 +19587,36 @@
         <v>170</v>
       </c>
       <c r="M22" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O22" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V22" t="s">
         <v>63</v>
       </c>
       <c r="W22" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC22" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AD22" t="s">
         <v>169</v>
       </c>
       <c r="AH22" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AI22" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
@@ -19634,7 +19634,7 @@
         <v>170</v>
       </c>
       <c r="J23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K23" t="s">
         <v>171</v>
@@ -19643,36 +19643,36 @@
         <v>170</v>
       </c>
       <c r="M23" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O23" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V23" t="s">
         <v>64</v>
       </c>
       <c r="W23" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AD23" t="s">
         <v>169</v>
       </c>
       <c r="AH23" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AI23" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -19690,7 +19690,7 @@
         <v>170</v>
       </c>
       <c r="J24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K24" t="s">
         <v>171</v>
@@ -19699,33 +19699,33 @@
         <v>170</v>
       </c>
       <c r="M24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N24" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O24" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V24" t="s">
         <v>65</v>
       </c>
       <c r="W24" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC24" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AD24" t="s">
         <v>169</v>
       </c>
       <c r="AH24" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="25" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C25" t="s">
         <v>31</v>
@@ -19743,7 +19743,7 @@
         <v>170</v>
       </c>
       <c r="J25" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K25" t="s">
         <v>171</v>
@@ -19752,36 +19752,36 @@
         <v>170</v>
       </c>
       <c r="M25" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N25" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O25" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V25" t="s">
         <v>66</v>
       </c>
       <c r="W25" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AD25" t="s">
         <v>169</v>
       </c>
       <c r="AH25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AI25" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="26" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C26" t="s">
         <v>31</v>
@@ -19799,7 +19799,7 @@
         <v>170</v>
       </c>
       <c r="J26" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K26" t="s">
         <v>171</v>
@@ -19808,36 +19808,36 @@
         <v>170</v>
       </c>
       <c r="M26" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N26" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O26" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V26" t="s">
         <v>67</v>
       </c>
       <c r="W26" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC26" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AD26" t="s">
         <v>169</v>
       </c>
       <c r="AH26" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AI26" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="27" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C27" t="s">
         <v>31</v>
@@ -19855,7 +19855,7 @@
         <v>170</v>
       </c>
       <c r="J27" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K27" t="s">
         <v>171</v>
@@ -19864,36 +19864,36 @@
         <v>170</v>
       </c>
       <c r="M27" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N27" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O27" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V27" t="s">
         <v>68</v>
       </c>
       <c r="W27" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC27" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AD27" t="s">
         <v>169</v>
       </c>
       <c r="AH27" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AI27" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="28" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C28" t="s">
         <v>31</v>
@@ -19911,7 +19911,7 @@
         <v>170</v>
       </c>
       <c r="J28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K28" t="s">
         <v>171</v>
@@ -19920,36 +19920,36 @@
         <v>170</v>
       </c>
       <c r="M28" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N28" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O28" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V28" t="s">
         <v>69</v>
       </c>
       <c r="W28" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC28" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AD28" t="s">
         <v>169</v>
       </c>
       <c r="AH28" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AI28" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="29" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C29" t="s">
         <v>31</v>
@@ -19967,7 +19967,7 @@
         <v>170</v>
       </c>
       <c r="J29" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K29" t="s">
         <v>171</v>
@@ -19976,36 +19976,36 @@
         <v>170</v>
       </c>
       <c r="M29" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N29" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O29" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V29" t="s">
         <v>70</v>
       </c>
       <c r="W29" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC29" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AD29" t="s">
         <v>169</v>
       </c>
       <c r="AH29" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AI29" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="30" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C30" t="s">
         <v>31</v>
@@ -20023,7 +20023,7 @@
         <v>170</v>
       </c>
       <c r="J30" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K30" t="s">
         <v>171</v>
@@ -20032,33 +20032,33 @@
         <v>170</v>
       </c>
       <c r="M30" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N30" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O30" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V30" t="s">
         <v>71</v>
       </c>
       <c r="W30" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC30" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AD30" t="s">
         <v>169</v>
       </c>
       <c r="AH30" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C31" t="s">
         <v>31</v>
@@ -20076,7 +20076,7 @@
         <v>170</v>
       </c>
       <c r="J31" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K31" t="s">
         <v>171</v>
@@ -20085,36 +20085,36 @@
         <v>170</v>
       </c>
       <c r="M31" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N31" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O31" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V31" t="s">
         <v>72</v>
       </c>
       <c r="W31" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC31" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AD31" t="s">
         <v>169</v>
       </c>
       <c r="AH31" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AI31" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="32" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C32" t="s">
         <v>31</v>
@@ -20126,7 +20126,7 @@
         <v>242</v>
       </c>
       <c r="J32" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K32" t="s">
         <v>171</v>
@@ -20135,27 +20135,27 @@
         <v>170</v>
       </c>
       <c r="M32" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N32" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O32" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V32" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="W32" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="Z32" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="33" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C33" t="s">
         <v>31</v>
@@ -20173,7 +20173,7 @@
         <v>170</v>
       </c>
       <c r="J33" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K33" t="s">
         <v>171</v>
@@ -20182,36 +20182,36 @@
         <v>170</v>
       </c>
       <c r="M33" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N33" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O33" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V33" t="s">
         <v>73</v>
       </c>
       <c r="W33" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC33" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AD33" t="s">
         <v>169</v>
       </c>
       <c r="AH33" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AI33" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="34" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C34" t="s">
         <v>31</v>
@@ -20229,7 +20229,7 @@
         <v>170</v>
       </c>
       <c r="J34" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K34" t="s">
         <v>171</v>
@@ -20238,36 +20238,36 @@
         <v>170</v>
       </c>
       <c r="M34" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N34" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O34" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V34" t="s">
         <v>74</v>
       </c>
       <c r="W34" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC34" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AD34" t="s">
         <v>169</v>
       </c>
       <c r="AH34" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AI34" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="35" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C35" t="s">
         <v>31</v>
@@ -20285,7 +20285,7 @@
         <v>170</v>
       </c>
       <c r="J35" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K35" t="s">
         <v>171</v>
@@ -20294,36 +20294,36 @@
         <v>170</v>
       </c>
       <c r="M35" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N35" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O35" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V35" t="s">
         <v>75</v>
       </c>
       <c r="W35" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC35" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AD35" t="s">
         <v>169</v>
       </c>
       <c r="AH35" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AI35" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="36" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C36" t="s">
         <v>31</v>
@@ -20341,7 +20341,7 @@
         <v>170</v>
       </c>
       <c r="J36" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K36" t="s">
         <v>171</v>
@@ -20350,33 +20350,33 @@
         <v>170</v>
       </c>
       <c r="M36" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N36" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O36" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V36" t="s">
         <v>76</v>
       </c>
       <c r="W36" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC36" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AD36" t="s">
         <v>169</v>
       </c>
       <c r="AH36" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="37" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C37" t="s">
         <v>31</v>
@@ -20394,7 +20394,7 @@
         <v>170</v>
       </c>
       <c r="J37" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K37" t="s">
         <v>171</v>
@@ -20403,33 +20403,33 @@
         <v>170</v>
       </c>
       <c r="M37" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N37" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O37" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V37" t="s">
         <v>77</v>
       </c>
       <c r="W37" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC37" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AD37" t="s">
         <v>169</v>
       </c>
       <c r="AH37" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="38" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C38" t="s">
         <v>31</v>
@@ -20447,7 +20447,7 @@
         <v>170</v>
       </c>
       <c r="J38" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K38" t="s">
         <v>171</v>
@@ -20456,36 +20456,36 @@
         <v>170</v>
       </c>
       <c r="M38" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N38" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O38" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V38" t="s">
         <v>78</v>
       </c>
       <c r="W38" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC38" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AD38" t="s">
         <v>169</v>
       </c>
       <c r="AH38" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AI38" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="39" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C39" t="s">
         <v>31</v>
@@ -20503,7 +20503,7 @@
         <v>170</v>
       </c>
       <c r="J39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K39" t="s">
         <v>171</v>
@@ -20512,33 +20512,33 @@
         <v>170</v>
       </c>
       <c r="M39" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N39" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O39" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V39" t="s">
         <v>79</v>
       </c>
       <c r="W39" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC39" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AD39" t="s">
         <v>169</v>
       </c>
       <c r="AH39" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="40" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C40" t="s">
         <v>31</v>
@@ -20556,7 +20556,7 @@
         <v>170</v>
       </c>
       <c r="J40" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K40" t="s">
         <v>171</v>
@@ -20565,36 +20565,36 @@
         <v>170</v>
       </c>
       <c r="M40" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N40" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O40" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V40" t="s">
         <v>80</v>
       </c>
       <c r="W40" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC40" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AD40" t="s">
         <v>169</v>
       </c>
       <c r="AH40" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AI40" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="41" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C41" t="s">
         <v>31</v>
@@ -20612,7 +20612,7 @@
         <v>170</v>
       </c>
       <c r="J41" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K41" t="s">
         <v>171</v>
@@ -20621,33 +20621,33 @@
         <v>170</v>
       </c>
       <c r="M41" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N41" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O41" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V41" t="s">
         <v>81</v>
       </c>
       <c r="W41" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC41" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AD41" t="s">
         <v>169</v>
       </c>
       <c r="AH41" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="42" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C42" t="s">
         <v>31</v>
@@ -20665,7 +20665,7 @@
         <v>170</v>
       </c>
       <c r="J42" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K42" t="s">
         <v>171</v>
@@ -20674,33 +20674,33 @@
         <v>170</v>
       </c>
       <c r="M42" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N42" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O42" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V42" t="s">
         <v>82</v>
       </c>
       <c r="W42" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC42" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AD42" t="s">
         <v>169</v>
       </c>
       <c r="AH42" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="43" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C43" t="s">
         <v>31</v>
@@ -20718,7 +20718,7 @@
         <v>170</v>
       </c>
       <c r="J43" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K43" t="s">
         <v>171</v>
@@ -20727,33 +20727,33 @@
         <v>170</v>
       </c>
       <c r="M43" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N43" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O43" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V43" t="s">
         <v>83</v>
       </c>
       <c r="W43" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC43" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AD43" t="s">
         <v>169</v>
       </c>
       <c r="AH43" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="44" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C44" t="s">
         <v>31</v>
@@ -20771,7 +20771,7 @@
         <v>170</v>
       </c>
       <c r="J44" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K44" t="s">
         <v>171</v>
@@ -20780,33 +20780,33 @@
         <v>170</v>
       </c>
       <c r="M44" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N44" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O44" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V44" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="W44" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC44" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AD44" t="s">
         <v>169</v>
       </c>
       <c r="AH44" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="45" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C45" t="s">
         <v>31</v>
@@ -20824,7 +20824,7 @@
         <v>170</v>
       </c>
       <c r="J45" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K45" t="s">
         <v>171</v>
@@ -20833,36 +20833,36 @@
         <v>170</v>
       </c>
       <c r="M45" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N45" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O45" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V45" t="s">
         <v>84</v>
       </c>
       <c r="W45" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC45" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AD45" t="s">
         <v>169</v>
       </c>
       <c r="AH45" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AI45" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="46" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C46" t="s">
         <v>31</v>
@@ -20880,7 +20880,7 @@
         <v>170</v>
       </c>
       <c r="J46" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K46" t="s">
         <v>171</v>
@@ -20889,36 +20889,36 @@
         <v>170</v>
       </c>
       <c r="M46" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N46" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O46" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V46" t="s">
         <v>85</v>
       </c>
       <c r="W46" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC46" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AD46" t="s">
         <v>169</v>
       </c>
       <c r="AH46" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AI46" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="47" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C47" t="s">
         <v>31</v>
@@ -20936,7 +20936,7 @@
         <v>170</v>
       </c>
       <c r="J47" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K47" t="s">
         <v>171</v>
@@ -20945,36 +20945,36 @@
         <v>170</v>
       </c>
       <c r="M47" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N47" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O47" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V47" t="s">
         <v>86</v>
       </c>
       <c r="W47" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC47" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AD47" t="s">
         <v>169</v>
       </c>
       <c r="AH47" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AI47" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="48" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C48" t="s">
         <v>31</v>
@@ -20992,7 +20992,7 @@
         <v>170</v>
       </c>
       <c r="J48" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K48" t="s">
         <v>171</v>
@@ -21001,36 +21001,36 @@
         <v>170</v>
       </c>
       <c r="M48" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N48" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O48" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V48" t="s">
         <v>87</v>
       </c>
       <c r="W48" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC48" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AD48" t="s">
         <v>169</v>
       </c>
       <c r="AH48" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AI48" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="49" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C49" t="s">
         <v>32</v>
@@ -21048,7 +21048,7 @@
         <v>170</v>
       </c>
       <c r="J49" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K49" t="s">
         <v>172</v>
@@ -21057,39 +21057,39 @@
         <v>170</v>
       </c>
       <c r="M49" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N49" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="V49" t="s">
         <v>88</v>
       </c>
       <c r="W49" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC49" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AD49" t="s">
         <v>170</v>
       </c>
       <c r="AE49" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AH49" t="s">
         <v>172</v>
       </c>
       <c r="AI49" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="50" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C50" t="s">
         <v>32</v>
@@ -21107,48 +21107,48 @@
         <v>170</v>
       </c>
       <c r="I50" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J50" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K50" t="s">
-        <v>173</v>
+        <v>507</v>
       </c>
       <c r="L50" t="s">
         <v>170</v>
       </c>
       <c r="M50" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N50" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="V50" t="s">
         <v>89</v>
       </c>
       <c r="W50" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AD50" t="s">
         <v>170</v>
       </c>
       <c r="AE50" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AI50" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="51" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C51" t="s">
         <v>32</v>
@@ -21166,45 +21166,45 @@
         <v>170</v>
       </c>
       <c r="I51" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J51" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K51" t="s">
-        <v>173</v>
+        <v>507</v>
       </c>
       <c r="L51" t="s">
         <v>170</v>
       </c>
       <c r="M51" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N51" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="V51" t="s">
         <v>90</v>
       </c>
       <c r="W51" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC51" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AD51" t="s">
         <v>170</v>
       </c>
       <c r="AI51" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="52" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C52" t="s">
         <v>32</v>
@@ -21222,48 +21222,48 @@
         <v>170</v>
       </c>
       <c r="J52" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K52" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L52" t="s">
         <v>170</v>
       </c>
       <c r="M52" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N52" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="V52" t="s">
         <v>91</v>
       </c>
       <c r="W52" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AD52" t="s">
         <v>170</v>
       </c>
       <c r="AE52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AH52" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AI52" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="53" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C53" t="s">
         <v>32</v>
@@ -21281,48 +21281,48 @@
         <v>170</v>
       </c>
       <c r="J53" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K53" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L53" t="s">
         <v>170</v>
       </c>
       <c r="M53" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N53" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="V53" t="s">
         <v>92</v>
       </c>
       <c r="W53" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC53" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AD53" t="s">
         <v>170</v>
       </c>
       <c r="AE53" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AH53" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AI53" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="54" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C54" t="s">
         <v>32</v>
@@ -21340,48 +21340,48 @@
         <v>170</v>
       </c>
       <c r="I54" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J54" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K54" t="s">
-        <v>173</v>
+        <v>507</v>
       </c>
       <c r="L54" t="s">
         <v>170</v>
       </c>
       <c r="M54" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N54" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="V54" t="s">
         <v>93</v>
       </c>
       <c r="W54" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC54" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AD54" t="s">
         <v>170</v>
       </c>
       <c r="AE54" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AI54" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="55" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C55" t="s">
         <v>32</v>
@@ -21399,48 +21399,48 @@
         <v>170</v>
       </c>
       <c r="J55" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K55" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L55" t="s">
         <v>170</v>
       </c>
       <c r="M55" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N55" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="O55" s="12" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="V55" t="s">
         <v>94</v>
       </c>
       <c r="W55" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC55" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AD55" t="s">
         <v>170</v>
       </c>
       <c r="AE55" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AH55" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AI55" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="56" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C56" t="s">
         <v>32</v>
@@ -21458,48 +21458,48 @@
         <v>170</v>
       </c>
       <c r="J56" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K56" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L56" t="s">
         <v>170</v>
       </c>
       <c r="M56" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N56" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="O56" s="12" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="V56" t="s">
         <v>95</v>
       </c>
       <c r="W56" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC56" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AD56" t="s">
         <v>170</v>
       </c>
       <c r="AE56" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AH56" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AI56" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="57" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C57" t="s">
         <v>32</v>
@@ -21517,48 +21517,48 @@
         <v>170</v>
       </c>
       <c r="J57" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K57" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L57" t="s">
         <v>169</v>
       </c>
       <c r="M57" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N57" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="V57" t="s">
         <v>96</v>
       </c>
       <c r="W57" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC57" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AD57" t="s">
         <v>170</v>
       </c>
       <c r="AE57" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AH57" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AI57" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="58" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C58" t="s">
         <v>32</v>
@@ -21576,51 +21576,51 @@
         <v>170</v>
       </c>
       <c r="I58" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J58" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K58" t="s">
-        <v>173</v>
+        <v>507</v>
       </c>
       <c r="L58" t="s">
         <v>170</v>
       </c>
       <c r="M58" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N58" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="V58" t="s">
         <v>97</v>
       </c>
       <c r="W58" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC58" t="s">
+        <v>272</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF58" t="s">
         <v>274</v>
       </c>
-      <c r="AD58" t="s">
-        <v>170</v>
-      </c>
-      <c r="AE58" t="s">
-        <v>275</v>
-      </c>
-      <c r="AF58" t="s">
-        <v>276</v>
-      </c>
       <c r="AI58" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="59" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C59" t="s">
         <v>32</v>
@@ -21638,48 +21638,48 @@
         <v>170</v>
       </c>
       <c r="I59" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J59" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K59" t="s">
-        <v>173</v>
+        <v>507</v>
       </c>
       <c r="L59" t="s">
         <v>170</v>
       </c>
       <c r="M59" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N59" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="V59" t="s">
         <v>98</v>
       </c>
       <c r="W59" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC59" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AD59" t="s">
         <v>170</v>
       </c>
       <c r="AE59" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AI59" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="60" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C60" t="s">
         <v>32</v>
@@ -21697,48 +21697,48 @@
         <v>170</v>
       </c>
       <c r="J60" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K60" t="s">
-        <v>176</v>
+        <v>508</v>
       </c>
       <c r="L60" t="s">
         <v>170</v>
       </c>
       <c r="M60" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N60" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="V60" t="s">
         <v>99</v>
       </c>
       <c r="W60" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC60" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AD60" t="s">
         <v>170</v>
       </c>
       <c r="AE60" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AH60" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AI60" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="61" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C61" t="s">
         <v>33</v>
@@ -21756,45 +21756,45 @@
         <v>170</v>
       </c>
       <c r="J61" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K61" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L61" t="s">
         <v>170</v>
       </c>
       <c r="M61" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N61" s="12" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="O61" s="12" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="V61" t="s">
         <v>100</v>
       </c>
       <c r="W61" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC61" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AD61" t="s">
         <v>170</v>
       </c>
       <c r="AH61" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AI61" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="62" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C62" t="s">
         <v>33</v>
@@ -21812,48 +21812,48 @@
         <v>170</v>
       </c>
       <c r="J62" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K62" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L62" t="s">
         <v>170</v>
       </c>
       <c r="M62" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N62" s="12" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="O62" s="12" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="V62" t="s">
         <v>101</v>
       </c>
       <c r="W62" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC62" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AD62" t="s">
         <v>170</v>
       </c>
       <c r="AE62" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AH62" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AI62" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="63" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C63" t="s">
         <v>33</v>
@@ -21871,45 +21871,45 @@
         <v>170</v>
       </c>
       <c r="J63" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K63" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L63" t="s">
         <v>170</v>
       </c>
       <c r="M63" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N63" s="12" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="O63" s="12" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="V63" t="s">
         <v>102</v>
       </c>
       <c r="W63" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC63" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AD63" t="s">
         <v>170</v>
       </c>
       <c r="AH63" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AI63" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="64" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C64" t="s">
         <v>34</v>
@@ -21927,48 +21927,48 @@
         <v>170</v>
       </c>
       <c r="I64" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J64" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K64" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L64" t="s">
         <v>170</v>
       </c>
       <c r="M64" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N64" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="V64" t="s">
         <v>103</v>
       </c>
       <c r="W64" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC64" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AD64" t="s">
         <v>170</v>
       </c>
       <c r="AE64" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AI64" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="65" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C65" t="s">
         <v>34</v>
@@ -21986,48 +21986,48 @@
         <v>170</v>
       </c>
       <c r="I65" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J65" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L65" t="s">
         <v>170</v>
       </c>
       <c r="M65" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N65" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="V65" t="s">
         <v>104</v>
       </c>
       <c r="W65" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC65" t="s">
+        <v>283</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE65" t="s">
         <v>285</v>
       </c>
-      <c r="AD65" t="s">
-        <v>170</v>
-      </c>
-      <c r="AE65" t="s">
-        <v>287</v>
-      </c>
       <c r="AI65" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="66" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C66" t="s">
         <v>34</v>
@@ -22045,48 +22045,48 @@
         <v>170</v>
       </c>
       <c r="I66" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J66" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K66" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L66" t="s">
         <v>170</v>
       </c>
       <c r="M66" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N66" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="V66" t="s">
         <v>105</v>
       </c>
       <c r="W66" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC66" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AD66" t="s">
         <v>170</v>
       </c>
       <c r="AE66" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AI66" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="67" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C67" t="s">
         <v>34</v>
@@ -22104,51 +22104,51 @@
         <v>170</v>
       </c>
       <c r="I67" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J67" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K67" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L67" t="s">
         <v>170</v>
       </c>
       <c r="M67" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N67" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="V67" t="s">
         <v>106</v>
       </c>
       <c r="W67" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC67" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AD67" t="s">
         <v>170</v>
       </c>
       <c r="AE67" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AH67" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AI67" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="68" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C68" t="s">
         <v>34</v>
@@ -22166,51 +22166,51 @@
         <v>170</v>
       </c>
       <c r="I68" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J68" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K68" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L68" t="s">
         <v>170</v>
       </c>
       <c r="M68" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N68" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="V68" t="s">
         <v>107</v>
       </c>
       <c r="W68" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC68" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AD68" t="s">
         <v>170</v>
       </c>
       <c r="AE68" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AH68" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AI68" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="69" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C69" t="s">
         <v>34</v>
@@ -22222,36 +22222,36 @@
         <v>303</v>
       </c>
       <c r="J69" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K69" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L69" t="s">
         <v>170</v>
       </c>
       <c r="M69" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N69" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="V69" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="W69" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Z69" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="70" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C70" t="s">
         <v>34</v>
@@ -22263,36 +22263,36 @@
         <v>304</v>
       </c>
       <c r="J70" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K70" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L70" t="s">
         <v>170</v>
       </c>
       <c r="M70" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N70" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="V70" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="W70" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Z70" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="71" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C71" t="s">
         <v>34</v>
@@ -22304,36 +22304,36 @@
         <v>304</v>
       </c>
       <c r="J71" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K71" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L71" t="s">
         <v>170</v>
       </c>
       <c r="M71" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N71" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="V71" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="W71" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Z71" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="72" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C72" t="s">
         <v>34</v>
@@ -22345,36 +22345,36 @@
         <v>305</v>
       </c>
       <c r="J72" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K72" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L72" t="s">
         <v>170</v>
       </c>
       <c r="M72" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N72" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="V72" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="W72" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Z72" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="73" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C73" t="s">
         <v>34</v>
@@ -22386,36 +22386,36 @@
         <v>306</v>
       </c>
       <c r="J73" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K73" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L73" t="s">
         <v>170</v>
       </c>
       <c r="M73" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N73" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="V73" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="W73" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Z73" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="74" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C74" t="s">
         <v>34</v>
@@ -22427,36 +22427,36 @@
         <v>306</v>
       </c>
       <c r="J74" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K74" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L74" t="s">
         <v>170</v>
       </c>
       <c r="M74" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N74" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="V74" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="W74" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Z74" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="75" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C75" t="s">
         <v>34</v>
@@ -22474,51 +22474,51 @@
         <v>170</v>
       </c>
       <c r="I75" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J75" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K75" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L75" t="s">
         <v>170</v>
       </c>
       <c r="M75" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N75" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="V75" t="s">
         <v>108</v>
       </c>
       <c r="W75" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC75" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AD75" t="s">
         <v>170</v>
       </c>
       <c r="AE75" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AH75" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AI75" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="76" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C76" t="s">
         <v>34</v>
@@ -22536,51 +22536,51 @@
         <v>170</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J76" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K76" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L76" t="s">
         <v>170</v>
       </c>
       <c r="M76" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N76" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="V76" t="s">
         <v>109</v>
       </c>
       <c r="W76" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC76" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AD76" t="s">
         <v>170</v>
       </c>
       <c r="AE76" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AH76" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AI76" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="77" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C77" t="s">
         <v>34</v>
@@ -22599,51 +22599,51 @@
       </c>
       <c r="I77" s="6"/>
       <c r="J77" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K77" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L77" t="s">
         <v>170</v>
       </c>
       <c r="M77" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N77" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="V77" t="s">
         <v>110</v>
       </c>
       <c r="W77" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC77" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>295</v>
+      </c>
+      <c r="AF77" t="s">
         <v>296</v>
       </c>
-      <c r="AD77" t="s">
-        <v>170</v>
-      </c>
-      <c r="AE77" t="s">
-        <v>297</v>
-      </c>
-      <c r="AF77" t="s">
-        <v>298</v>
-      </c>
       <c r="AH77" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AI77" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="78" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C78" t="s">
         <v>35</v>
@@ -22662,42 +22662,42 @@
       </c>
       <c r="I78" s="6"/>
       <c r="J78" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K78" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L78" t="s">
         <v>170</v>
       </c>
       <c r="M78" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N78" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="V78" t="s">
         <v>111</v>
       </c>
       <c r="W78" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC78" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AD78" t="s">
         <v>170</v>
       </c>
       <c r="AH78" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="79" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C79" t="s">
         <v>35</v>
@@ -22716,51 +22716,51 @@
       </c>
       <c r="I79" s="6"/>
       <c r="J79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K79" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L79" t="s">
         <v>170</v>
       </c>
       <c r="M79" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N79" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="V79" t="s">
         <v>112</v>
       </c>
       <c r="W79" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC79" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AD79" t="s">
         <v>170</v>
       </c>
       <c r="AE79" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AF79" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AH79" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AI79" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="80" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C80" t="s">
         <v>35</v>
@@ -22778,45 +22778,45 @@
         <v>170</v>
       </c>
       <c r="J80" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K80" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L80" t="s">
         <v>170</v>
       </c>
       <c r="M80" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N80" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="V80" t="s">
         <v>113</v>
       </c>
       <c r="W80" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC80" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AD80" t="s">
         <v>170</v>
       </c>
       <c r="AH80" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AI80" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="81" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C81" t="s">
         <v>35</v>
@@ -22834,45 +22834,45 @@
         <v>170</v>
       </c>
       <c r="J81" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K81" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L81" t="s">
         <v>170</v>
       </c>
       <c r="M81" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N81" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="V81" t="s">
         <v>114</v>
       </c>
       <c r="W81" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC81" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AD81" t="s">
         <v>170</v>
       </c>
       <c r="AE81" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AH81" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="82" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C82" t="s">
         <v>36</v>
@@ -22890,45 +22890,45 @@
         <v>170</v>
       </c>
       <c r="J82" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K82" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L82" t="s">
         <v>170</v>
       </c>
       <c r="M82" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N82" s="12" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="O82" s="12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="V82" t="s">
         <v>115</v>
       </c>
       <c r="W82" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC82" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AD82" t="s">
         <v>170</v>
       </c>
       <c r="AH82" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AI82" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="83" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C83" t="s">
         <v>36</v>
@@ -22946,45 +22946,45 @@
         <v>170</v>
       </c>
       <c r="J83" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K83" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L83" t="s">
         <v>170</v>
       </c>
       <c r="M83" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N83" s="12" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="O83" s="12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="V83" t="s">
         <v>116</v>
       </c>
       <c r="W83" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC83" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AD83" t="s">
         <v>170</v>
       </c>
       <c r="AH83" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AI83" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="84" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C84" t="s">
         <v>36</v>
@@ -23002,48 +23002,48 @@
         <v>170</v>
       </c>
       <c r="J84" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K84" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L84" t="s">
         <v>170</v>
       </c>
       <c r="M84" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N84" s="12" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="O84" s="12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="V84" t="s">
         <v>117</v>
       </c>
       <c r="W84" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC84" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AD84" t="s">
         <v>170</v>
       </c>
       <c r="AE84" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AH84" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AI84" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="85" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C85" t="s">
         <v>36</v>
@@ -23061,42 +23061,42 @@
         <v>170</v>
       </c>
       <c r="J85" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K85" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L85" t="s">
         <v>170</v>
       </c>
       <c r="M85" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N85" s="12" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="O85" s="12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="V85" t="s">
         <v>118</v>
       </c>
       <c r="W85" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC85" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AD85" t="s">
         <v>170</v>
       </c>
       <c r="AH85" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="86" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C86" t="s">
         <v>36</v>
@@ -23114,48 +23114,48 @@
         <v>170</v>
       </c>
       <c r="J86" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K86" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L86" t="s">
         <v>170</v>
       </c>
       <c r="M86" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N86" s="12" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="O86" s="12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="V86" t="s">
         <v>119</v>
       </c>
       <c r="W86" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC86" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AD86" t="s">
         <v>170</v>
       </c>
       <c r="AE86" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AH86" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AI86" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="87" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C87" t="s">
         <v>36</v>
@@ -23173,48 +23173,48 @@
         <v>170</v>
       </c>
       <c r="J87" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K87" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L87" t="s">
         <v>170</v>
       </c>
       <c r="M87" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N87" s="12" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="O87" s="12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="V87" t="s">
         <v>120</v>
       </c>
       <c r="W87" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC87" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AD87" t="s">
         <v>170</v>
       </c>
       <c r="AE87" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AH87" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AI87" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="88" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C88" t="s">
         <v>36</v>
@@ -23232,51 +23232,51 @@
         <v>170</v>
       </c>
       <c r="J88" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K88" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L88" t="s">
         <v>170</v>
       </c>
       <c r="M88" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N88" s="12" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="O88" s="12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="V88" t="s">
         <v>121</v>
       </c>
       <c r="W88" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC88" t="s">
+        <v>312</v>
+      </c>
+      <c r="AD88" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE88" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF88" t="s">
         <v>314</v>
       </c>
-      <c r="AD88" t="s">
-        <v>170</v>
-      </c>
-      <c r="AE88" t="s">
-        <v>315</v>
-      </c>
-      <c r="AF88" t="s">
-        <v>316</v>
-      </c>
       <c r="AH88" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AI88" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="89" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C89" t="s">
         <v>36</v>
@@ -23294,48 +23294,48 @@
         <v>170</v>
       </c>
       <c r="J89" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K89" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L89" t="s">
         <v>170</v>
       </c>
       <c r="M89" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N89" s="12" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="O89" s="12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="V89" t="s">
         <v>122</v>
       </c>
       <c r="W89" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC89" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AD89" t="s">
         <v>170</v>
       </c>
       <c r="AE89" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AH89" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AI89" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="90" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C90" t="s">
         <v>36</v>
@@ -23353,42 +23353,42 @@
         <v>170</v>
       </c>
       <c r="J90" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K90" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L90" t="s">
         <v>170</v>
       </c>
       <c r="M90" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N90" s="12" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="O90" s="12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="V90" t="s">
         <v>123</v>
       </c>
       <c r="W90" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC90" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AD90" t="s">
         <v>170</v>
       </c>
       <c r="AH90" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="91" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C91" t="s">
         <v>36</v>
@@ -23406,48 +23406,48 @@
         <v>170</v>
       </c>
       <c r="J91" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K91" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L91" t="s">
         <v>170</v>
       </c>
       <c r="M91" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N91" s="12" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="O91" s="12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="V91" t="s">
         <v>124</v>
       </c>
       <c r="W91" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC91" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AD91" t="s">
         <v>170</v>
       </c>
       <c r="AE91" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AH91" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AI91" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="92" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C92" t="s">
         <v>36</v>
@@ -23465,51 +23465,51 @@
         <v>170</v>
       </c>
       <c r="J92" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K92" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L92" t="s">
         <v>170</v>
       </c>
       <c r="M92" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N92" s="12" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="O92" s="12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="V92" t="s">
         <v>125</v>
       </c>
       <c r="W92" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC92" t="s">
+        <v>320</v>
+      </c>
+      <c r="AD92" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE92" t="s">
+        <v>321</v>
+      </c>
+      <c r="AF92" t="s">
         <v>322</v>
       </c>
-      <c r="AD92" t="s">
-        <v>170</v>
-      </c>
-      <c r="AE92" t="s">
-        <v>323</v>
-      </c>
-      <c r="AF92" t="s">
-        <v>324</v>
-      </c>
       <c r="AH92" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AI92" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="93" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C93" t="s">
         <v>36</v>
@@ -23527,45 +23527,45 @@
         <v>170</v>
       </c>
       <c r="J93" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L93" t="s">
         <v>170</v>
       </c>
       <c r="M93" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N93" s="12" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="O93" s="12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="V93" t="s">
         <v>126</v>
       </c>
       <c r="W93" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC93" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AD93" t="s">
         <v>170</v>
       </c>
       <c r="AE93" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AH93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C94" t="s">
         <v>36</v>
@@ -23583,48 +23583,48 @@
         <v>170</v>
       </c>
       <c r="J94" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L94" t="s">
         <v>170</v>
       </c>
       <c r="M94" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N94" s="12" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="O94" s="12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="V94" t="s">
         <v>127</v>
       </c>
       <c r="W94" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC94" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AD94" t="s">
         <v>170</v>
       </c>
       <c r="AE94" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AH94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AI94" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="95" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C95" t="s">
         <v>36</v>
@@ -23642,54 +23642,54 @@
         <v>170</v>
       </c>
       <c r="J95" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K95" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L95" t="s">
         <v>170</v>
       </c>
       <c r="M95" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N95" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O95" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="V95" t="s">
         <v>128</v>
       </c>
       <c r="W95" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC95" t="s">
+        <v>325</v>
+      </c>
+      <c r="AD95" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE95" t="s">
+        <v>326</v>
+      </c>
+      <c r="AF95" t="s">
         <v>327</v>
       </c>
-      <c r="AD95" t="s">
-        <v>170</v>
-      </c>
-      <c r="AE95" t="s">
+      <c r="AG95" t="s">
         <v>328</v>
       </c>
-      <c r="AF95" t="s">
-        <v>329</v>
-      </c>
-      <c r="AG95" t="s">
-        <v>330</v>
-      </c>
       <c r="AH95" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AI95" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="96" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C96" t="s">
         <v>36</v>
@@ -23701,36 +23701,36 @@
         <v>333</v>
       </c>
       <c r="J96" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K96" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L96" t="s">
         <v>170</v>
       </c>
       <c r="M96" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N96" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O96" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="V96" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="W96" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Z96" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="97" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C97" t="s">
         <v>36</v>
@@ -23742,36 +23742,36 @@
         <v>334</v>
       </c>
       <c r="J97" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K97" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L97" t="s">
         <v>170</v>
       </c>
       <c r="M97" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N97" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="V97" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="W97" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Z97" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="98" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C98" t="s">
         <v>36</v>
@@ -23789,45 +23789,45 @@
         <v>170</v>
       </c>
       <c r="J98" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K98" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L98" t="s">
         <v>170</v>
       </c>
       <c r="M98" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N98" s="12" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="O98" s="12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="V98" t="s">
         <v>129</v>
       </c>
       <c r="W98" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC98" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AD98" t="s">
         <v>170</v>
       </c>
       <c r="AE98" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AH98" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="99" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C99" t="s">
         <v>36</v>
@@ -23845,45 +23845,45 @@
         <v>170</v>
       </c>
       <c r="J99" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K99" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L99" t="s">
         <v>170</v>
       </c>
       <c r="M99" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N99" s="12" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="O99" s="12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="V99" t="s">
         <v>130</v>
       </c>
       <c r="W99" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC99" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AD99" t="s">
         <v>170</v>
       </c>
       <c r="AH99" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AI99" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="100" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C100" t="s">
         <v>37</v>
@@ -23901,48 +23901,48 @@
         <v>170</v>
       </c>
       <c r="J100" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K100" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L100" t="s">
         <v>170</v>
       </c>
       <c r="M100" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N100" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="O100" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="V100" t="s">
         <v>131</v>
       </c>
       <c r="W100" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC100" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AD100" t="s">
         <v>170</v>
       </c>
       <c r="AE100" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AH100" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AI100" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="101" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C101" t="s">
         <v>37</v>
@@ -23960,54 +23960,54 @@
         <v>170</v>
       </c>
       <c r="J101" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K101" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L101" t="s">
         <v>170</v>
       </c>
       <c r="M101" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N101" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="O101" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="V101" t="s">
         <v>132</v>
       </c>
       <c r="W101" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC101" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AD101" t="s">
         <v>170</v>
       </c>
       <c r="AE101" t="s">
+        <v>334</v>
+      </c>
+      <c r="AF101" t="s">
+        <v>335</v>
+      </c>
+      <c r="AG101" t="s">
         <v>336</v>
       </c>
-      <c r="AF101" t="s">
-        <v>337</v>
-      </c>
-      <c r="AG101" t="s">
-        <v>338</v>
-      </c>
       <c r="AH101" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AI101" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="102" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C102" t="s">
         <v>37</v>
@@ -24025,51 +24025,51 @@
         <v>170</v>
       </c>
       <c r="J102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K102" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L102" t="s">
         <v>170</v>
       </c>
       <c r="M102" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N102" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="O102" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="V102" t="s">
         <v>133</v>
       </c>
       <c r="W102" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC102" t="s">
+        <v>337</v>
+      </c>
+      <c r="AD102" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE102" t="s">
+        <v>338</v>
+      </c>
+      <c r="AF102" t="s">
         <v>339</v>
       </c>
-      <c r="AD102" t="s">
-        <v>170</v>
-      </c>
-      <c r="AE102" t="s">
-        <v>340</v>
-      </c>
-      <c r="AF102" t="s">
-        <v>341</v>
-      </c>
       <c r="AH102" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AI102" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="103" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C103" t="s">
         <v>37</v>
@@ -24087,48 +24087,48 @@
         <v>170</v>
       </c>
       <c r="J103" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K103" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L103" t="s">
         <v>170</v>
       </c>
       <c r="M103" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N103" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="O103" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="V103" t="s">
         <v>134</v>
       </c>
       <c r="W103" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC103" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AD103" t="s">
         <v>170</v>
       </c>
       <c r="AE103" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AH103" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AI103" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="104" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C104" t="s">
         <v>38</v>
@@ -24146,48 +24146,48 @@
         <v>170</v>
       </c>
       <c r="J104" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K104" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L104" t="s">
         <v>170</v>
       </c>
       <c r="M104" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N104" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="O104" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="V104" t="s">
         <v>135</v>
       </c>
       <c r="W104" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC104" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AD104" t="s">
         <v>170</v>
       </c>
       <c r="AE104" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AH104" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AI104" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="105" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C105" t="s">
         <v>37</v>
@@ -24205,48 +24205,48 @@
         <v>170</v>
       </c>
       <c r="J105" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K105" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L105" t="s">
         <v>170</v>
       </c>
       <c r="M105" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N105" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="O105" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="V105" t="s">
         <v>136</v>
       </c>
       <c r="W105" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC105" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AD105" t="s">
         <v>170</v>
       </c>
       <c r="AE105" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AH105" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AI105" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="106" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C106" t="s">
         <v>37</v>
@@ -24258,36 +24258,36 @@
         <v>342</v>
       </c>
       <c r="J106" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K106" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L106" t="s">
         <v>170</v>
       </c>
       <c r="M106" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N106" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="O106" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="V106" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="W106" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Z106" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="107" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C107" t="s">
         <v>37</v>
@@ -24299,36 +24299,36 @@
         <v>341</v>
       </c>
       <c r="J107" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K107" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L107" t="s">
         <v>170</v>
       </c>
       <c r="M107" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N107" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="O107" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="V107" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="W107" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="Z107" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="108" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C108" t="s">
         <v>37</v>
@@ -24340,36 +24340,36 @@
         <v>342</v>
       </c>
       <c r="J108" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K108" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L108" t="s">
         <v>170</v>
       </c>
       <c r="M108" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N108" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="O108" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="V108" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="W108" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="Z108" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="109" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C109" t="s">
         <v>37</v>
@@ -24381,36 +24381,36 @@
         <v>343</v>
       </c>
       <c r="J109" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K109" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L109" t="s">
         <v>170</v>
       </c>
       <c r="M109" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N109" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="O109" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="V109" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="W109" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Z109" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="110" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C110" t="s">
         <v>37</v>
@@ -24422,36 +24422,36 @@
         <v>342</v>
       </c>
       <c r="J110" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K110" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L110" t="s">
         <v>170</v>
       </c>
       <c r="M110" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N110" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="O110" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="V110" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="W110" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="Z110" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="111" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C111" t="s">
         <v>37</v>
@@ -24463,36 +24463,36 @@
         <v>343</v>
       </c>
       <c r="J111" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K111" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L111" t="s">
         <v>170</v>
       </c>
       <c r="M111" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N111" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="O111" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="V111" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="W111" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="Z111" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="112" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C112" t="s">
         <v>37</v>
@@ -24510,48 +24510,48 @@
         <v>170</v>
       </c>
       <c r="J112" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K112" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L112" t="s">
         <v>170</v>
       </c>
       <c r="M112" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N112" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="O112" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="V112" t="s">
         <v>137</v>
       </c>
       <c r="W112" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AD112" t="s">
         <v>170</v>
       </c>
       <c r="AE112" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AF112" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AH112" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AI112" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="113" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C113" t="s">
         <v>39</v>
@@ -24569,48 +24569,48 @@
         <v>170</v>
       </c>
       <c r="J113" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K113" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L113" t="s">
         <v>170</v>
       </c>
       <c r="M113" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N113" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="O113" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V113" t="s">
         <v>138</v>
       </c>
       <c r="W113" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC113" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AD113" t="s">
         <v>170</v>
       </c>
       <c r="AE113" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AH113" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AI113" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="114" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C114" t="s">
         <v>39</v>
@@ -24628,45 +24628,45 @@
         <v>170</v>
       </c>
       <c r="J114" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K114" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L114" t="s">
         <v>170</v>
       </c>
       <c r="M114" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N114" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="O114" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V114" t="s">
         <v>139</v>
       </c>
       <c r="W114" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC114" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AD114" t="s">
         <v>170</v>
       </c>
       <c r="AH114" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AI114" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="115" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C115" t="s">
         <v>39</v>
@@ -24684,45 +24684,45 @@
         <v>170</v>
       </c>
       <c r="J115" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K115" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L115" t="s">
         <v>170</v>
       </c>
       <c r="M115" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N115" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="O115" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V115" t="s">
         <v>140</v>
       </c>
       <c r="W115" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC115" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AD115" t="s">
         <v>170</v>
       </c>
       <c r="AH115" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AI115" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="116" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C116" t="s">
         <v>39</v>
@@ -24740,42 +24740,42 @@
         <v>170</v>
       </c>
       <c r="J116" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K116" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L116" t="s">
         <v>170</v>
       </c>
       <c r="M116" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N116" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="O116" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V116" t="s">
         <v>141</v>
       </c>
       <c r="W116" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC116" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AH116" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AI116" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="117" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C117" t="s">
         <v>39</v>
@@ -24793,42 +24793,42 @@
         <v>170</v>
       </c>
       <c r="J117" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K117" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L117" t="s">
         <v>170</v>
       </c>
       <c r="M117" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N117" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="O117" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V117" t="s">
         <v>142</v>
       </c>
       <c r="W117" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC117" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AH117" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AI117" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="118" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C118" t="s">
         <v>39</v>
@@ -24846,51 +24846,51 @@
         <v>170</v>
       </c>
       <c r="J118" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K118" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L118" t="s">
         <v>170</v>
       </c>
       <c r="M118" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="N118" s="12" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="O118" s="12" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="V118" t="s">
         <v>143</v>
       </c>
       <c r="W118" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC118" t="s">
+        <v>353</v>
+      </c>
+      <c r="AD118" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE118" t="s">
+        <v>354</v>
+      </c>
+      <c r="AF118" t="s">
         <v>355</v>
       </c>
-      <c r="AD118" t="s">
-        <v>170</v>
-      </c>
-      <c r="AE118" t="s">
-        <v>356</v>
-      </c>
-      <c r="AF118" t="s">
-        <v>357</v>
-      </c>
       <c r="AH118" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AI118" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="119" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C119" t="s">
         <v>39</v>
@@ -24908,51 +24908,51 @@
         <v>170</v>
       </c>
       <c r="J119" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K119" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L119" t="s">
         <v>170</v>
       </c>
       <c r="M119" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="N119" s="12" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="O119" s="12" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="V119" t="s">
         <v>144</v>
       </c>
       <c r="W119" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC119" t="s">
+        <v>356</v>
+      </c>
+      <c r="AD119" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE119" t="s">
+        <v>357</v>
+      </c>
+      <c r="AF119" t="s">
         <v>358</v>
       </c>
-      <c r="AD119" t="s">
-        <v>170</v>
-      </c>
-      <c r="AE119" t="s">
-        <v>359</v>
-      </c>
-      <c r="AF119" t="s">
-        <v>360</v>
-      </c>
       <c r="AH119" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AI119" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="120" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C120" t="s">
         <v>39</v>
@@ -24964,36 +24964,36 @@
         <v>351</v>
       </c>
       <c r="J120" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K120" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L120" t="s">
         <v>170</v>
       </c>
       <c r="M120" t="s">
+        <v>436</v>
+      </c>
+      <c r="N120" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="O120" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="V120" t="s">
+        <v>491</v>
+      </c>
+      <c r="W120" t="s">
+        <v>432</v>
+      </c>
+      <c r="Z120" t="s">
         <v>438</v>
-      </c>
-      <c r="N120" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="O120" s="12" t="s">
-        <v>475</v>
-      </c>
-      <c r="V120" t="s">
-        <v>493</v>
-      </c>
-      <c r="W120" t="s">
-        <v>434</v>
-      </c>
-      <c r="Z120" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="121" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C121" t="s">
         <v>39</v>
@@ -25005,36 +25005,36 @@
         <v>352</v>
       </c>
       <c r="J121" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K121" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L121" t="s">
         <v>170</v>
       </c>
       <c r="M121" t="s">
+        <v>436</v>
+      </c>
+      <c r="N121" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="O121" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="V121" t="s">
+        <v>492</v>
+      </c>
+      <c r="W121" t="s">
+        <v>432</v>
+      </c>
+      <c r="Z121" t="s">
         <v>438</v>
-      </c>
-      <c r="N121" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="O121" s="12" t="s">
-        <v>475</v>
-      </c>
-      <c r="V121" t="s">
-        <v>494</v>
-      </c>
-      <c r="W121" t="s">
-        <v>434</v>
-      </c>
-      <c r="Z121" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="122" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C122" t="s">
         <v>39</v>
@@ -25046,36 +25046,36 @@
         <v>352</v>
       </c>
       <c r="J122" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K122" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L122" t="s">
         <v>170</v>
       </c>
       <c r="M122" t="s">
+        <v>436</v>
+      </c>
+      <c r="N122" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="O122" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="V122" t="s">
+        <v>495</v>
+      </c>
+      <c r="W122" t="s">
+        <v>432</v>
+      </c>
+      <c r="Z122" t="s">
         <v>438</v>
-      </c>
-      <c r="N122" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="O122" s="12" t="s">
-        <v>475</v>
-      </c>
-      <c r="V122" t="s">
-        <v>497</v>
-      </c>
-      <c r="W122" t="s">
-        <v>434</v>
-      </c>
-      <c r="Z122" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="123" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C123" t="s">
         <v>39</v>
@@ -25087,36 +25087,36 @@
         <v>352</v>
       </c>
       <c r="J123" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K123" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L123" t="s">
         <v>170</v>
       </c>
       <c r="M123" t="s">
+        <v>436</v>
+      </c>
+      <c r="N123" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="O123" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="V123" t="s">
+        <v>496</v>
+      </c>
+      <c r="W123" t="s">
+        <v>432</v>
+      </c>
+      <c r="Z123" t="s">
         <v>438</v>
-      </c>
-      <c r="N123" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="O123" s="12" t="s">
-        <v>475</v>
-      </c>
-      <c r="V123" t="s">
-        <v>498</v>
-      </c>
-      <c r="W123" t="s">
-        <v>434</v>
-      </c>
-      <c r="Z123" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="124" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C124" t="s">
         <v>39</v>
@@ -25134,48 +25134,48 @@
         <v>170</v>
       </c>
       <c r="J124" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K124" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L124" t="s">
         <v>170</v>
       </c>
       <c r="M124" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N124" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="O124" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V124" t="s">
         <v>145</v>
       </c>
       <c r="W124" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC124" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AD124" t="s">
         <v>170</v>
       </c>
       <c r="AE124" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AH124" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AI124" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="125" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C125" t="s">
         <v>39</v>
@@ -25193,48 +25193,48 @@
         <v>170</v>
       </c>
       <c r="J125" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K125" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L125" t="s">
         <v>170</v>
       </c>
       <c r="M125" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="N125" s="12" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="O125" s="12" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="V125" t="s">
         <v>146</v>
       </c>
       <c r="W125" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC125" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AD125" t="s">
         <v>170</v>
       </c>
       <c r="AE125" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AH125" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AI125" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="126" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C126" t="s">
         <v>39</v>
@@ -25252,48 +25252,48 @@
         <v>170</v>
       </c>
       <c r="J126" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K126" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L126" t="s">
         <v>170</v>
       </c>
       <c r="M126" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N126" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="O126" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V126" t="s">
         <v>147</v>
       </c>
       <c r="W126" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC126" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AD126" t="s">
         <v>170</v>
       </c>
       <c r="AE126" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AH126" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AI126" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="127" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C127" t="s">
         <v>39</v>
@@ -25311,48 +25311,48 @@
         <v>170</v>
       </c>
       <c r="J127" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K127" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L127" t="s">
         <v>170</v>
       </c>
       <c r="M127" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="N127" s="12" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="O127" s="12" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="V127" t="s">
         <v>148</v>
       </c>
       <c r="W127" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC127" t="s">
+        <v>362</v>
+      </c>
+      <c r="AD127" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE127" t="s">
         <v>364</v>
       </c>
-      <c r="AD127" t="s">
-        <v>170</v>
-      </c>
-      <c r="AE127" t="s">
-        <v>366</v>
-      </c>
       <c r="AH127" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AI127" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="128" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C128" t="s">
         <v>39</v>
@@ -25370,48 +25370,48 @@
         <v>170</v>
       </c>
       <c r="J128" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K128" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L128" t="s">
         <v>170</v>
       </c>
       <c r="M128" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="N128" s="12" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="O128" s="12" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="V128" t="s">
         <v>149</v>
       </c>
       <c r="W128" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC128" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AD128" t="s">
         <v>170</v>
       </c>
       <c r="AE128" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AH128" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AI128" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="129" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C129" t="s">
         <v>39</v>
@@ -25429,54 +25429,54 @@
         <v>170</v>
       </c>
       <c r="J129" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K129" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L129" t="s">
         <v>170</v>
       </c>
       <c r="M129" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N129" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="O129" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V129" t="s">
         <v>150</v>
       </c>
       <c r="W129" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC129" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AD129" t="s">
         <v>170</v>
       </c>
       <c r="AE129" t="s">
+        <v>366</v>
+      </c>
+      <c r="AF129" t="s">
+        <v>367</v>
+      </c>
+      <c r="AG129" t="s">
         <v>368</v>
       </c>
-      <c r="AF129" t="s">
-        <v>369</v>
-      </c>
-      <c r="AG129" t="s">
-        <v>370</v>
-      </c>
       <c r="AH129" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AI129" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="130" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C130" t="s">
         <v>39</v>
@@ -25494,48 +25494,48 @@
         <v>170</v>
       </c>
       <c r="J130" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K130" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L130" t="s">
         <v>170</v>
       </c>
       <c r="M130" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N130" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="O130" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V130" t="s">
         <v>151</v>
       </c>
       <c r="W130" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC130" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AD130" t="s">
         <v>170</v>
       </c>
       <c r="AE130" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AH130" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AI130" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="131" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C131" t="s">
         <v>39</v>
@@ -25553,48 +25553,48 @@
         <v>170</v>
       </c>
       <c r="J131" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K131" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L131" t="s">
         <v>170</v>
       </c>
       <c r="M131" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N131" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="O131" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V131" t="s">
         <v>152</v>
       </c>
       <c r="W131" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC131" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AD131" t="s">
         <v>170</v>
       </c>
       <c r="AE131" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AH131" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AI131" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="132" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C132" t="s">
         <v>39</v>
@@ -25612,45 +25612,45 @@
         <v>170</v>
       </c>
       <c r="J132" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K132" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L132" t="s">
         <v>170</v>
       </c>
       <c r="M132" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N132" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="O132" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V132" t="s">
         <v>153</v>
       </c>
       <c r="W132" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC132" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AD132" t="s">
         <v>170</v>
       </c>
       <c r="AE132" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AH132" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="133" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C133" t="s">
         <v>39</v>
@@ -25668,45 +25668,45 @@
         <v>170</v>
       </c>
       <c r="J133" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K133" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L133" t="s">
         <v>170</v>
       </c>
       <c r="M133" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N133" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="O133" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V133" t="s">
         <v>154</v>
       </c>
       <c r="W133" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC133" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AD133" t="s">
         <v>170</v>
       </c>
       <c r="AH133" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AI133" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="134" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C134" t="s">
         <v>39</v>
@@ -25724,45 +25724,45 @@
         <v>170</v>
       </c>
       <c r="J134" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K134" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L134" t="s">
         <v>170</v>
       </c>
       <c r="M134" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N134" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="O134" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V134" t="s">
         <v>155</v>
       </c>
       <c r="W134" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC134" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AD134" t="s">
         <v>170</v>
       </c>
       <c r="AH134" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AI134" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="135" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C135" t="s">
         <v>39</v>
@@ -25780,45 +25780,45 @@
         <v>170</v>
       </c>
       <c r="J135" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K135" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L135" t="s">
         <v>170</v>
       </c>
       <c r="M135" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N135" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="O135" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V135" t="s">
         <v>156</v>
       </c>
       <c r="W135" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC135" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AD135" t="s">
         <v>170</v>
       </c>
       <c r="AH135" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AI135" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="136" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C136" t="s">
         <v>39</v>
@@ -25836,45 +25836,45 @@
         <v>170</v>
       </c>
       <c r="J136" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K136" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L136" t="s">
         <v>170</v>
       </c>
       <c r="M136" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N136" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="O136" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V136" t="s">
         <v>157</v>
       </c>
       <c r="W136" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC136" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AD136" t="s">
         <v>170</v>
       </c>
       <c r="AH136" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AI136" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="137" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C137" t="s">
         <v>39</v>
@@ -25892,45 +25892,45 @@
         <v>170</v>
       </c>
       <c r="J137" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K137" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L137" t="s">
         <v>170</v>
       </c>
       <c r="M137" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N137" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="O137" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V137" t="s">
         <v>158</v>
       </c>
       <c r="W137" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC137" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AD137" t="s">
         <v>170</v>
       </c>
       <c r="AH137" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AI137" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="138" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C138" t="s">
         <v>39</v>
@@ -25948,45 +25948,45 @@
         <v>170</v>
       </c>
       <c r="J138" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K138" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L138" t="s">
         <v>170</v>
       </c>
       <c r="M138" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N138" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="O138" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V138" t="s">
         <v>159</v>
       </c>
       <c r="W138" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC138" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AD138" t="s">
         <v>170</v>
       </c>
       <c r="AH138" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AI138" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="139" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C139" t="s">
         <v>39</v>
@@ -26004,45 +26004,45 @@
         <v>170</v>
       </c>
       <c r="J139" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K139" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L139" t="s">
         <v>170</v>
       </c>
       <c r="M139" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N139" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="O139" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V139" t="s">
         <v>160</v>
       </c>
       <c r="W139" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC139" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AD139" t="s">
         <v>170</v>
       </c>
       <c r="AH139" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AI139" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="140" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C140" t="s">
         <v>40</v>
@@ -26060,45 +26060,45 @@
         <v>170</v>
       </c>
       <c r="J140" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K140" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L140" t="s">
         <v>170</v>
       </c>
       <c r="M140" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N140" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="O140" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="V140" t="s">
         <v>161</v>
       </c>
       <c r="W140" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC140" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AD140" t="s">
         <v>170</v>
       </c>
       <c r="AH140" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI140" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="141" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C141" t="s">
         <v>40</v>
@@ -26116,42 +26116,42 @@
         <v>170</v>
       </c>
       <c r="J141" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K141" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L141" t="s">
         <v>170</v>
       </c>
       <c r="M141" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N141" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="O141" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="V141" t="s">
         <v>162</v>
       </c>
       <c r="W141" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC141" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AD141" t="s">
         <v>170</v>
       </c>
       <c r="AH141" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="142" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C142" t="s">
         <v>40</v>
@@ -26169,45 +26169,45 @@
         <v>170</v>
       </c>
       <c r="J142" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K142" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L142" t="s">
         <v>170</v>
       </c>
       <c r="M142" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N142" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="O142" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="V142" t="s">
         <v>163</v>
       </c>
       <c r="W142" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC142" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AD142" t="s">
         <v>170</v>
       </c>
       <c r="AH142" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI142" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="143" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C143" t="s">
         <v>40</v>
@@ -26225,42 +26225,42 @@
         <v>170</v>
       </c>
       <c r="J143" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K143" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L143" t="s">
         <v>170</v>
       </c>
       <c r="M143" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N143" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="O143" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="V143" t="s">
         <v>164</v>
       </c>
       <c r="W143" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC143" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AD143" t="s">
         <v>170</v>
       </c>
       <c r="AH143" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="144" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C144" t="s">
         <v>40</v>
@@ -26278,42 +26278,42 @@
         <v>170</v>
       </c>
       <c r="J144" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K144" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L144" t="s">
         <v>170</v>
       </c>
       <c r="M144" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N144" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="O144" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="V144" t="s">
         <v>165</v>
       </c>
       <c r="W144" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC144" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AD144" t="s">
         <v>170</v>
       </c>
       <c r="AH144" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="145" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C145" t="s">
         <v>41</v>
@@ -26331,42 +26331,42 @@
         <v>170</v>
       </c>
       <c r="I145" t="s">
+        <v>197</v>
+      </c>
+      <c r="J145" t="s">
         <v>199</v>
       </c>
-      <c r="J145" t="s">
-        <v>201</v>
-      </c>
       <c r="K145" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L145" t="s">
         <v>170</v>
       </c>
       <c r="M145" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N145" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="O145" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="V145" t="s">
         <v>166</v>
       </c>
       <c r="W145" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AD145" t="s">
         <v>170</v>
       </c>
       <c r="AH145" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="146" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C146" t="s">
         <v>42</v>
@@ -26384,39 +26384,39 @@
         <v>170</v>
       </c>
       <c r="I146" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J146" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K146" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L146" t="s">
         <v>170</v>
       </c>
       <c r="M146" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N146" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="O146" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="V146" t="s">
         <v>167</v>
       </c>
       <c r="W146" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="Z146" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="147" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C147" t="s">
         <v>42</v>
@@ -26434,51 +26434,51 @@
         <v>170</v>
       </c>
       <c r="I147" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J147" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K147" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L147" t="s">
         <v>170</v>
       </c>
       <c r="M147" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N147" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="O147" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="V147" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="W147" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Z147" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AC147" t="s">
+        <v>382</v>
+      </c>
+      <c r="AD147" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE147" t="s">
+        <v>383</v>
+      </c>
+      <c r="AF147" t="s">
         <v>384</v>
-      </c>
-      <c r="AD147" t="s">
-        <v>170</v>
-      </c>
-      <c r="AE147" t="s">
-        <v>385</v>
-      </c>
-      <c r="AF147" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="148" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C148" t="s">
         <v>42</v>
@@ -26490,51 +26490,51 @@
         <v>383</v>
       </c>
       <c r="I148" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J148" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K148" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L148" t="s">
         <v>170</v>
       </c>
       <c r="M148" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N148" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="O148" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="V148" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="W148" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Z148" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AC148" t="s">
+        <v>382</v>
+      </c>
+      <c r="AD148" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE148" t="s">
+        <v>385</v>
+      </c>
+      <c r="AF148" t="s">
         <v>384</v>
-      </c>
-      <c r="AD148" t="s">
-        <v>170</v>
-      </c>
-      <c r="AE148" t="s">
-        <v>387</v>
-      </c>
-      <c r="AF148" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="149" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C149" t="s">
         <v>42</v>
@@ -26546,51 +26546,51 @@
         <v>384</v>
       </c>
       <c r="I149" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J149" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K149" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L149" t="s">
         <v>170</v>
       </c>
       <c r="M149" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N149" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="O149" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="V149" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="W149" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Z149" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AC149" t="s">
+        <v>382</v>
+      </c>
+      <c r="AD149" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE149" t="s">
+        <v>386</v>
+      </c>
+      <c r="AF149" t="s">
         <v>384</v>
-      </c>
-      <c r="AD149" t="s">
-        <v>170</v>
-      </c>
-      <c r="AE149" t="s">
-        <v>388</v>
-      </c>
-      <c r="AF149" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="150" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C150" t="s">
         <v>42</v>
@@ -26602,54 +26602,54 @@
         <v>387</v>
       </c>
       <c r="I150" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J150" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K150" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L150" t="s">
         <v>170</v>
       </c>
       <c r="M150" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N150" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="O150" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="V150" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="W150" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Z150" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AC150" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AD150" t="s">
         <v>170</v>
       </c>
       <c r="AE150" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AF150" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AI150" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="151" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C151" t="s">
         <v>42</v>
@@ -26661,51 +26661,51 @@
         <v>388</v>
       </c>
       <c r="J151" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K151" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L151" t="s">
         <v>170</v>
       </c>
       <c r="M151" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N151" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="O151" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="V151" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="W151" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Z151" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AC151" t="s">
+        <v>382</v>
+      </c>
+      <c r="AD151" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE151" t="s">
+        <v>388</v>
+      </c>
+      <c r="AF151" t="s">
         <v>384</v>
       </c>
-      <c r="AD151" t="s">
-        <v>170</v>
-      </c>
-      <c r="AE151" t="s">
-        <v>390</v>
-      </c>
-      <c r="AF151" t="s">
-        <v>386</v>
-      </c>
       <c r="AG151" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="152" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C152" t="s">
         <v>42</v>
@@ -26717,39 +26717,39 @@
         <v>399</v>
       </c>
       <c r="I152" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J152" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K152" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L152" t="s">
         <v>170</v>
       </c>
       <c r="M152" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N152" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="O152" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="V152" t="s">
         <v>168</v>
       </c>
       <c r="W152" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="Z152" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="153" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C153" t="s">
         <v>42</v>
@@ -26761,51 +26761,51 @@
         <v>389</v>
       </c>
       <c r="I153" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J153" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K153" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L153" t="s">
         <v>170</v>
       </c>
       <c r="M153" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N153" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="O153" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="V153" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="W153" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Z153" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AC153" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AD153" t="s">
         <v>170</v>
       </c>
       <c r="AE153" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AI153" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="154" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C154" t="s">
         <v>42</v>
@@ -26817,51 +26817,51 @@
         <v>389</v>
       </c>
       <c r="I154" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J154" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K154" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L154" t="s">
         <v>170</v>
       </c>
       <c r="M154" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N154" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="O154" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="V154" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="W154" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Z154" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AC154" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AD154" t="s">
         <v>170</v>
       </c>
       <c r="AE154" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AI154" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="155" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C155" t="s">
         <v>42</v>
@@ -26873,51 +26873,51 @@
         <v>390</v>
       </c>
       <c r="I155" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J155" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K155" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L155" t="s">
         <v>170</v>
       </c>
       <c r="M155" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N155" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="O155" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="V155" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="W155" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Z155" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AC155" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AD155" t="s">
         <v>170</v>
       </c>
       <c r="AE155" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AI155" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="156" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C156" t="s">
         <v>42</v>
@@ -26929,51 +26929,51 @@
         <v>391</v>
       </c>
       <c r="I156" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J156" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K156" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L156" t="s">
         <v>170</v>
       </c>
       <c r="M156" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N156" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="O156" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="V156" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="W156" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Z156" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AC156" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AD156" t="s">
         <v>170</v>
       </c>
       <c r="AE156" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AI156" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="157" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C157" t="s">
         <v>42</v>
@@ -26985,51 +26985,51 @@
         <v>392</v>
       </c>
       <c r="I157" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J157" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K157" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L157" t="s">
         <v>170</v>
       </c>
       <c r="M157" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N157" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="O157" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="V157" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="W157" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Z157" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AC157" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AD157" t="s">
         <v>170</v>
       </c>
       <c r="AE157" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AI157" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="158" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C158" t="s">
         <v>42</v>
@@ -27041,51 +27041,51 @@
         <v>393</v>
       </c>
       <c r="I158" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J158" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K158" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L158" t="s">
         <v>170</v>
       </c>
       <c r="M158" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N158" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="O158" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="V158" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="W158" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Z158" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AC158" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AD158" t="s">
         <v>170</v>
       </c>
       <c r="AE158" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AI158" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="159" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C159" t="s">
         <v>42</v>
@@ -27097,51 +27097,51 @@
         <v>394</v>
       </c>
       <c r="I159" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J159" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K159" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L159" t="s">
         <v>170</v>
       </c>
       <c r="M159" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N159" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="O159" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="V159" t="s">
+        <v>504</v>
+      </c>
+      <c r="W159" t="s">
+        <v>432</v>
+      </c>
+      <c r="Z159" t="s">
         <v>506</v>
       </c>
-      <c r="W159" t="s">
-        <v>434</v>
-      </c>
-      <c r="Z159" t="s">
-        <v>508</v>
-      </c>
       <c r="AC159" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AD159" t="s">
         <v>170</v>
       </c>
       <c r="AE159" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AI159" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="160" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C160" t="s">
         <v>42</v>
@@ -27153,51 +27153,51 @@
         <v>394</v>
       </c>
       <c r="I160" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J160" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K160" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L160" t="s">
         <v>170</v>
       </c>
       <c r="M160" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N160" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="O160" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="V160" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="W160" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Z160" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AC160" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AD160" t="s">
         <v>170</v>
       </c>
       <c r="AE160" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AI160" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="161" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C161" t="s">
         <v>42</v>
@@ -27209,51 +27209,51 @@
         <v>395</v>
       </c>
       <c r="I161" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J161" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K161" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L161" t="s">
         <v>170</v>
       </c>
       <c r="M161" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N161" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="O161" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="V161" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="W161" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Z161" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AC161" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AD161" t="s">
         <v>170</v>
       </c>
       <c r="AE161" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AI161" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="162" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C162" t="s">
         <v>42</v>
@@ -27265,51 +27265,51 @@
         <v>396</v>
       </c>
       <c r="I162" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J162" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K162" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L162" t="s">
         <v>170</v>
       </c>
       <c r="M162" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N162" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="O162" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="V162" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="W162" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Z162" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AC162" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AD162" t="s">
         <v>170</v>
       </c>
       <c r="AE162" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AI162" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="163" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C163" t="s">
         <v>42</v>
@@ -27321,51 +27321,51 @@
         <v>397</v>
       </c>
       <c r="I163" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J163" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K163" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L163" t="s">
         <v>170</v>
       </c>
       <c r="M163" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N163" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="O163" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="V163" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="W163" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Z163" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AC163" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AD163" t="s">
         <v>170</v>
       </c>
       <c r="AE163" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AI163" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="164" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C164" t="s">
         <v>42</v>
@@ -27377,43 +27377,43 @@
         <v>399</v>
       </c>
       <c r="J164" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K164" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L164" t="s">
         <v>170</v>
       </c>
       <c r="M164" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N164" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="O164" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="V164" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="W164" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Z164" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AC164" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AD164" t="s">
         <v>170</v>
       </c>
       <c r="AE164" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AI164" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="165" spans="2:35" x14ac:dyDescent="0.2">

--- a/Datasets/Erlach/Data/Erlach_JR.xlsx
+++ b/Datasets/Erlach/Data/Erlach_JR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julerickert/Documents/Akademie_Projekt/Datasets/Erlach/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F157D3-10F9-F54D-A166-84C5A3B4EA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B49B89E-B1ED-124D-BA1F-D391BC64D77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{667C5683-ADBE-2B49-ACEF-B63231E960A4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2584" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2748" uniqueCount="510">
   <si>
     <t>ID</t>
   </si>
@@ -1563,6 +1563,9 @@
   </si>
   <si>
     <t>[Preußisch-Plattdeutsch] / Königsberg</t>
+  </si>
+  <si>
+    <t>Vergleich</t>
   </si>
 </sst>
 </file>
@@ -1980,11 +1983,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB7810F-2200-2649-9C2C-F3C9823F050E}">
-  <dimension ref="A1:XFA169"/>
+  <dimension ref="A1:XFB169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W63" sqref="W63"/>
+      <selection pane="bottomLeft" activeCell="X2" sqref="X2:X164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1999,17 +2002,17 @@
     <col min="13" max="13" width="15.33203125" customWidth="1"/>
     <col min="14" max="15" width="12" customWidth="1"/>
     <col min="22" max="22" width="28.5" customWidth="1"/>
-    <col min="26" max="26" width="13.1640625" customWidth="1"/>
-    <col min="27" max="27" width="13" customWidth="1"/>
-    <col min="28" max="28" width="10.83203125" style="9"/>
-    <col min="29" max="29" width="13" customWidth="1"/>
-    <col min="30" max="30" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="33" width="25" customWidth="1"/>
-    <col min="34" max="34" width="24.33203125" customWidth="1"/>
-    <col min="35" max="35" width="14.6640625" customWidth="1"/>
+    <col min="27" max="27" width="13.1640625" customWidth="1"/>
+    <col min="28" max="28" width="13" customWidth="1"/>
+    <col min="29" max="29" width="10.83203125" style="9"/>
+    <col min="30" max="30" width="13" customWidth="1"/>
+    <col min="31" max="31" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="25" customWidth="1"/>
+    <col min="35" max="35" width="24.33203125" customWidth="1"/>
+    <col min="36" max="36" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16381" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2080,42 +2083,44 @@
         <v>21</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
@@ -18461,8 +18466,9 @@
       <c r="XEY1" s="1"/>
       <c r="XEZ1" s="1"/>
       <c r="XFA1" s="1"/>
+      <c r="XFB1" s="1"/>
     </row>
-    <row r="2" spans="1:16381" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>205</v>
       </c>
@@ -18505,20 +18511,23 @@
       <c r="W2" t="s">
         <v>431</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="X2" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD2" t="s">
         <v>209</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>169</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>414</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="3" spans="1:16381" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>205</v>
       </c>
@@ -18561,17 +18570,20 @@
       <c r="W3" t="s">
         <v>431</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="X3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD3" t="s">
         <v>210</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>169</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="4" spans="1:16381" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>205</v>
       </c>
@@ -18614,20 +18626,23 @@
       <c r="W4" t="s">
         <v>431</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="X4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD4" t="s">
         <v>211</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>169</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>414</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="5" spans="1:16381" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>205</v>
       </c>
@@ -18670,17 +18685,20 @@
       <c r="W5" t="s">
         <v>431</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="X5" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD5" t="s">
         <v>212</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>169</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AI5" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="6" spans="1:16381" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>205</v>
       </c>
@@ -18723,17 +18741,20 @@
       <c r="W6" t="s">
         <v>431</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="X6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD6" t="s">
         <v>213</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>169</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AI6" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="7" spans="1:16381" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>205</v>
       </c>
@@ -18776,20 +18797,23 @@
       <c r="W7" t="s">
         <v>431</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="X7" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD7" t="s">
         <v>214</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>169</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AI7" t="s">
         <v>414</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AJ7" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="8" spans="1:16381" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>205</v>
       </c>
@@ -18832,17 +18856,20 @@
       <c r="W8" t="s">
         <v>431</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="X8" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD8" t="s">
         <v>215</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>169</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AI8" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="9" spans="1:16381" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>205</v>
       </c>
@@ -18885,17 +18912,20 @@
       <c r="W9" t="s">
         <v>431</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="X9" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD9" t="s">
         <v>216</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>169</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AI9" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="10" spans="1:16381" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>205</v>
       </c>
@@ -18938,20 +18968,23 @@
       <c r="W10" t="s">
         <v>431</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="X10" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD10" t="s">
         <v>217</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>169</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="AI10" t="s">
         <v>414</v>
       </c>
-      <c r="AI10" t="s">
+      <c r="AJ10" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="11" spans="1:16381" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>205</v>
       </c>
@@ -18994,20 +19027,23 @@
       <c r="W11" t="s">
         <v>431</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="X11" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD11" t="s">
         <v>218</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>169</v>
       </c>
-      <c r="AH11" t="s">
+      <c r="AI11" t="s">
         <v>414</v>
       </c>
-      <c r="AI11" t="s">
+      <c r="AJ11" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="12" spans="1:16381" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>205</v>
       </c>
@@ -19050,17 +19086,20 @@
       <c r="W12" t="s">
         <v>431</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="X12" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD12" t="s">
         <v>219</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>169</v>
       </c>
-      <c r="AH12" t="s">
+      <c r="AI12" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="13" spans="1:16381" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>205</v>
       </c>
@@ -19103,20 +19142,23 @@
       <c r="W13" t="s">
         <v>431</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="X13" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD13" t="s">
         <v>220</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>169</v>
       </c>
-      <c r="AH13" t="s">
+      <c r="AI13" t="s">
         <v>414</v>
       </c>
-      <c r="AI13" t="s">
+      <c r="AJ13" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="14" spans="1:16381" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>205</v>
       </c>
@@ -19159,17 +19201,20 @@
       <c r="W14" t="s">
         <v>431</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="X14" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD14" t="s">
         <v>221</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>169</v>
       </c>
-      <c r="AH14" t="s">
+      <c r="AI14" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="15" spans="1:16381" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>205</v>
       </c>
@@ -19212,20 +19257,23 @@
       <c r="W15" t="s">
         <v>431</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="X15" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD15" t="s">
         <v>222</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>169</v>
       </c>
-      <c r="AH15" t="s">
+      <c r="AI15" t="s">
         <v>414</v>
       </c>
-      <c r="AI15" t="s">
+      <c r="AJ15" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="16" spans="1:16381" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>205</v>
       </c>
@@ -19268,17 +19316,20 @@
       <c r="W16" t="s">
         <v>431</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="X16" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD16" t="s">
         <v>223</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>169</v>
       </c>
-      <c r="AH16" t="s">
+      <c r="AI16" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="17" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>205</v>
       </c>
@@ -19321,20 +19372,23 @@
       <c r="W17" t="s">
         <v>431</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="X17" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD17" t="s">
         <v>224</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>169</v>
       </c>
-      <c r="AH17" t="s">
+      <c r="AI17" t="s">
         <v>414</v>
       </c>
-      <c r="AI17" t="s">
+      <c r="AJ17" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="18" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>205</v>
       </c>
@@ -19377,20 +19431,23 @@
       <c r="W18" t="s">
         <v>431</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="X18" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD18" t="s">
         <v>225</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>169</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AI18" t="s">
         <v>414</v>
       </c>
-      <c r="AI18" t="s">
+      <c r="AJ18" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="19" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>205</v>
       </c>
@@ -19433,20 +19490,23 @@
       <c r="W19" t="s">
         <v>431</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="X19" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD19" t="s">
         <v>226</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>169</v>
       </c>
-      <c r="AH19" t="s">
+      <c r="AI19" t="s">
         <v>414</v>
       </c>
-      <c r="AI19" t="s">
+      <c r="AJ19" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="20" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>205</v>
       </c>
@@ -19489,20 +19549,23 @@
       <c r="W20" t="s">
         <v>431</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="X20" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD20" t="s">
         <v>227</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>169</v>
       </c>
-      <c r="AH20" t="s">
+      <c r="AI20" t="s">
         <v>414</v>
       </c>
-      <c r="AI20" t="s">
+      <c r="AJ20" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="21" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>205</v>
       </c>
@@ -19545,20 +19608,23 @@
       <c r="W21" t="s">
         <v>431</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="X21" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD21" t="s">
         <v>228</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>169</v>
       </c>
-      <c r="AH21" t="s">
+      <c r="AI21" t="s">
         <v>414</v>
       </c>
-      <c r="AI21" t="s">
+      <c r="AJ21" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="22" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>205</v>
       </c>
@@ -19601,20 +19667,23 @@
       <c r="W22" t="s">
         <v>431</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="X22" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD22" t="s">
         <v>229</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>169</v>
       </c>
-      <c r="AH22" t="s">
+      <c r="AI22" t="s">
         <v>414</v>
       </c>
-      <c r="AI22" t="s">
+      <c r="AJ22" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="23" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>205</v>
       </c>
@@ -19657,20 +19726,23 @@
       <c r="W23" t="s">
         <v>431</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="X23" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD23" t="s">
         <v>230</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>169</v>
       </c>
-      <c r="AH23" t="s">
+      <c r="AI23" t="s">
         <v>414</v>
       </c>
-      <c r="AI23" t="s">
+      <c r="AJ23" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="24" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>205</v>
       </c>
@@ -19713,17 +19785,20 @@
       <c r="W24" t="s">
         <v>431</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="X24" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD24" t="s">
         <v>231</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>169</v>
       </c>
-      <c r="AH24" t="s">
+      <c r="AI24" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="25" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>205</v>
       </c>
@@ -19766,20 +19841,23 @@
       <c r="W25" t="s">
         <v>431</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="X25" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD25" t="s">
         <v>232</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>169</v>
       </c>
-      <c r="AH25" t="s">
+      <c r="AI25" t="s">
         <v>414</v>
       </c>
-      <c r="AI25" t="s">
+      <c r="AJ25" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="26" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>205</v>
       </c>
@@ -19822,20 +19900,23 @@
       <c r="W26" t="s">
         <v>431</v>
       </c>
-      <c r="AC26" t="s">
+      <c r="X26" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD26" t="s">
         <v>233</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>169</v>
       </c>
-      <c r="AH26" t="s">
+      <c r="AI26" t="s">
         <v>414</v>
       </c>
-      <c r="AI26" t="s">
+      <c r="AJ26" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="27" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>205</v>
       </c>
@@ -19878,20 +19959,23 @@
       <c r="W27" t="s">
         <v>431</v>
       </c>
-      <c r="AC27" t="s">
+      <c r="X27" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD27" t="s">
         <v>234</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>169</v>
       </c>
-      <c r="AH27" t="s">
+      <c r="AI27" t="s">
         <v>414</v>
       </c>
-      <c r="AI27" t="s">
+      <c r="AJ27" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="28" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>205</v>
       </c>
@@ -19934,20 +20018,23 @@
       <c r="W28" t="s">
         <v>431</v>
       </c>
-      <c r="AC28" t="s">
+      <c r="X28" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD28" t="s">
         <v>235</v>
       </c>
-      <c r="AD28" t="s">
+      <c r="AE28" t="s">
         <v>169</v>
       </c>
-      <c r="AH28" t="s">
+      <c r="AI28" t="s">
         <v>414</v>
       </c>
-      <c r="AI28" t="s">
+      <c r="AJ28" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="29" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>205</v>
       </c>
@@ -19990,20 +20077,23 @@
       <c r="W29" t="s">
         <v>431</v>
       </c>
-      <c r="AC29" t="s">
+      <c r="X29" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD29" t="s">
         <v>236</v>
       </c>
-      <c r="AD29" t="s">
+      <c r="AE29" t="s">
         <v>169</v>
       </c>
-      <c r="AH29" t="s">
+      <c r="AI29" t="s">
         <v>414</v>
       </c>
-      <c r="AI29" t="s">
+      <c r="AJ29" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="30" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>205</v>
       </c>
@@ -20046,17 +20136,20 @@
       <c r="W30" t="s">
         <v>431</v>
       </c>
-      <c r="AC30" t="s">
+      <c r="X30" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD30" t="s">
         <v>237</v>
       </c>
-      <c r="AD30" t="s">
+      <c r="AE30" t="s">
         <v>169</v>
       </c>
-      <c r="AH30" t="s">
+      <c r="AI30" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="31" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>205</v>
       </c>
@@ -20099,20 +20192,23 @@
       <c r="W31" t="s">
         <v>431</v>
       </c>
-      <c r="AC31" t="s">
+      <c r="X31" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD31" t="s">
         <v>238</v>
       </c>
-      <c r="AD31" t="s">
+      <c r="AE31" t="s">
         <v>169</v>
       </c>
-      <c r="AH31" t="s">
+      <c r="AI31" t="s">
         <v>414</v>
       </c>
-      <c r="AI31" t="s">
+      <c r="AJ31" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="32" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>205</v>
       </c>
@@ -20149,11 +20245,14 @@
       <c r="W32" t="s">
         <v>431</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="X32" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA32" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="33" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>205</v>
       </c>
@@ -20196,20 +20295,23 @@
       <c r="W33" t="s">
         <v>431</v>
       </c>
-      <c r="AC33" t="s">
+      <c r="X33" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD33" t="s">
         <v>239</v>
       </c>
-      <c r="AD33" t="s">
+      <c r="AE33" t="s">
         <v>169</v>
       </c>
-      <c r="AH33" t="s">
+      <c r="AI33" t="s">
         <v>414</v>
       </c>
-      <c r="AI33" t="s">
+      <c r="AJ33" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="34" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>205</v>
       </c>
@@ -20252,20 +20354,23 @@
       <c r="W34" t="s">
         <v>431</v>
       </c>
-      <c r="AC34" t="s">
+      <c r="X34" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD34" t="s">
         <v>240</v>
       </c>
-      <c r="AD34" t="s">
+      <c r="AE34" t="s">
         <v>169</v>
       </c>
-      <c r="AH34" t="s">
+      <c r="AI34" t="s">
         <v>414</v>
       </c>
-      <c r="AI34" t="s">
+      <c r="AJ34" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="35" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>205</v>
       </c>
@@ -20308,20 +20413,23 @@
       <c r="W35" t="s">
         <v>431</v>
       </c>
-      <c r="AC35" t="s">
+      <c r="X35" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD35" t="s">
         <v>241</v>
       </c>
-      <c r="AD35" t="s">
+      <c r="AE35" t="s">
         <v>169</v>
       </c>
-      <c r="AH35" t="s">
+      <c r="AI35" t="s">
         <v>414</v>
       </c>
-      <c r="AI35" t="s">
+      <c r="AJ35" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="36" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>205</v>
       </c>
@@ -20364,17 +20472,20 @@
       <c r="W36" t="s">
         <v>431</v>
       </c>
-      <c r="AC36" t="s">
+      <c r="X36" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD36" t="s">
         <v>242</v>
       </c>
-      <c r="AD36" t="s">
+      <c r="AE36" t="s">
         <v>169</v>
       </c>
-      <c r="AH36" t="s">
+      <c r="AI36" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="37" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>205</v>
       </c>
@@ -20417,17 +20528,20 @@
       <c r="W37" t="s">
         <v>431</v>
       </c>
-      <c r="AC37" t="s">
+      <c r="X37" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD37" t="s">
         <v>243</v>
       </c>
-      <c r="AD37" t="s">
+      <c r="AE37" t="s">
         <v>169</v>
       </c>
-      <c r="AH37" t="s">
+      <c r="AI37" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="38" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>205</v>
       </c>
@@ -20470,20 +20584,23 @@
       <c r="W38" t="s">
         <v>431</v>
       </c>
-      <c r="AC38" t="s">
+      <c r="X38" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD38" t="s">
         <v>244</v>
       </c>
-      <c r="AD38" t="s">
+      <c r="AE38" t="s">
         <v>169</v>
       </c>
-      <c r="AH38" t="s">
+      <c r="AI38" t="s">
         <v>414</v>
       </c>
-      <c r="AI38" t="s">
+      <c r="AJ38" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="39" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>205</v>
       </c>
@@ -20526,17 +20643,20 @@
       <c r="W39" t="s">
         <v>431</v>
       </c>
-      <c r="AC39" t="s">
+      <c r="X39" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD39" t="s">
         <v>245</v>
       </c>
-      <c r="AD39" t="s">
+      <c r="AE39" t="s">
         <v>169</v>
       </c>
-      <c r="AH39" t="s">
+      <c r="AI39" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="40" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>205</v>
       </c>
@@ -20579,20 +20699,23 @@
       <c r="W40" t="s">
         <v>431</v>
       </c>
-      <c r="AC40" t="s">
+      <c r="X40" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD40" t="s">
         <v>246</v>
       </c>
-      <c r="AD40" t="s">
+      <c r="AE40" t="s">
         <v>169</v>
       </c>
-      <c r="AH40" t="s">
+      <c r="AI40" t="s">
         <v>414</v>
       </c>
-      <c r="AI40" t="s">
+      <c r="AJ40" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="41" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>205</v>
       </c>
@@ -20635,17 +20758,20 @@
       <c r="W41" t="s">
         <v>431</v>
       </c>
-      <c r="AC41" t="s">
+      <c r="X41" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD41" t="s">
         <v>247</v>
       </c>
-      <c r="AD41" t="s">
+      <c r="AE41" t="s">
         <v>169</v>
       </c>
-      <c r="AH41" t="s">
+      <c r="AI41" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="42" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>205</v>
       </c>
@@ -20688,17 +20814,20 @@
       <c r="W42" t="s">
         <v>431</v>
       </c>
-      <c r="AC42" t="s">
+      <c r="X42" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD42" t="s">
         <v>248</v>
       </c>
-      <c r="AD42" t="s">
+      <c r="AE42" t="s">
         <v>169</v>
       </c>
-      <c r="AH42" t="s">
+      <c r="AI42" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="43" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>205</v>
       </c>
@@ -20741,17 +20870,20 @@
       <c r="W43" t="s">
         <v>431</v>
       </c>
-      <c r="AC43" t="s">
+      <c r="X43" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD43" t="s">
         <v>249</v>
       </c>
-      <c r="AD43" t="s">
+      <c r="AE43" t="s">
         <v>169</v>
       </c>
-      <c r="AH43" t="s">
+      <c r="AI43" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="44" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>205</v>
       </c>
@@ -20794,17 +20926,20 @@
       <c r="W44" t="s">
         <v>431</v>
       </c>
-      <c r="AC44" t="s">
+      <c r="X44" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD44" t="s">
         <v>250</v>
       </c>
-      <c r="AD44" t="s">
+      <c r="AE44" t="s">
         <v>169</v>
       </c>
-      <c r="AH44" t="s">
+      <c r="AI44" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="45" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>205</v>
       </c>
@@ -20847,20 +20982,23 @@
       <c r="W45" t="s">
         <v>431</v>
       </c>
-      <c r="AC45" t="s">
+      <c r="X45" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD45" t="s">
         <v>251</v>
       </c>
-      <c r="AD45" t="s">
+      <c r="AE45" t="s">
         <v>169</v>
       </c>
-      <c r="AH45" t="s">
+      <c r="AI45" t="s">
         <v>414</v>
       </c>
-      <c r="AI45" t="s">
+      <c r="AJ45" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="46" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>205</v>
       </c>
@@ -20903,20 +21041,23 @@
       <c r="W46" t="s">
         <v>431</v>
       </c>
-      <c r="AC46" t="s">
+      <c r="X46" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD46" t="s">
         <v>252</v>
       </c>
-      <c r="AD46" t="s">
+      <c r="AE46" t="s">
         <v>169</v>
       </c>
-      <c r="AH46" t="s">
+      <c r="AI46" t="s">
         <v>414</v>
       </c>
-      <c r="AI46" t="s">
+      <c r="AJ46" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="47" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>205</v>
       </c>
@@ -20959,20 +21100,23 @@
       <c r="W47" t="s">
         <v>431</v>
       </c>
-      <c r="AC47" t="s">
+      <c r="X47" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD47" t="s">
         <v>253</v>
       </c>
-      <c r="AD47" t="s">
+      <c r="AE47" t="s">
         <v>169</v>
       </c>
-      <c r="AH47" t="s">
+      <c r="AI47" t="s">
         <v>414</v>
       </c>
-      <c r="AI47" t="s">
+      <c r="AJ47" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="48" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>205</v>
       </c>
@@ -21015,20 +21159,23 @@
       <c r="W48" t="s">
         <v>431</v>
       </c>
-      <c r="AC48" t="s">
+      <c r="X48" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD48" t="s">
         <v>254</v>
       </c>
-      <c r="AD48" t="s">
+      <c r="AE48" t="s">
         <v>169</v>
       </c>
-      <c r="AH48" t="s">
+      <c r="AI48" t="s">
         <v>414</v>
       </c>
-      <c r="AI48" t="s">
+      <c r="AJ48" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="49" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>205</v>
       </c>
@@ -21071,23 +21218,26 @@
       <c r="W49" t="s">
         <v>431</v>
       </c>
-      <c r="AC49" t="s">
+      <c r="X49" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD49" t="s">
         <v>255</v>
       </c>
-      <c r="AD49" t="s">
-        <v>170</v>
-      </c>
       <c r="AE49" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF49" t="s">
         <v>256</v>
       </c>
-      <c r="AH49" t="s">
+      <c r="AI49" t="s">
         <v>172</v>
       </c>
-      <c r="AI49" t="s">
+      <c r="AJ49" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="50" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>205</v>
       </c>
@@ -21133,20 +21283,23 @@
       <c r="W50" t="s">
         <v>431</v>
       </c>
-      <c r="AC50" t="s">
+      <c r="X50" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD50" t="s">
         <v>257</v>
       </c>
-      <c r="AD50" t="s">
-        <v>170</v>
-      </c>
       <c r="AE50" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF50" t="s">
         <v>258</v>
       </c>
-      <c r="AI50" t="s">
+      <c r="AJ50" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="51" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>205</v>
       </c>
@@ -21192,17 +21345,20 @@
       <c r="W51" t="s">
         <v>431</v>
       </c>
-      <c r="AC51" t="s">
+      <c r="X51" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD51" t="s">
         <v>259</v>
       </c>
-      <c r="AD51" t="s">
-        <v>170</v>
-      </c>
-      <c r="AI51" t="s">
+      <c r="AE51" t="s">
+        <v>170</v>
+      </c>
+      <c r="AJ51" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="52" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>205</v>
       </c>
@@ -21245,23 +21401,26 @@
       <c r="W52" t="s">
         <v>431</v>
       </c>
-      <c r="AC52" t="s">
+      <c r="X52" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD52" t="s">
         <v>260</v>
       </c>
-      <c r="AD52" t="s">
-        <v>170</v>
-      </c>
       <c r="AE52" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF52" t="s">
         <v>261</v>
       </c>
-      <c r="AH52" t="s">
+      <c r="AI52" t="s">
         <v>415</v>
       </c>
-      <c r="AI52" t="s">
+      <c r="AJ52" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="53" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>205</v>
       </c>
@@ -21304,23 +21463,26 @@
       <c r="W53" t="s">
         <v>431</v>
       </c>
-      <c r="AC53" t="s">
+      <c r="X53" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD53" t="s">
         <v>262</v>
       </c>
-      <c r="AD53" t="s">
-        <v>170</v>
-      </c>
       <c r="AE53" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF53" t="s">
         <v>263</v>
       </c>
-      <c r="AH53" t="s">
+      <c r="AI53" t="s">
         <v>415</v>
       </c>
-      <c r="AI53" t="s">
+      <c r="AJ53" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="54" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>205</v>
       </c>
@@ -21366,20 +21528,23 @@
       <c r="W54" t="s">
         <v>431</v>
       </c>
-      <c r="AC54" t="s">
+      <c r="X54" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD54" t="s">
         <v>264</v>
       </c>
-      <c r="AD54" t="s">
-        <v>170</v>
-      </c>
       <c r="AE54" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF54" t="s">
         <v>265</v>
       </c>
-      <c r="AI54" t="s">
+      <c r="AJ54" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="55" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>205</v>
       </c>
@@ -21422,23 +21587,26 @@
       <c r="W55" t="s">
         <v>431</v>
       </c>
-      <c r="AC55" t="s">
+      <c r="X55" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD55" t="s">
         <v>266</v>
       </c>
-      <c r="AD55" t="s">
-        <v>170</v>
-      </c>
       <c r="AE55" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF55" t="s">
         <v>267</v>
       </c>
-      <c r="AH55" t="s">
+      <c r="AI55" t="s">
         <v>416</v>
       </c>
-      <c r="AI55" t="s">
+      <c r="AJ55" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="56" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>205</v>
       </c>
@@ -21481,23 +21649,26 @@
       <c r="W56" t="s">
         <v>431</v>
       </c>
-      <c r="AC56" t="s">
+      <c r="X56" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD56" t="s">
         <v>268</v>
       </c>
-      <c r="AD56" t="s">
-        <v>170</v>
-      </c>
       <c r="AE56" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF56" t="s">
         <v>269</v>
       </c>
-      <c r="AH56" t="s">
+      <c r="AI56" t="s">
         <v>416</v>
       </c>
-      <c r="AI56" t="s">
+      <c r="AJ56" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="57" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>205</v>
       </c>
@@ -21540,23 +21711,26 @@
       <c r="W57" t="s">
         <v>431</v>
       </c>
-      <c r="AC57" t="s">
+      <c r="X57" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD57" t="s">
         <v>270</v>
       </c>
-      <c r="AD57" t="s">
-        <v>170</v>
-      </c>
       <c r="AE57" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF57" t="s">
         <v>271</v>
       </c>
-      <c r="AH57" t="s">
+      <c r="AI57" t="s">
         <v>417</v>
       </c>
-      <c r="AI57" t="s">
+      <c r="AJ57" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="58" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>205</v>
       </c>
@@ -21602,23 +21776,26 @@
       <c r="W58" t="s">
         <v>431</v>
       </c>
-      <c r="AC58" t="s">
+      <c r="X58" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD58" t="s">
         <v>272</v>
       </c>
-      <c r="AD58" t="s">
-        <v>170</v>
-      </c>
       <c r="AE58" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF58" t="s">
         <v>273</v>
       </c>
-      <c r="AF58" t="s">
+      <c r="AG58" t="s">
         <v>274</v>
       </c>
-      <c r="AI58" t="s">
+      <c r="AJ58" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="59" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>205</v>
       </c>
@@ -21664,20 +21841,23 @@
       <c r="W59" t="s">
         <v>431</v>
       </c>
-      <c r="AC59" t="s">
+      <c r="X59" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD59" t="s">
         <v>275</v>
       </c>
-      <c r="AD59" t="s">
-        <v>170</v>
-      </c>
       <c r="AE59" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF59" t="s">
         <v>276</v>
       </c>
-      <c r="AI59" t="s">
+      <c r="AJ59" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="60" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>205</v>
       </c>
@@ -21720,23 +21900,26 @@
       <c r="W60" t="s">
         <v>431</v>
       </c>
-      <c r="AC60" t="s">
+      <c r="X60" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD60" t="s">
         <v>277</v>
       </c>
-      <c r="AD60" t="s">
-        <v>170</v>
-      </c>
       <c r="AE60" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF60" t="s">
         <v>278</v>
       </c>
-      <c r="AH60" t="s">
+      <c r="AI60" t="s">
         <v>418</v>
       </c>
-      <c r="AI60" t="s">
+      <c r="AJ60" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="61" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>205</v>
       </c>
@@ -21779,20 +21962,23 @@
       <c r="W61" t="s">
         <v>431</v>
       </c>
-      <c r="AC61" t="s">
+      <c r="X61" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD61" t="s">
         <v>279</v>
       </c>
-      <c r="AD61" t="s">
-        <v>170</v>
-      </c>
-      <c r="AH61" t="s">
+      <c r="AE61" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI61" t="s">
         <v>175</v>
       </c>
-      <c r="AI61" t="s">
+      <c r="AJ61" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="62" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>205</v>
       </c>
@@ -21835,23 +22021,26 @@
       <c r="W62" t="s">
         <v>431</v>
       </c>
-      <c r="AC62" t="s">
+      <c r="X62" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD62" t="s">
         <v>280</v>
       </c>
-      <c r="AD62" t="s">
-        <v>170</v>
-      </c>
       <c r="AE62" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF62" t="s">
         <v>281</v>
       </c>
-      <c r="AH62" t="s">
+      <c r="AI62" t="s">
         <v>175</v>
       </c>
-      <c r="AI62" t="s">
+      <c r="AJ62" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="63" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>205</v>
       </c>
@@ -21894,20 +22083,23 @@
       <c r="W63" t="s">
         <v>431</v>
       </c>
-      <c r="AC63" t="s">
+      <c r="X63" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD63" t="s">
         <v>282</v>
       </c>
-      <c r="AD63" t="s">
-        <v>170</v>
-      </c>
-      <c r="AH63" t="s">
+      <c r="AE63" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI63" t="s">
         <v>175</v>
       </c>
-      <c r="AI63" t="s">
+      <c r="AJ63" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="64" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>205</v>
       </c>
@@ -21953,20 +22145,23 @@
       <c r="W64" t="s">
         <v>431</v>
       </c>
-      <c r="AC64" t="s">
+      <c r="X64" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD64" t="s">
         <v>283</v>
       </c>
-      <c r="AD64" t="s">
-        <v>170</v>
-      </c>
       <c r="AE64" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF64" t="s">
         <v>284</v>
       </c>
-      <c r="AI64" t="s">
+      <c r="AJ64" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="65" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>205</v>
       </c>
@@ -22012,20 +22207,23 @@
       <c r="W65" t="s">
         <v>431</v>
       </c>
-      <c r="AC65" t="s">
+      <c r="X65" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD65" t="s">
         <v>283</v>
       </c>
-      <c r="AD65" t="s">
-        <v>170</v>
-      </c>
       <c r="AE65" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF65" t="s">
         <v>285</v>
       </c>
-      <c r="AI65" t="s">
+      <c r="AJ65" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="66" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>205</v>
       </c>
@@ -22071,20 +22269,23 @@
       <c r="W66" t="s">
         <v>431</v>
       </c>
-      <c r="AC66" t="s">
+      <c r="X66" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD66" t="s">
         <v>286</v>
       </c>
-      <c r="AD66" t="s">
-        <v>170</v>
-      </c>
       <c r="AE66" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF66" t="s">
         <v>287</v>
       </c>
-      <c r="AI66" t="s">
+      <c r="AJ66" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="67" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>205</v>
       </c>
@@ -22130,23 +22331,26 @@
       <c r="W67" t="s">
         <v>431</v>
       </c>
-      <c r="AC67" t="s">
+      <c r="X67" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD67" t="s">
         <v>288</v>
       </c>
-      <c r="AD67" t="s">
-        <v>170</v>
-      </c>
       <c r="AE67" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF67" t="s">
         <v>289</v>
       </c>
-      <c r="AH67" t="s">
+      <c r="AI67" t="s">
         <v>458</v>
       </c>
-      <c r="AI67" t="s">
+      <c r="AJ67" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="68" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>205</v>
       </c>
@@ -22192,23 +22396,26 @@
       <c r="W68" t="s">
         <v>431</v>
       </c>
-      <c r="AC68" t="s">
+      <c r="X68" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD68" t="s">
         <v>290</v>
       </c>
-      <c r="AD68" t="s">
-        <v>170</v>
-      </c>
       <c r="AE68" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF68" t="s">
         <v>291</v>
       </c>
-      <c r="AH68" t="s">
+      <c r="AI68" t="s">
         <v>458</v>
       </c>
-      <c r="AI68" t="s">
+      <c r="AJ68" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="69" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>205</v>
       </c>
@@ -22245,11 +22452,14 @@
       <c r="W69" t="s">
         <v>432</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="X69" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA69" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="70" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>205</v>
       </c>
@@ -22286,11 +22496,14 @@
       <c r="W70" t="s">
         <v>432</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="X70" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA70" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="71" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>205</v>
       </c>
@@ -22327,11 +22540,14 @@
       <c r="W71" t="s">
         <v>432</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="X71" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA71" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="72" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>205</v>
       </c>
@@ -22368,11 +22584,14 @@
       <c r="W72" t="s">
         <v>432</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="X72" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA72" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="73" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>205</v>
       </c>
@@ -22409,11 +22628,14 @@
       <c r="W73" t="s">
         <v>432</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="X73" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA73" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="74" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>205</v>
       </c>
@@ -22450,11 +22672,14 @@
       <c r="W74" t="s">
         <v>432</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="X74" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA74" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="75" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>205</v>
       </c>
@@ -22500,23 +22725,26 @@
       <c r="W75" t="s">
         <v>431</v>
       </c>
-      <c r="AC75" t="s">
+      <c r="X75" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD75" t="s">
         <v>288</v>
       </c>
-      <c r="AD75" t="s">
-        <v>170</v>
-      </c>
       <c r="AE75" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF75" t="s">
         <v>292</v>
       </c>
-      <c r="AH75" t="s">
+      <c r="AI75" t="s">
         <v>458</v>
       </c>
-      <c r="AI75" t="s">
+      <c r="AJ75" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="76" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>205</v>
       </c>
@@ -22562,23 +22790,26 @@
       <c r="W76" t="s">
         <v>431</v>
       </c>
-      <c r="AC76" t="s">
+      <c r="X76" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD76" t="s">
         <v>288</v>
       </c>
-      <c r="AD76" t="s">
-        <v>170</v>
-      </c>
       <c r="AE76" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF76" t="s">
         <v>293</v>
       </c>
-      <c r="AH76" t="s">
+      <c r="AI76" t="s">
         <v>458</v>
       </c>
-      <c r="AI76" t="s">
+      <c r="AJ76" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="77" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>205</v>
       </c>
@@ -22622,26 +22853,29 @@
       <c r="W77" t="s">
         <v>431</v>
       </c>
-      <c r="AC77" t="s">
+      <c r="X77" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD77" t="s">
         <v>294</v>
       </c>
-      <c r="AD77" t="s">
-        <v>170</v>
-      </c>
       <c r="AE77" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF77" t="s">
         <v>295</v>
       </c>
-      <c r="AF77" t="s">
+      <c r="AG77" t="s">
         <v>296</v>
       </c>
-      <c r="AH77" t="s">
+      <c r="AI77" t="s">
         <v>178</v>
       </c>
-      <c r="AI77" t="s">
+      <c r="AJ77" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="78" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>205</v>
       </c>
@@ -22685,17 +22919,20 @@
       <c r="W78" t="s">
         <v>431</v>
       </c>
-      <c r="AC78" t="s">
+      <c r="X78" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD78" t="s">
         <v>297</v>
       </c>
-      <c r="AD78" t="s">
-        <v>170</v>
-      </c>
-      <c r="AH78" t="s">
+      <c r="AE78" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI78" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="79" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>205</v>
       </c>
@@ -22739,26 +22976,29 @@
       <c r="W79" t="s">
         <v>431</v>
       </c>
-      <c r="AC79" t="s">
+      <c r="X79" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD79" t="s">
         <v>275</v>
       </c>
-      <c r="AD79" t="s">
-        <v>170</v>
-      </c>
       <c r="AE79" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF79" t="s">
         <v>298</v>
       </c>
-      <c r="AF79" t="s">
+      <c r="AG79" t="s">
         <v>299</v>
       </c>
-      <c r="AH79" t="s">
+      <c r="AI79" t="s">
         <v>179</v>
       </c>
-      <c r="AI79" t="s">
+      <c r="AJ79" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="80" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>205</v>
       </c>
@@ -22801,20 +23041,23 @@
       <c r="W80" t="s">
         <v>431</v>
       </c>
-      <c r="AC80" t="s">
+      <c r="X80" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD80" t="s">
         <v>300</v>
       </c>
-      <c r="AD80" t="s">
-        <v>170</v>
-      </c>
-      <c r="AH80" t="s">
+      <c r="AE80" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI80" t="s">
         <v>179</v>
       </c>
-      <c r="AI80" t="s">
+      <c r="AJ80" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="81" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>205</v>
       </c>
@@ -22857,20 +23100,23 @@
       <c r="W81" t="s">
         <v>431</v>
       </c>
-      <c r="AC81" t="s">
+      <c r="X81" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD81" t="s">
         <v>301</v>
       </c>
-      <c r="AD81" t="s">
-        <v>170</v>
-      </c>
       <c r="AE81" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF81" t="s">
         <v>302</v>
       </c>
-      <c r="AH81" t="s">
+      <c r="AI81" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="82" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>205</v>
       </c>
@@ -22913,20 +23159,23 @@
       <c r="W82" t="s">
         <v>431</v>
       </c>
-      <c r="AC82" t="s">
+      <c r="X82" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD82" t="s">
         <v>303</v>
       </c>
-      <c r="AD82" t="s">
-        <v>170</v>
-      </c>
-      <c r="AH82" t="s">
+      <c r="AE82" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI82" t="s">
         <v>181</v>
       </c>
-      <c r="AI82" t="s">
+      <c r="AJ82" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="83" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>205</v>
       </c>
@@ -22969,20 +23218,23 @@
       <c r="W83" t="s">
         <v>431</v>
       </c>
-      <c r="AC83" t="s">
+      <c r="X83" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD83" t="s">
         <v>304</v>
       </c>
-      <c r="AD83" t="s">
-        <v>170</v>
-      </c>
-      <c r="AH83" t="s">
+      <c r="AE83" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI83" t="s">
         <v>181</v>
       </c>
-      <c r="AI83" t="s">
+      <c r="AJ83" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="84" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>205</v>
       </c>
@@ -23025,23 +23277,26 @@
       <c r="W84" t="s">
         <v>431</v>
       </c>
-      <c r="AC84" t="s">
+      <c r="X84" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD84" t="s">
         <v>305</v>
       </c>
-      <c r="AD84" t="s">
-        <v>170</v>
-      </c>
       <c r="AE84" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF84" t="s">
         <v>306</v>
       </c>
-      <c r="AH84" t="s">
+      <c r="AI84" t="s">
         <v>181</v>
       </c>
-      <c r="AI84" t="s">
+      <c r="AJ84" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="85" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>205</v>
       </c>
@@ -23084,17 +23339,20 @@
       <c r="W85" t="s">
         <v>431</v>
       </c>
-      <c r="AC85" t="s">
+      <c r="X85" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD85" t="s">
         <v>307</v>
       </c>
-      <c r="AD85" t="s">
-        <v>170</v>
-      </c>
-      <c r="AH85" t="s">
+      <c r="AE85" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI85" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="86" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>205</v>
       </c>
@@ -23137,23 +23395,26 @@
       <c r="W86" t="s">
         <v>431</v>
       </c>
-      <c r="AC86" t="s">
+      <c r="X86" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD86" t="s">
         <v>308</v>
       </c>
-      <c r="AD86" t="s">
-        <v>170</v>
-      </c>
       <c r="AE86" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF86" t="s">
         <v>309</v>
       </c>
-      <c r="AH86" t="s">
+      <c r="AI86" t="s">
         <v>181</v>
       </c>
-      <c r="AI86" t="s">
+      <c r="AJ86" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="87" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>205</v>
       </c>
@@ -23196,23 +23457,26 @@
       <c r="W87" t="s">
         <v>431</v>
       </c>
-      <c r="AC87" t="s">
+      <c r="X87" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD87" t="s">
         <v>310</v>
       </c>
-      <c r="AD87" t="s">
-        <v>170</v>
-      </c>
       <c r="AE87" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF87" t="s">
         <v>311</v>
       </c>
-      <c r="AH87" t="s">
+      <c r="AI87" t="s">
         <v>181</v>
       </c>
-      <c r="AI87" t="s">
+      <c r="AJ87" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="88" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>205</v>
       </c>
@@ -23255,26 +23519,29 @@
       <c r="W88" t="s">
         <v>431</v>
       </c>
-      <c r="AC88" t="s">
+      <c r="X88" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD88" t="s">
         <v>312</v>
       </c>
-      <c r="AD88" t="s">
-        <v>170</v>
-      </c>
       <c r="AE88" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF88" t="s">
         <v>313</v>
       </c>
-      <c r="AF88" t="s">
+      <c r="AG88" t="s">
         <v>314</v>
       </c>
-      <c r="AH88" t="s">
+      <c r="AI88" t="s">
         <v>181</v>
       </c>
-      <c r="AI88" t="s">
+      <c r="AJ88" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="89" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>205</v>
       </c>
@@ -23317,23 +23584,26 @@
       <c r="W89" t="s">
         <v>431</v>
       </c>
-      <c r="AC89" t="s">
+      <c r="X89" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD89" t="s">
         <v>315</v>
       </c>
-      <c r="AD89" t="s">
-        <v>170</v>
-      </c>
       <c r="AE89" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF89" t="s">
         <v>316</v>
       </c>
-      <c r="AH89" t="s">
+      <c r="AI89" t="s">
         <v>181</v>
       </c>
-      <c r="AI89" t="s">
+      <c r="AJ89" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="90" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>205</v>
       </c>
@@ -23376,17 +23646,20 @@
       <c r="W90" t="s">
         <v>431</v>
       </c>
-      <c r="AC90" t="s">
+      <c r="X90" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD90" t="s">
         <v>317</v>
       </c>
-      <c r="AD90" t="s">
-        <v>170</v>
-      </c>
-      <c r="AH90" t="s">
+      <c r="AE90" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI90" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="91" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>205</v>
       </c>
@@ -23429,23 +23702,26 @@
       <c r="W91" t="s">
         <v>431</v>
       </c>
-      <c r="AC91" t="s">
+      <c r="X91" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD91" t="s">
         <v>318</v>
       </c>
-      <c r="AD91" t="s">
-        <v>170</v>
-      </c>
       <c r="AE91" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF91" t="s">
         <v>319</v>
       </c>
-      <c r="AH91" t="s">
+      <c r="AI91" t="s">
         <v>181</v>
       </c>
-      <c r="AI91" t="s">
+      <c r="AJ91" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="92" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>205</v>
       </c>
@@ -23488,26 +23764,29 @@
       <c r="W92" t="s">
         <v>431</v>
       </c>
-      <c r="AC92" t="s">
+      <c r="X92" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD92" t="s">
         <v>320</v>
       </c>
-      <c r="AD92" t="s">
-        <v>170</v>
-      </c>
       <c r="AE92" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF92" t="s">
         <v>321</v>
       </c>
-      <c r="AF92" t="s">
+      <c r="AG92" t="s">
         <v>322</v>
       </c>
-      <c r="AH92" t="s">
+      <c r="AI92" t="s">
         <v>181</v>
       </c>
-      <c r="AI92" t="s">
+      <c r="AJ92" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="93" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>205</v>
       </c>
@@ -23550,20 +23829,23 @@
       <c r="W93" t="s">
         <v>431</v>
       </c>
-      <c r="AC93" t="s">
+      <c r="X93" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD93" t="s">
         <v>275</v>
       </c>
-      <c r="AD93" t="s">
-        <v>170</v>
-      </c>
       <c r="AE93" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF93" t="s">
         <v>323</v>
       </c>
-      <c r="AH93" t="s">
+      <c r="AI93" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="94" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>205</v>
       </c>
@@ -23606,23 +23888,26 @@
       <c r="W94" t="s">
         <v>431</v>
       </c>
-      <c r="AC94" t="s">
+      <c r="X94" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD94" t="s">
         <v>324</v>
       </c>
-      <c r="AD94" t="s">
-        <v>170</v>
-      </c>
       <c r="AE94" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF94" t="s">
         <v>319</v>
       </c>
-      <c r="AH94" t="s">
+      <c r="AI94" t="s">
         <v>181</v>
       </c>
-      <c r="AI94" t="s">
+      <c r="AJ94" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="95" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>205</v>
       </c>
@@ -23665,29 +23950,32 @@
       <c r="W95" t="s">
         <v>431</v>
       </c>
-      <c r="AC95" t="s">
+      <c r="X95" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD95" t="s">
         <v>325</v>
       </c>
-      <c r="AD95" t="s">
-        <v>170</v>
-      </c>
       <c r="AE95" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF95" t="s">
         <v>326</v>
       </c>
-      <c r="AF95" t="s">
+      <c r="AG95" t="s">
         <v>327</v>
       </c>
-      <c r="AG95" t="s">
+      <c r="AH95" t="s">
         <v>328</v>
       </c>
-      <c r="AH95" t="s">
+      <c r="AI95" t="s">
         <v>420</v>
       </c>
-      <c r="AI95" t="s">
+      <c r="AJ95" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="96" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>205</v>
       </c>
@@ -23724,11 +24012,14 @@
       <c r="W96" t="s">
         <v>432</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="X96" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA96" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="97" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>205</v>
       </c>
@@ -23765,11 +24056,14 @@
       <c r="W97" t="s">
         <v>432</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="X97" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA97" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="98" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>205</v>
       </c>
@@ -23812,20 +24106,23 @@
       <c r="W98" t="s">
         <v>431</v>
       </c>
-      <c r="AC98" t="s">
+      <c r="X98" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD98" t="s">
         <v>329</v>
       </c>
-      <c r="AD98" t="s">
-        <v>170</v>
-      </c>
       <c r="AE98" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF98" t="s">
         <v>330</v>
       </c>
-      <c r="AH98" t="s">
+      <c r="AI98" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="99" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>205</v>
       </c>
@@ -23868,20 +24165,23 @@
       <c r="W99" t="s">
         <v>431</v>
       </c>
-      <c r="AC99" t="s">
+      <c r="X99" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD99" t="s">
         <v>331</v>
       </c>
-      <c r="AD99" t="s">
-        <v>170</v>
-      </c>
-      <c r="AH99" t="s">
+      <c r="AE99" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI99" t="s">
         <v>181</v>
       </c>
-      <c r="AI99" t="s">
+      <c r="AJ99" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="100" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>205</v>
       </c>
@@ -23924,23 +24224,26 @@
       <c r="W100" t="s">
         <v>431</v>
       </c>
-      <c r="AC100" t="s">
+      <c r="X100" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD100" t="s">
         <v>332</v>
       </c>
-      <c r="AD100" t="s">
-        <v>170</v>
-      </c>
       <c r="AE100" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF100" t="s">
         <v>333</v>
       </c>
-      <c r="AH100" t="s">
+      <c r="AI100" t="s">
         <v>184</v>
       </c>
-      <c r="AI100" t="s">
+      <c r="AJ100" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="101" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>205</v>
       </c>
@@ -23983,29 +24286,32 @@
       <c r="W101" t="s">
         <v>431</v>
       </c>
-      <c r="AC101" t="s">
+      <c r="X101" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD101" t="s">
         <v>330</v>
       </c>
-      <c r="AD101" t="s">
-        <v>170</v>
-      </c>
       <c r="AE101" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF101" t="s">
         <v>334</v>
       </c>
-      <c r="AF101" t="s">
+      <c r="AG101" t="s">
         <v>335</v>
       </c>
-      <c r="AG101" t="s">
+      <c r="AH101" t="s">
         <v>336</v>
       </c>
-      <c r="AH101" t="s">
+      <c r="AI101" t="s">
         <v>184</v>
       </c>
-      <c r="AI101" t="s">
+      <c r="AJ101" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="102" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>205</v>
       </c>
@@ -24048,26 +24354,29 @@
       <c r="W102" t="s">
         <v>431</v>
       </c>
-      <c r="AC102" t="s">
+      <c r="X102" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD102" t="s">
         <v>337</v>
       </c>
-      <c r="AD102" t="s">
-        <v>170</v>
-      </c>
       <c r="AE102" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF102" t="s">
         <v>338</v>
       </c>
-      <c r="AF102" t="s">
+      <c r="AG102" t="s">
         <v>339</v>
       </c>
-      <c r="AH102" t="s">
+      <c r="AI102" t="s">
         <v>184</v>
       </c>
-      <c r="AI102" t="s">
+      <c r="AJ102" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="103" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>205</v>
       </c>
@@ -24110,23 +24419,26 @@
       <c r="W103" t="s">
         <v>431</v>
       </c>
-      <c r="AC103" t="s">
+      <c r="X103" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD103" t="s">
         <v>340</v>
       </c>
-      <c r="AD103" t="s">
-        <v>170</v>
-      </c>
       <c r="AE103" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF103" t="s">
         <v>341</v>
       </c>
-      <c r="AH103" t="s">
+      <c r="AI103" t="s">
         <v>184</v>
       </c>
-      <c r="AI103" t="s">
+      <c r="AJ103" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="104" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>205</v>
       </c>
@@ -24169,23 +24481,26 @@
       <c r="W104" t="s">
         <v>431</v>
       </c>
-      <c r="AC104" t="s">
+      <c r="X104" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD104" t="s">
         <v>342</v>
       </c>
-      <c r="AD104" t="s">
-        <v>170</v>
-      </c>
       <c r="AE104" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF104" t="s">
         <v>343</v>
       </c>
-      <c r="AH104" t="s">
+      <c r="AI104" t="s">
         <v>184</v>
       </c>
-      <c r="AI104" t="s">
+      <c r="AJ104" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="105" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>205</v>
       </c>
@@ -24228,23 +24543,26 @@
       <c r="W105" t="s">
         <v>431</v>
       </c>
-      <c r="AC105" t="s">
+      <c r="X105" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD105" t="s">
         <v>340</v>
       </c>
-      <c r="AD105" t="s">
-        <v>170</v>
-      </c>
       <c r="AE105" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF105" t="s">
         <v>344</v>
       </c>
-      <c r="AH105" t="s">
+      <c r="AI105" t="s">
         <v>184</v>
       </c>
-      <c r="AI105" t="s">
+      <c r="AJ105" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="106" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>205</v>
       </c>
@@ -24281,11 +24599,14 @@
       <c r="W106" t="s">
         <v>432</v>
       </c>
-      <c r="Z106" t="s">
+      <c r="X106" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA106" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="107" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>205</v>
       </c>
@@ -24322,11 +24643,14 @@
       <c r="W107" t="s">
         <v>433</v>
       </c>
-      <c r="Z107" t="s">
+      <c r="X107" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA107" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="108" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>205</v>
       </c>
@@ -24363,11 +24687,14 @@
       <c r="W108" t="s">
         <v>433</v>
       </c>
-      <c r="Z108" t="s">
+      <c r="X108" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA108" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="109" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>205</v>
       </c>
@@ -24404,11 +24731,14 @@
       <c r="W109" t="s">
         <v>432</v>
       </c>
-      <c r="Z109" t="s">
+      <c r="X109" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA109" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="110" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>205</v>
       </c>
@@ -24445,11 +24775,14 @@
       <c r="W110" t="s">
         <v>433</v>
       </c>
-      <c r="Z110" t="s">
+      <c r="X110" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA110" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="111" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>205</v>
       </c>
@@ -24486,11 +24819,14 @@
       <c r="W111" t="s">
         <v>433</v>
       </c>
-      <c r="Z111" t="s">
+      <c r="X111" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA111" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="112" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>205</v>
       </c>
@@ -24533,23 +24869,26 @@
       <c r="W112" t="s">
         <v>431</v>
       </c>
-      <c r="AD112" t="s">
+      <c r="X112" t="s">
         <v>170</v>
       </c>
       <c r="AE112" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF112" t="s">
         <v>345</v>
       </c>
-      <c r="AF112" t="s">
+      <c r="AG112" t="s">
         <v>346</v>
       </c>
-      <c r="AH112" t="s">
+      <c r="AI112" t="s">
         <v>184</v>
       </c>
-      <c r="AI112" t="s">
+      <c r="AJ112" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="113" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>205</v>
       </c>
@@ -24592,23 +24931,26 @@
       <c r="W113" t="s">
         <v>431</v>
       </c>
-      <c r="AC113" t="s">
+      <c r="X113" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD113" t="s">
         <v>347</v>
       </c>
-      <c r="AD113" t="s">
-        <v>170</v>
-      </c>
       <c r="AE113" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF113" t="s">
         <v>348</v>
       </c>
-      <c r="AH113" t="s">
+      <c r="AI113" t="s">
         <v>185</v>
       </c>
-      <c r="AI113" t="s">
+      <c r="AJ113" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="114" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>205</v>
       </c>
@@ -24651,20 +24993,23 @@
       <c r="W114" t="s">
         <v>431</v>
       </c>
-      <c r="AC114" t="s">
+      <c r="X114" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD114" t="s">
         <v>349</v>
       </c>
-      <c r="AD114" t="s">
-        <v>170</v>
-      </c>
-      <c r="AH114" t="s">
+      <c r="AE114" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI114" t="s">
         <v>185</v>
       </c>
-      <c r="AI114" t="s">
+      <c r="AJ114" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="115" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>205</v>
       </c>
@@ -24707,20 +25052,23 @@
       <c r="W115" t="s">
         <v>431</v>
       </c>
-      <c r="AC115" t="s">
+      <c r="X115" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD115" t="s">
         <v>350</v>
       </c>
-      <c r="AD115" t="s">
-        <v>170</v>
-      </c>
-      <c r="AH115" t="s">
+      <c r="AE115" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI115" t="s">
         <v>185</v>
       </c>
-      <c r="AI115" t="s">
+      <c r="AJ115" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="116" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>205</v>
       </c>
@@ -24763,17 +25111,20 @@
       <c r="W116" t="s">
         <v>431</v>
       </c>
-      <c r="AC116" t="s">
+      <c r="X116" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD116" t="s">
         <v>351</v>
       </c>
-      <c r="AH116" t="s">
+      <c r="AI116" t="s">
         <v>185</v>
       </c>
-      <c r="AI116" t="s">
+      <c r="AJ116" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="117" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>205</v>
       </c>
@@ -24816,17 +25167,20 @@
       <c r="W117" t="s">
         <v>431</v>
       </c>
-      <c r="AC117" t="s">
+      <c r="X117" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD117" t="s">
         <v>352</v>
       </c>
-      <c r="AH117" t="s">
+      <c r="AI117" t="s">
         <v>185</v>
       </c>
-      <c r="AI117" t="s">
+      <c r="AJ117" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="118" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>205</v>
       </c>
@@ -24869,26 +25223,29 @@
       <c r="W118" t="s">
         <v>431</v>
       </c>
-      <c r="AC118" t="s">
+      <c r="X118" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD118" t="s">
         <v>353</v>
       </c>
-      <c r="AD118" t="s">
-        <v>170</v>
-      </c>
       <c r="AE118" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF118" t="s">
         <v>354</v>
       </c>
-      <c r="AF118" t="s">
+      <c r="AG118" t="s">
         <v>355</v>
       </c>
-      <c r="AH118" t="s">
+      <c r="AI118" t="s">
         <v>421</v>
       </c>
-      <c r="AI118" t="s">
+      <c r="AJ118" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="119" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>205</v>
       </c>
@@ -24931,26 +25288,29 @@
       <c r="W119" t="s">
         <v>431</v>
       </c>
-      <c r="AC119" t="s">
+      <c r="X119" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD119" t="s">
         <v>356</v>
       </c>
-      <c r="AD119" t="s">
-        <v>170</v>
-      </c>
       <c r="AE119" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF119" t="s">
         <v>357</v>
       </c>
-      <c r="AF119" t="s">
+      <c r="AG119" t="s">
         <v>358</v>
       </c>
-      <c r="AH119" t="s">
+      <c r="AI119" t="s">
         <v>422</v>
       </c>
-      <c r="AI119" t="s">
+      <c r="AJ119" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="120" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>205</v>
       </c>
@@ -24987,11 +25347,14 @@
       <c r="W120" t="s">
         <v>432</v>
       </c>
-      <c r="Z120" t="s">
+      <c r="X120" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA120" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="121" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>205</v>
       </c>
@@ -25028,11 +25391,14 @@
       <c r="W121" t="s">
         <v>432</v>
       </c>
-      <c r="Z121" t="s">
+      <c r="X121" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA121" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="122" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>205</v>
       </c>
@@ -25069,11 +25435,14 @@
       <c r="W122" t="s">
         <v>432</v>
       </c>
-      <c r="Z122" t="s">
+      <c r="X122" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA122" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="123" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>205</v>
       </c>
@@ -25110,11 +25479,14 @@
       <c r="W123" t="s">
         <v>432</v>
       </c>
-      <c r="Z123" t="s">
+      <c r="X123" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA123" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="124" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>205</v>
       </c>
@@ -25157,23 +25529,26 @@
       <c r="W124" t="s">
         <v>431</v>
       </c>
-      <c r="AC124" t="s">
+      <c r="X124" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD124" t="s">
         <v>330</v>
       </c>
-      <c r="AD124" t="s">
-        <v>170</v>
-      </c>
       <c r="AE124" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF124" t="s">
         <v>359</v>
       </c>
-      <c r="AH124" t="s">
+      <c r="AI124" t="s">
         <v>185</v>
       </c>
-      <c r="AI124" t="s">
+      <c r="AJ124" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="125" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>205</v>
       </c>
@@ -25216,23 +25591,26 @@
       <c r="W125" t="s">
         <v>431</v>
       </c>
-      <c r="AC125" t="s">
+      <c r="X125" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD125" t="s">
         <v>360</v>
       </c>
-      <c r="AD125" t="s">
-        <v>170</v>
-      </c>
       <c r="AE125" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF125" t="s">
         <v>361</v>
       </c>
-      <c r="AH125" t="s">
+      <c r="AI125" t="s">
         <v>422</v>
       </c>
-      <c r="AI125" t="s">
+      <c r="AJ125" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="126" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>205</v>
       </c>
@@ -25275,23 +25653,26 @@
       <c r="W126" t="s">
         <v>431</v>
       </c>
-      <c r="AC126" t="s">
+      <c r="X126" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD126" t="s">
         <v>362</v>
       </c>
-      <c r="AD126" t="s">
-        <v>170</v>
-      </c>
       <c r="AE126" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF126" t="s">
         <v>363</v>
       </c>
-      <c r="AH126" t="s">
+      <c r="AI126" t="s">
         <v>185</v>
       </c>
-      <c r="AI126" t="s">
+      <c r="AJ126" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="127" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>205</v>
       </c>
@@ -25334,23 +25715,26 @@
       <c r="W127" t="s">
         <v>431</v>
       </c>
-      <c r="AC127" t="s">
+      <c r="X127" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD127" t="s">
         <v>362</v>
       </c>
-      <c r="AD127" t="s">
-        <v>170</v>
-      </c>
       <c r="AE127" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF127" t="s">
         <v>364</v>
       </c>
-      <c r="AH127" t="s">
+      <c r="AI127" t="s">
         <v>423</v>
       </c>
-      <c r="AI127" t="s">
+      <c r="AJ127" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="128" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>205</v>
       </c>
@@ -25393,23 +25777,26 @@
       <c r="W128" t="s">
         <v>431</v>
       </c>
-      <c r="AC128" t="s">
+      <c r="X128" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD128" t="s">
         <v>347</v>
       </c>
-      <c r="AD128" t="s">
-        <v>170</v>
-      </c>
       <c r="AE128" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF128" t="s">
         <v>365</v>
       </c>
-      <c r="AH128" t="s">
+      <c r="AI128" t="s">
         <v>424</v>
       </c>
-      <c r="AI128" t="s">
+      <c r="AJ128" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="129" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>205</v>
       </c>
@@ -25452,29 +25839,32 @@
       <c r="W129" t="s">
         <v>431</v>
       </c>
-      <c r="AC129" t="s">
+      <c r="X129" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD129" t="s">
         <v>319</v>
       </c>
-      <c r="AD129" t="s">
-        <v>170</v>
-      </c>
       <c r="AE129" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF129" t="s">
         <v>366</v>
       </c>
-      <c r="AF129" t="s">
+      <c r="AG129" t="s">
         <v>367</v>
       </c>
-      <c r="AG129" t="s">
+      <c r="AH129" t="s">
         <v>368</v>
       </c>
-      <c r="AH129" s="10" t="s">
+      <c r="AI129" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="AI129" t="s">
+      <c r="AJ129" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="130" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>205</v>
       </c>
@@ -25517,23 +25907,26 @@
       <c r="W130" t="s">
         <v>431</v>
       </c>
-      <c r="AC130" t="s">
+      <c r="X130" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD130" t="s">
         <v>319</v>
       </c>
-      <c r="AD130" t="s">
-        <v>170</v>
-      </c>
       <c r="AE130" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF130" t="s">
         <v>369</v>
       </c>
-      <c r="AH130" s="11" t="s">
+      <c r="AI130" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AI130" t="s">
+      <c r="AJ130" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="131" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>205</v>
       </c>
@@ -25576,23 +25969,26 @@
       <c r="W131" t="s">
         <v>431</v>
       </c>
-      <c r="AC131" t="s">
+      <c r="X131" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD131" t="s">
         <v>319</v>
       </c>
-      <c r="AD131" t="s">
-        <v>170</v>
-      </c>
       <c r="AE131" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF131" t="s">
         <v>370</v>
       </c>
-      <c r="AH131" t="s">
+      <c r="AI131" t="s">
         <v>185</v>
       </c>
-      <c r="AI131" t="s">
+      <c r="AJ131" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="132" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>205</v>
       </c>
@@ -25635,20 +26031,23 @@
       <c r="W132" t="s">
         <v>431</v>
       </c>
-      <c r="AC132" t="s">
+      <c r="X132" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD132" t="s">
         <v>371</v>
       </c>
-      <c r="AD132" t="s">
-        <v>170</v>
-      </c>
       <c r="AE132" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF132" t="s">
         <v>275</v>
       </c>
-      <c r="AH132" t="s">
+      <c r="AI132" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="133" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>205</v>
       </c>
@@ -25691,20 +26090,23 @@
       <c r="W133" t="s">
         <v>431</v>
       </c>
-      <c r="AC133" t="s">
+      <c r="X133" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD133" t="s">
         <v>372</v>
       </c>
-      <c r="AD133" t="s">
-        <v>170</v>
-      </c>
-      <c r="AH133" t="s">
+      <c r="AE133" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI133" t="s">
         <v>185</v>
       </c>
-      <c r="AI133" t="s">
+      <c r="AJ133" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="134" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>205</v>
       </c>
@@ -25747,20 +26149,23 @@
       <c r="W134" t="s">
         <v>431</v>
       </c>
-      <c r="AC134" t="s">
+      <c r="X134" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD134" t="s">
         <v>373</v>
       </c>
-      <c r="AD134" t="s">
-        <v>170</v>
-      </c>
-      <c r="AH134" t="s">
+      <c r="AE134" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI134" t="s">
         <v>185</v>
       </c>
-      <c r="AI134" t="s">
+      <c r="AJ134" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="135" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>205</v>
       </c>
@@ -25803,20 +26208,23 @@
       <c r="W135" t="s">
         <v>431</v>
       </c>
-      <c r="AC135" t="s">
+      <c r="X135" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD135" t="s">
         <v>374</v>
       </c>
-      <c r="AD135" t="s">
-        <v>170</v>
-      </c>
-      <c r="AH135" t="s">
+      <c r="AE135" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI135" t="s">
         <v>185</v>
       </c>
-      <c r="AI135" t="s">
+      <c r="AJ135" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="136" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>205</v>
       </c>
@@ -25859,20 +26267,23 @@
       <c r="W136" t="s">
         <v>431</v>
       </c>
-      <c r="AC136" t="s">
+      <c r="X136" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD136" t="s">
         <v>375</v>
       </c>
-      <c r="AD136" t="s">
-        <v>170</v>
-      </c>
-      <c r="AH136" t="s">
+      <c r="AE136" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI136" t="s">
         <v>185</v>
       </c>
-      <c r="AI136" t="s">
+      <c r="AJ136" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="137" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>205</v>
       </c>
@@ -25915,20 +26326,23 @@
       <c r="W137" t="s">
         <v>431</v>
       </c>
-      <c r="AC137" t="s">
+      <c r="X137" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD137" t="s">
         <v>376</v>
       </c>
-      <c r="AD137" t="s">
-        <v>170</v>
-      </c>
-      <c r="AH137" t="s">
+      <c r="AE137" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI137" t="s">
         <v>185</v>
       </c>
-      <c r="AI137" t="s">
+      <c r="AJ137" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="138" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>205</v>
       </c>
@@ -25971,20 +26385,23 @@
       <c r="W138" t="s">
         <v>431</v>
       </c>
-      <c r="AC138" t="s">
+      <c r="X138" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD138" t="s">
         <v>377</v>
       </c>
-      <c r="AD138" t="s">
-        <v>170</v>
-      </c>
-      <c r="AH138" t="s">
+      <c r="AE138" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI138" t="s">
         <v>185</v>
       </c>
-      <c r="AI138" t="s">
+      <c r="AJ138" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="139" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>205</v>
       </c>
@@ -26027,20 +26444,23 @@
       <c r="W139" t="s">
         <v>431</v>
       </c>
-      <c r="AC139" t="s">
+      <c r="X139" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD139" t="s">
         <v>378</v>
       </c>
-      <c r="AD139" t="s">
-        <v>170</v>
-      </c>
-      <c r="AH139" t="s">
+      <c r="AE139" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI139" t="s">
         <v>185</v>
       </c>
-      <c r="AI139" t="s">
+      <c r="AJ139" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="140" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>205</v>
       </c>
@@ -26083,20 +26503,23 @@
       <c r="W140" t="s">
         <v>431</v>
       </c>
-      <c r="AC140" t="s">
+      <c r="X140" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD140" t="s">
         <v>379</v>
       </c>
-      <c r="AD140" t="s">
-        <v>170</v>
-      </c>
-      <c r="AH140" t="s">
+      <c r="AE140" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI140" t="s">
         <v>190</v>
       </c>
-      <c r="AI140" t="s">
+      <c r="AJ140" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="141" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>205</v>
       </c>
@@ -26139,17 +26562,20 @@
       <c r="W141" t="s">
         <v>431</v>
       </c>
-      <c r="AC141" t="s">
+      <c r="X141" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD141" t="s">
         <v>332</v>
       </c>
-      <c r="AD141" t="s">
-        <v>170</v>
-      </c>
-      <c r="AH141" t="s">
+      <c r="AE141" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI141" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="142" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>205</v>
       </c>
@@ -26192,20 +26618,23 @@
       <c r="W142" t="s">
         <v>431</v>
       </c>
-      <c r="AC142" t="s">
+      <c r="X142" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD142" t="s">
         <v>380</v>
       </c>
-      <c r="AD142" t="s">
-        <v>170</v>
-      </c>
-      <c r="AH142" t="s">
+      <c r="AE142" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI142" t="s">
         <v>190</v>
       </c>
-      <c r="AI142" t="s">
+      <c r="AJ142" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="143" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>205</v>
       </c>
@@ -26248,17 +26677,20 @@
       <c r="W143" t="s">
         <v>431</v>
       </c>
-      <c r="AC143" t="s">
+      <c r="X143" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD143" t="s">
         <v>381</v>
       </c>
-      <c r="AD143" t="s">
-        <v>170</v>
-      </c>
-      <c r="AH143" t="s">
+      <c r="AE143" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI143" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="144" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>205</v>
       </c>
@@ -26301,17 +26733,20 @@
       <c r="W144" t="s">
         <v>431</v>
       </c>
-      <c r="AC144" t="s">
+      <c r="X144" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD144" t="s">
         <v>332</v>
       </c>
-      <c r="AD144" t="s">
-        <v>170</v>
-      </c>
-      <c r="AH144" t="s">
+      <c r="AE144" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI144" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="145" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>205</v>
       </c>
@@ -26357,14 +26792,17 @@
       <c r="W145" t="s">
         <v>431</v>
       </c>
-      <c r="AD145" t="s">
-        <v>170</v>
-      </c>
-      <c r="AH145" t="s">
+      <c r="X145" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE145" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI145" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="146" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>205</v>
       </c>
@@ -26410,11 +26848,14 @@
       <c r="W146" t="s">
         <v>431</v>
       </c>
-      <c r="Z146" t="s">
+      <c r="X146" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA146" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="147" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>205</v>
       </c>
@@ -26460,23 +26901,26 @@
       <c r="W147" t="s">
         <v>432</v>
       </c>
-      <c r="Z147" t="s">
+      <c r="X147" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA147" t="s">
         <v>506</v>
       </c>
-      <c r="AC147" t="s">
+      <c r="AD147" t="s">
         <v>382</v>
       </c>
-      <c r="AD147" t="s">
-        <v>170</v>
-      </c>
       <c r="AE147" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF147" t="s">
         <v>383</v>
       </c>
-      <c r="AF147" t="s">
+      <c r="AG147" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="148" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>205</v>
       </c>
@@ -26516,23 +26960,26 @@
       <c r="W148" t="s">
         <v>432</v>
       </c>
-      <c r="Z148" t="s">
+      <c r="X148" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA148" t="s">
         <v>506</v>
       </c>
-      <c r="AC148" t="s">
+      <c r="AD148" t="s">
         <v>382</v>
       </c>
-      <c r="AD148" t="s">
-        <v>170</v>
-      </c>
       <c r="AE148" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF148" t="s">
         <v>385</v>
       </c>
-      <c r="AF148" t="s">
+      <c r="AG148" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="149" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>205</v>
       </c>
@@ -26572,23 +27019,26 @@
       <c r="W149" t="s">
         <v>432</v>
       </c>
-      <c r="Z149" t="s">
+      <c r="X149" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA149" t="s">
         <v>506</v>
       </c>
-      <c r="AC149" t="s">
+      <c r="AD149" t="s">
         <v>382</v>
       </c>
-      <c r="AD149" t="s">
-        <v>170</v>
-      </c>
       <c r="AE149" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF149" t="s">
         <v>386</v>
       </c>
-      <c r="AF149" t="s">
+      <c r="AG149" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="150" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>205</v>
       </c>
@@ -26628,26 +27078,29 @@
       <c r="W150" t="s">
         <v>432</v>
       </c>
-      <c r="Z150" t="s">
+      <c r="X150" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA150" t="s">
         <v>506</v>
       </c>
-      <c r="AC150" t="s">
+      <c r="AD150" t="s">
         <v>382</v>
       </c>
-      <c r="AD150" t="s">
-        <v>170</v>
-      </c>
       <c r="AE150" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF150" t="s">
         <v>387</v>
       </c>
-      <c r="AF150" t="s">
+      <c r="AG150" t="s">
         <v>319</v>
       </c>
-      <c r="AI150" t="s">
+      <c r="AJ150" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="151" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>205</v>
       </c>
@@ -26684,26 +27137,29 @@
       <c r="W151" t="s">
         <v>432</v>
       </c>
-      <c r="Z151" t="s">
+      <c r="X151" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA151" t="s">
         <v>506</v>
       </c>
-      <c r="AC151" t="s">
+      <c r="AD151" t="s">
         <v>382</v>
       </c>
-      <c r="AD151" t="s">
-        <v>170</v>
-      </c>
       <c r="AE151" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF151" t="s">
         <v>388</v>
       </c>
-      <c r="AF151" t="s">
+      <c r="AG151" t="s">
         <v>384</v>
       </c>
-      <c r="AG151" t="s">
+      <c r="AH151" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="152" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>205</v>
       </c>
@@ -26743,11 +27199,14 @@
       <c r="W152" t="s">
         <v>431</v>
       </c>
-      <c r="Z152" t="s">
+      <c r="X152" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA152" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="153" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>205</v>
       </c>
@@ -26787,23 +27246,26 @@
       <c r="W153" t="s">
         <v>432</v>
       </c>
-      <c r="Z153" t="s">
+      <c r="X153" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA153" t="s">
         <v>506</v>
       </c>
-      <c r="AC153" t="s">
+      <c r="AD153" t="s">
         <v>390</v>
       </c>
-      <c r="AD153" t="s">
-        <v>170</v>
-      </c>
       <c r="AE153" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF153" t="s">
         <v>391</v>
       </c>
-      <c r="AI153" t="s">
+      <c r="AJ153" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="154" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>205</v>
       </c>
@@ -26843,23 +27305,26 @@
       <c r="W154" t="s">
         <v>432</v>
       </c>
-      <c r="Z154" t="s">
+      <c r="X154" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA154" t="s">
         <v>506</v>
       </c>
-      <c r="AC154" t="s">
+      <c r="AD154" t="s">
         <v>392</v>
       </c>
-      <c r="AD154" t="s">
-        <v>170</v>
-      </c>
       <c r="AE154" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF154" t="s">
         <v>393</v>
       </c>
-      <c r="AI154" t="s">
+      <c r="AJ154" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="155" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>205</v>
       </c>
@@ -26899,23 +27364,26 @@
       <c r="W155" t="s">
         <v>432</v>
       </c>
-      <c r="Z155" t="s">
+      <c r="X155" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA155" t="s">
         <v>506</v>
       </c>
-      <c r="AC155" t="s">
+      <c r="AD155" t="s">
         <v>394</v>
       </c>
-      <c r="AD155" t="s">
-        <v>170</v>
-      </c>
       <c r="AE155" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF155" t="s">
         <v>395</v>
       </c>
-      <c r="AI155" t="s">
+      <c r="AJ155" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="156" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>205</v>
       </c>
@@ -26955,23 +27423,26 @@
       <c r="W156" t="s">
         <v>432</v>
       </c>
-      <c r="Z156" t="s">
+      <c r="X156" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA156" t="s">
         <v>506</v>
       </c>
-      <c r="AC156" t="s">
+      <c r="AD156" t="s">
         <v>396</v>
       </c>
-      <c r="AD156" t="s">
-        <v>170</v>
-      </c>
       <c r="AE156" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF156" t="s">
         <v>397</v>
       </c>
-      <c r="AI156" t="s">
+      <c r="AJ156" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="157" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>205</v>
       </c>
@@ -27011,23 +27482,26 @@
       <c r="W157" t="s">
         <v>432</v>
       </c>
-      <c r="Z157" t="s">
+      <c r="X157" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA157" t="s">
         <v>506</v>
       </c>
-      <c r="AC157" t="s">
+      <c r="AD157" t="s">
         <v>398</v>
       </c>
-      <c r="AD157" t="s">
-        <v>170</v>
-      </c>
       <c r="AE157" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF157" t="s">
         <v>399</v>
       </c>
-      <c r="AI157" t="s">
+      <c r="AJ157" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="158" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>205</v>
       </c>
@@ -27067,23 +27541,26 @@
       <c r="W158" t="s">
         <v>432</v>
       </c>
-      <c r="Z158" t="s">
+      <c r="X158" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA158" t="s">
         <v>506</v>
       </c>
-      <c r="AC158" t="s">
+      <c r="AD158" t="s">
         <v>400</v>
       </c>
-      <c r="AD158" t="s">
-        <v>170</v>
-      </c>
       <c r="AE158" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF158" t="s">
         <v>401</v>
       </c>
-      <c r="AI158" t="s">
+      <c r="AJ158" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="159" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>205</v>
       </c>
@@ -27123,23 +27600,26 @@
       <c r="W159" t="s">
         <v>432</v>
       </c>
-      <c r="Z159" t="s">
+      <c r="X159" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA159" t="s">
         <v>506</v>
       </c>
-      <c r="AC159" t="s">
+      <c r="AD159" t="s">
         <v>402</v>
       </c>
-      <c r="AD159" t="s">
-        <v>170</v>
-      </c>
       <c r="AE159" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF159" t="s">
         <v>403</v>
       </c>
-      <c r="AI159" t="s">
+      <c r="AJ159" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="160" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>205</v>
       </c>
@@ -27179,23 +27659,26 @@
       <c r="W160" t="s">
         <v>432</v>
       </c>
-      <c r="Z160" t="s">
+      <c r="X160" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA160" t="s">
         <v>506</v>
       </c>
-      <c r="AC160" t="s">
+      <c r="AD160" t="s">
         <v>404</v>
       </c>
-      <c r="AD160" t="s">
-        <v>170</v>
-      </c>
       <c r="AE160" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF160" t="s">
         <v>405</v>
       </c>
-      <c r="AI160" t="s">
+      <c r="AJ160" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="161" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>205</v>
       </c>
@@ -27235,23 +27718,26 @@
       <c r="W161" t="s">
         <v>432</v>
       </c>
-      <c r="Z161" t="s">
+      <c r="X161" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA161" t="s">
         <v>506</v>
       </c>
-      <c r="AC161" t="s">
+      <c r="AD161" t="s">
         <v>406</v>
       </c>
-      <c r="AD161" t="s">
-        <v>170</v>
-      </c>
       <c r="AE161" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF161" t="s">
         <v>407</v>
       </c>
-      <c r="AI161" t="s">
+      <c r="AJ161" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="162" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>205</v>
       </c>
@@ -27291,23 +27777,26 @@
       <c r="W162" t="s">
         <v>432</v>
       </c>
-      <c r="Z162" t="s">
+      <c r="X162" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA162" t="s">
         <v>506</v>
       </c>
-      <c r="AC162" t="s">
+      <c r="AD162" t="s">
         <v>408</v>
       </c>
-      <c r="AD162" t="s">
-        <v>170</v>
-      </c>
       <c r="AE162" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF162" t="s">
         <v>409</v>
       </c>
-      <c r="AI162" t="s">
+      <c r="AJ162" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="163" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>205</v>
       </c>
@@ -27347,23 +27836,26 @@
       <c r="W163" t="s">
         <v>432</v>
       </c>
-      <c r="Z163" t="s">
+      <c r="X163" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA163" t="s">
         <v>506</v>
       </c>
-      <c r="AC163" t="s">
+      <c r="AD163" t="s">
         <v>410</v>
       </c>
-      <c r="AD163" t="s">
-        <v>170</v>
-      </c>
       <c r="AE163" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF163" t="s">
         <v>411</v>
       </c>
-      <c r="AI163" t="s">
+      <c r="AJ163" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="164" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>205</v>
       </c>
@@ -27400,39 +27892,42 @@
       <c r="W164" t="s">
         <v>432</v>
       </c>
-      <c r="Z164" t="s">
+      <c r="X164" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA164" t="s">
         <v>506</v>
       </c>
-      <c r="AC164" t="s">
+      <c r="AD164" t="s">
         <v>503</v>
       </c>
-      <c r="AD164" t="s">
-        <v>170</v>
-      </c>
       <c r="AE164" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF164" t="s">
         <v>412</v>
       </c>
-      <c r="AI164" t="s">
+      <c r="AJ164" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="165" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:36" x14ac:dyDescent="0.2">
       <c r="N165" s="7"/>
       <c r="O165" s="7"/>
     </row>
-    <row r="166" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:36" x14ac:dyDescent="0.2">
       <c r="N166" s="7"/>
       <c r="O166" s="7"/>
     </row>
-    <row r="167" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:36" x14ac:dyDescent="0.2">
       <c r="N167" s="7"/>
       <c r="O167" s="7"/>
     </row>
-    <row r="168" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:36" x14ac:dyDescent="0.2">
       <c r="N168" s="7"/>
       <c r="O168" s="7"/>
     </row>
-    <row r="169" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:36" x14ac:dyDescent="0.2">
       <c r="N169" s="7"/>
       <c r="O169" s="7"/>
     </row>

--- a/Datasets/Erlach/Data/Erlach_JR.xlsx
+++ b/Datasets/Erlach/Data/Erlach_JR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julerickert/Documents/Akademie_Projekt/Datasets/Erlach/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B49B89E-B1ED-124D-BA1F-D391BC64D77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED34C26-AC1B-8543-BAF9-0F888037EF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{667C5683-ADBE-2B49-ACEF-B63231E960A4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20480" windowHeight="15980" xr2:uid="{667C5683-ADBE-2B49-ACEF-B63231E960A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2748" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="508">
   <si>
     <t>ID</t>
   </si>
@@ -1352,9 +1352,6 @@
     <t>31. Des Mädchens Wahl.</t>
   </si>
   <si>
-    <t>Zeile von JR eingefügt</t>
-  </si>
-  <si>
     <t>43. Abrede.</t>
   </si>
   <si>
@@ -1554,9 +1551,6 @@
   </si>
   <si>
     <t>8. [R]osegilge.</t>
-  </si>
-  <si>
-    <t>Zeile von JR eingefügt/überarbeitet</t>
   </si>
   <si>
     <t>[Plattdeutsch]</t>
@@ -1985,9 +1979,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB7810F-2200-2649-9C2C-F3C9823F050E}">
   <dimension ref="A1:XFB169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X2" sqref="X2:X164"/>
+      <selection pane="bottomLeft" activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2083,7 +2077,7 @@
         <v>21</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>22</v>
@@ -18487,9 +18481,6 @@
       <c r="H2" t="s">
         <v>170</v>
       </c>
-      <c r="J2" t="s">
-        <v>199</v>
-      </c>
       <c r="K2" t="s">
         <v>171</v>
       </c>
@@ -18500,10 +18491,10 @@
         <v>434</v>
       </c>
       <c r="N2" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="V2" t="s">
         <v>43</v>
@@ -18513,6 +18504,9 @@
       </c>
       <c r="X2" t="s">
         <v>170</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>199</v>
       </c>
       <c r="AD2" t="s">
         <v>209</v>
@@ -18546,9 +18540,6 @@
       <c r="H3" t="s">
         <v>170</v>
       </c>
-      <c r="J3" t="s">
-        <v>199</v>
-      </c>
       <c r="K3" t="s">
         <v>171</v>
       </c>
@@ -18559,10 +18550,10 @@
         <v>434</v>
       </c>
       <c r="N3" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="O3" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="V3" t="s">
         <v>44</v>
@@ -18572,6 +18563,9 @@
       </c>
       <c r="X3" t="s">
         <v>170</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>199</v>
       </c>
       <c r="AD3" t="s">
         <v>210</v>
@@ -18602,9 +18596,6 @@
       <c r="H4" t="s">
         <v>170</v>
       </c>
-      <c r="J4" t="s">
-        <v>199</v>
-      </c>
       <c r="K4" t="s">
         <v>171</v>
       </c>
@@ -18615,10 +18606,10 @@
         <v>434</v>
       </c>
       <c r="N4" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="O4" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="V4" t="s">
         <v>45</v>
@@ -18628,6 +18619,9 @@
       </c>
       <c r="X4" t="s">
         <v>170</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>199</v>
       </c>
       <c r="AD4" t="s">
         <v>211</v>
@@ -18661,9 +18655,6 @@
       <c r="H5" t="s">
         <v>170</v>
       </c>
-      <c r="J5" t="s">
-        <v>199</v>
-      </c>
       <c r="K5" t="s">
         <v>171</v>
       </c>
@@ -18674,10 +18665,10 @@
         <v>434</v>
       </c>
       <c r="N5" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="O5" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="V5" t="s">
         <v>46</v>
@@ -18687,6 +18678,9 @@
       </c>
       <c r="X5" t="s">
         <v>170</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>199</v>
       </c>
       <c r="AD5" t="s">
         <v>212</v>
@@ -18717,9 +18711,6 @@
       <c r="H6" t="s">
         <v>170</v>
       </c>
-      <c r="J6" t="s">
-        <v>199</v>
-      </c>
       <c r="K6" t="s">
         <v>171</v>
       </c>
@@ -18730,10 +18721,10 @@
         <v>434</v>
       </c>
       <c r="N6" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="O6" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="V6" t="s">
         <v>47</v>
@@ -18743,6 +18734,9 @@
       </c>
       <c r="X6" t="s">
         <v>170</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>199</v>
       </c>
       <c r="AD6" t="s">
         <v>213</v>
@@ -18773,9 +18767,6 @@
       <c r="H7" t="s">
         <v>170</v>
       </c>
-      <c r="J7" t="s">
-        <v>199</v>
-      </c>
       <c r="K7" t="s">
         <v>171</v>
       </c>
@@ -18786,10 +18777,10 @@
         <v>434</v>
       </c>
       <c r="N7" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="O7" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="V7" t="s">
         <v>48</v>
@@ -18799,6 +18790,9 @@
       </c>
       <c r="X7" t="s">
         <v>170</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>199</v>
       </c>
       <c r="AD7" t="s">
         <v>214</v>
@@ -18832,9 +18826,6 @@
       <c r="H8" t="s">
         <v>170</v>
       </c>
-      <c r="J8" t="s">
-        <v>199</v>
-      </c>
       <c r="K8" t="s">
         <v>171</v>
       </c>
@@ -18845,10 +18836,10 @@
         <v>434</v>
       </c>
       <c r="N8" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="O8" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="V8" t="s">
         <v>49</v>
@@ -18858,6 +18849,9 @@
       </c>
       <c r="X8" t="s">
         <v>170</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>199</v>
       </c>
       <c r="AD8" t="s">
         <v>215</v>
@@ -18888,9 +18882,6 @@
       <c r="H9" t="s">
         <v>170</v>
       </c>
-      <c r="J9" t="s">
-        <v>199</v>
-      </c>
       <c r="K9" t="s">
         <v>171</v>
       </c>
@@ -18901,10 +18892,10 @@
         <v>434</v>
       </c>
       <c r="N9" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="O9" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="V9" t="s">
         <v>50</v>
@@ -18914,6 +18905,9 @@
       </c>
       <c r="X9" t="s">
         <v>170</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>199</v>
       </c>
       <c r="AD9" t="s">
         <v>216</v>
@@ -18944,9 +18938,6 @@
       <c r="H10" t="s">
         <v>170</v>
       </c>
-      <c r="J10" t="s">
-        <v>199</v>
-      </c>
       <c r="K10" t="s">
         <v>171</v>
       </c>
@@ -18957,10 +18948,10 @@
         <v>434</v>
       </c>
       <c r="N10" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="O10" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="V10" t="s">
         <v>51</v>
@@ -18970,6 +18961,9 @@
       </c>
       <c r="X10" t="s">
         <v>170</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>199</v>
       </c>
       <c r="AD10" t="s">
         <v>217</v>
@@ -19003,9 +18997,6 @@
       <c r="H11" t="s">
         <v>170</v>
       </c>
-      <c r="J11" t="s">
-        <v>199</v>
-      </c>
       <c r="K11" t="s">
         <v>171</v>
       </c>
@@ -19016,10 +19007,10 @@
         <v>434</v>
       </c>
       <c r="N11" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="O11" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="V11" t="s">
         <v>52</v>
@@ -19029,6 +19020,9 @@
       </c>
       <c r="X11" t="s">
         <v>170</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>199</v>
       </c>
       <c r="AD11" t="s">
         <v>218</v>
@@ -19062,9 +19056,6 @@
       <c r="H12" t="s">
         <v>170</v>
       </c>
-      <c r="J12" t="s">
-        <v>199</v>
-      </c>
       <c r="K12" t="s">
         <v>171</v>
       </c>
@@ -19075,10 +19066,10 @@
         <v>434</v>
       </c>
       <c r="N12" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="O12" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="V12" t="s">
         <v>53</v>
@@ -19088,6 +19079,9 @@
       </c>
       <c r="X12" t="s">
         <v>170</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>199</v>
       </c>
       <c r="AD12" t="s">
         <v>219</v>
@@ -19118,9 +19112,6 @@
       <c r="H13" t="s">
         <v>170</v>
       </c>
-      <c r="J13" t="s">
-        <v>199</v>
-      </c>
       <c r="K13" t="s">
         <v>171</v>
       </c>
@@ -19131,10 +19122,10 @@
         <v>434</v>
       </c>
       <c r="N13" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="O13" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="V13" t="s">
         <v>54</v>
@@ -19144,6 +19135,9 @@
       </c>
       <c r="X13" t="s">
         <v>170</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>199</v>
       </c>
       <c r="AD13" t="s">
         <v>220</v>
@@ -19177,9 +19171,6 @@
       <c r="H14" t="s">
         <v>170</v>
       </c>
-      <c r="J14" t="s">
-        <v>199</v>
-      </c>
       <c r="K14" t="s">
         <v>171</v>
       </c>
@@ -19190,10 +19181,10 @@
         <v>434</v>
       </c>
       <c r="N14" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="O14" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="V14" t="s">
         <v>55</v>
@@ -19203,6 +19194,9 @@
       </c>
       <c r="X14" t="s">
         <v>170</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>199</v>
       </c>
       <c r="AD14" t="s">
         <v>221</v>
@@ -19233,9 +19227,6 @@
       <c r="H15" t="s">
         <v>170</v>
       </c>
-      <c r="J15" t="s">
-        <v>199</v>
-      </c>
       <c r="K15" t="s">
         <v>171</v>
       </c>
@@ -19246,10 +19237,10 @@
         <v>434</v>
       </c>
       <c r="N15" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="O15" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="V15" t="s">
         <v>56</v>
@@ -19259,6 +19250,9 @@
       </c>
       <c r="X15" t="s">
         <v>170</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>199</v>
       </c>
       <c r="AD15" t="s">
         <v>222</v>
@@ -19292,9 +19286,6 @@
       <c r="H16" t="s">
         <v>170</v>
       </c>
-      <c r="J16" t="s">
-        <v>199</v>
-      </c>
       <c r="K16" t="s">
         <v>171</v>
       </c>
@@ -19305,10 +19296,10 @@
         <v>434</v>
       </c>
       <c r="N16" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="O16" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="O16" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="V16" t="s">
         <v>57</v>
@@ -19318,6 +19309,9 @@
       </c>
       <c r="X16" t="s">
         <v>170</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>199</v>
       </c>
       <c r="AD16" t="s">
         <v>223</v>
@@ -19348,9 +19342,6 @@
       <c r="H17" t="s">
         <v>170</v>
       </c>
-      <c r="J17" t="s">
-        <v>199</v>
-      </c>
       <c r="K17" t="s">
         <v>171</v>
       </c>
@@ -19361,10 +19352,10 @@
         <v>434</v>
       </c>
       <c r="N17" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="O17" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="O17" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="V17" t="s">
         <v>58</v>
@@ -19374,6 +19365,9 @@
       </c>
       <c r="X17" t="s">
         <v>170</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>199</v>
       </c>
       <c r="AD17" t="s">
         <v>224</v>
@@ -19407,9 +19401,6 @@
       <c r="H18" t="s">
         <v>170</v>
       </c>
-      <c r="J18" t="s">
-        <v>199</v>
-      </c>
       <c r="K18" t="s">
         <v>171</v>
       </c>
@@ -19420,10 +19411,10 @@
         <v>434</v>
       </c>
       <c r="N18" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="O18" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="O18" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="V18" t="s">
         <v>59</v>
@@ -19433,6 +19424,9 @@
       </c>
       <c r="X18" t="s">
         <v>170</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>199</v>
       </c>
       <c r="AD18" t="s">
         <v>225</v>
@@ -19466,9 +19460,6 @@
       <c r="H19" t="s">
         <v>170</v>
       </c>
-      <c r="J19" t="s">
-        <v>199</v>
-      </c>
       <c r="K19" t="s">
         <v>171</v>
       </c>
@@ -19479,10 +19470,10 @@
         <v>434</v>
       </c>
       <c r="N19" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="O19" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="O19" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="V19" t="s">
         <v>60</v>
@@ -19492,6 +19483,9 @@
       </c>
       <c r="X19" t="s">
         <v>170</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>199</v>
       </c>
       <c r="AD19" t="s">
         <v>226</v>
@@ -19525,9 +19519,6 @@
       <c r="H20" t="s">
         <v>170</v>
       </c>
-      <c r="J20" t="s">
-        <v>199</v>
-      </c>
       <c r="K20" t="s">
         <v>171</v>
       </c>
@@ -19538,10 +19529,10 @@
         <v>434</v>
       </c>
       <c r="N20" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="O20" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="O20" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="V20" t="s">
         <v>61</v>
@@ -19551,6 +19542,9 @@
       </c>
       <c r="X20" t="s">
         <v>170</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>199</v>
       </c>
       <c r="AD20" t="s">
         <v>227</v>
@@ -19584,9 +19578,6 @@
       <c r="H21" t="s">
         <v>170</v>
       </c>
-      <c r="J21" t="s">
-        <v>199</v>
-      </c>
       <c r="K21" t="s">
         <v>171</v>
       </c>
@@ -19597,10 +19588,10 @@
         <v>434</v>
       </c>
       <c r="N21" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="O21" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="O21" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="V21" t="s">
         <v>62</v>
@@ -19610,6 +19601,9 @@
       </c>
       <c r="X21" t="s">
         <v>170</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>199</v>
       </c>
       <c r="AD21" t="s">
         <v>228</v>
@@ -19643,9 +19637,6 @@
       <c r="H22" t="s">
         <v>170</v>
       </c>
-      <c r="J22" t="s">
-        <v>199</v>
-      </c>
       <c r="K22" t="s">
         <v>171</v>
       </c>
@@ -19656,10 +19647,10 @@
         <v>434</v>
       </c>
       <c r="N22" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="O22" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="O22" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="V22" t="s">
         <v>63</v>
@@ -19669,6 +19660,9 @@
       </c>
       <c r="X22" t="s">
         <v>170</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>199</v>
       </c>
       <c r="AD22" t="s">
         <v>229</v>
@@ -19702,9 +19696,6 @@
       <c r="H23" t="s">
         <v>170</v>
       </c>
-      <c r="J23" t="s">
-        <v>199</v>
-      </c>
       <c r="K23" t="s">
         <v>171</v>
       </c>
@@ -19715,10 +19706,10 @@
         <v>434</v>
       </c>
       <c r="N23" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="O23" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="O23" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="V23" t="s">
         <v>64</v>
@@ -19728,6 +19719,9 @@
       </c>
       <c r="X23" t="s">
         <v>170</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>199</v>
       </c>
       <c r="AD23" t="s">
         <v>230</v>
@@ -19761,9 +19755,6 @@
       <c r="H24" t="s">
         <v>170</v>
       </c>
-      <c r="J24" t="s">
-        <v>199</v>
-      </c>
       <c r="K24" t="s">
         <v>171</v>
       </c>
@@ -19774,10 +19765,10 @@
         <v>434</v>
       </c>
       <c r="N24" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="O24" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="O24" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="V24" t="s">
         <v>65</v>
@@ -19787,6 +19778,9 @@
       </c>
       <c r="X24" t="s">
         <v>170</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>199</v>
       </c>
       <c r="AD24" t="s">
         <v>231</v>
@@ -19817,9 +19811,6 @@
       <c r="H25" t="s">
         <v>170</v>
       </c>
-      <c r="J25" t="s">
-        <v>199</v>
-      </c>
       <c r="K25" t="s">
         <v>171</v>
       </c>
@@ -19830,10 +19821,10 @@
         <v>434</v>
       </c>
       <c r="N25" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="O25" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="O25" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="V25" t="s">
         <v>66</v>
@@ -19843,6 +19834,9 @@
       </c>
       <c r="X25" t="s">
         <v>170</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>199</v>
       </c>
       <c r="AD25" t="s">
         <v>232</v>
@@ -19876,9 +19870,6 @@
       <c r="H26" t="s">
         <v>170</v>
       </c>
-      <c r="J26" t="s">
-        <v>199</v>
-      </c>
       <c r="K26" t="s">
         <v>171</v>
       </c>
@@ -19889,10 +19880,10 @@
         <v>434</v>
       </c>
       <c r="N26" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="O26" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="O26" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="V26" t="s">
         <v>67</v>
@@ -19902,6 +19893,9 @@
       </c>
       <c r="X26" t="s">
         <v>170</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>199</v>
       </c>
       <c r="AD26" t="s">
         <v>233</v>
@@ -19935,9 +19929,6 @@
       <c r="H27" t="s">
         <v>170</v>
       </c>
-      <c r="J27" t="s">
-        <v>199</v>
-      </c>
       <c r="K27" t="s">
         <v>171</v>
       </c>
@@ -19948,10 +19939,10 @@
         <v>434</v>
       </c>
       <c r="N27" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="O27" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="O27" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="V27" t="s">
         <v>68</v>
@@ -19961,6 +19952,9 @@
       </c>
       <c r="X27" t="s">
         <v>170</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>199</v>
       </c>
       <c r="AD27" t="s">
         <v>234</v>
@@ -19994,9 +19988,6 @@
       <c r="H28" t="s">
         <v>170</v>
       </c>
-      <c r="J28" t="s">
-        <v>199</v>
-      </c>
       <c r="K28" t="s">
         <v>171</v>
       </c>
@@ -20007,10 +19998,10 @@
         <v>434</v>
       </c>
       <c r="N28" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="O28" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="O28" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="V28" t="s">
         <v>69</v>
@@ -20020,6 +20011,9 @@
       </c>
       <c r="X28" t="s">
         <v>170</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>199</v>
       </c>
       <c r="AD28" t="s">
         <v>235</v>
@@ -20053,9 +20047,6 @@
       <c r="H29" t="s">
         <v>170</v>
       </c>
-      <c r="J29" t="s">
-        <v>199</v>
-      </c>
       <c r="K29" t="s">
         <v>171</v>
       </c>
@@ -20066,10 +20057,10 @@
         <v>434</v>
       </c>
       <c r="N29" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="O29" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="O29" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="V29" t="s">
         <v>70</v>
@@ -20079,6 +20070,9 @@
       </c>
       <c r="X29" t="s">
         <v>170</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>199</v>
       </c>
       <c r="AD29" t="s">
         <v>236</v>
@@ -20112,9 +20106,6 @@
       <c r="H30" t="s">
         <v>170</v>
       </c>
-      <c r="J30" t="s">
-        <v>199</v>
-      </c>
       <c r="K30" t="s">
         <v>171</v>
       </c>
@@ -20125,10 +20116,10 @@
         <v>434</v>
       </c>
       <c r="N30" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="O30" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="O30" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="V30" t="s">
         <v>71</v>
@@ -20138,6 +20129,9 @@
       </c>
       <c r="X30" t="s">
         <v>170</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>199</v>
       </c>
       <c r="AD30" t="s">
         <v>237</v>
@@ -20168,9 +20162,6 @@
       <c r="H31" t="s">
         <v>170</v>
       </c>
-      <c r="J31" t="s">
-        <v>199</v>
-      </c>
       <c r="K31" t="s">
         <v>171</v>
       </c>
@@ -20181,10 +20172,10 @@
         <v>434</v>
       </c>
       <c r="N31" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="O31" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="O31" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="V31" t="s">
         <v>72</v>
@@ -20194,6 +20185,9 @@
       </c>
       <c r="X31" t="s">
         <v>170</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>199</v>
       </c>
       <c r="AD31" t="s">
         <v>238</v>
@@ -20221,9 +20215,6 @@
       <c r="E32">
         <v>242</v>
       </c>
-      <c r="J32" t="s">
-        <v>199</v>
-      </c>
       <c r="K32" t="s">
         <v>171</v>
       </c>
@@ -20234,10 +20225,10 @@
         <v>434</v>
       </c>
       <c r="N32" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="O32" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="O32" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="V32" t="s">
         <v>437</v>
@@ -20248,8 +20239,8 @@
       <c r="X32" t="s">
         <v>170</v>
       </c>
-      <c r="AA32" t="s">
-        <v>438</v>
+      <c r="AB32" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="2:36" x14ac:dyDescent="0.2">
@@ -20271,9 +20262,6 @@
       <c r="H33" t="s">
         <v>170</v>
       </c>
-      <c r="J33" t="s">
-        <v>199</v>
-      </c>
       <c r="K33" t="s">
         <v>171</v>
       </c>
@@ -20284,10 +20272,10 @@
         <v>434</v>
       </c>
       <c r="N33" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="O33" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="O33" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="V33" t="s">
         <v>73</v>
@@ -20297,6 +20285,9 @@
       </c>
       <c r="X33" t="s">
         <v>170</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>199</v>
       </c>
       <c r="AD33" t="s">
         <v>239</v>
@@ -20330,9 +20321,6 @@
       <c r="H34" t="s">
         <v>170</v>
       </c>
-      <c r="J34" t="s">
-        <v>199</v>
-      </c>
       <c r="K34" t="s">
         <v>171</v>
       </c>
@@ -20343,10 +20331,10 @@
         <v>434</v>
       </c>
       <c r="N34" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="O34" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="O34" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="V34" t="s">
         <v>74</v>
@@ -20356,6 +20344,9 @@
       </c>
       <c r="X34" t="s">
         <v>170</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>199</v>
       </c>
       <c r="AD34" t="s">
         <v>240</v>
@@ -20389,9 +20380,6 @@
       <c r="H35" t="s">
         <v>170</v>
       </c>
-      <c r="J35" t="s">
-        <v>199</v>
-      </c>
       <c r="K35" t="s">
         <v>171</v>
       </c>
@@ -20402,10 +20390,10 @@
         <v>434</v>
       </c>
       <c r="N35" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="O35" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="O35" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="V35" t="s">
         <v>75</v>
@@ -20415,6 +20403,9 @@
       </c>
       <c r="X35" t="s">
         <v>170</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>199</v>
       </c>
       <c r="AD35" t="s">
         <v>241</v>
@@ -20448,9 +20439,6 @@
       <c r="H36" t="s">
         <v>170</v>
       </c>
-      <c r="J36" t="s">
-        <v>199</v>
-      </c>
       <c r="K36" t="s">
         <v>171</v>
       </c>
@@ -20461,10 +20449,10 @@
         <v>434</v>
       </c>
       <c r="N36" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="O36" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="O36" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="V36" t="s">
         <v>76</v>
@@ -20474,6 +20462,9 @@
       </c>
       <c r="X36" t="s">
         <v>170</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>199</v>
       </c>
       <c r="AD36" t="s">
         <v>242</v>
@@ -20504,9 +20495,6 @@
       <c r="H37" t="s">
         <v>170</v>
       </c>
-      <c r="J37" t="s">
-        <v>199</v>
-      </c>
       <c r="K37" t="s">
         <v>171</v>
       </c>
@@ -20517,10 +20505,10 @@
         <v>434</v>
       </c>
       <c r="N37" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="O37" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="O37" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="V37" t="s">
         <v>77</v>
@@ -20530,6 +20518,9 @@
       </c>
       <c r="X37" t="s">
         <v>170</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>199</v>
       </c>
       <c r="AD37" t="s">
         <v>243</v>
@@ -20560,9 +20551,6 @@
       <c r="H38" t="s">
         <v>170</v>
       </c>
-      <c r="J38" t="s">
-        <v>199</v>
-      </c>
       <c r="K38" t="s">
         <v>171</v>
       </c>
@@ -20573,10 +20561,10 @@
         <v>434</v>
       </c>
       <c r="N38" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="O38" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="O38" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="V38" t="s">
         <v>78</v>
@@ -20586,6 +20574,9 @@
       </c>
       <c r="X38" t="s">
         <v>170</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>199</v>
       </c>
       <c r="AD38" t="s">
         <v>244</v>
@@ -20619,9 +20610,6 @@
       <c r="H39" t="s">
         <v>170</v>
       </c>
-      <c r="J39" t="s">
-        <v>199</v>
-      </c>
       <c r="K39" t="s">
         <v>171</v>
       </c>
@@ -20632,10 +20620,10 @@
         <v>434</v>
       </c>
       <c r="N39" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="O39" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="O39" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="V39" t="s">
         <v>79</v>
@@ -20645,6 +20633,9 @@
       </c>
       <c r="X39" t="s">
         <v>170</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>199</v>
       </c>
       <c r="AD39" t="s">
         <v>245</v>
@@ -20675,9 +20666,6 @@
       <c r="H40" t="s">
         <v>170</v>
       </c>
-      <c r="J40" t="s">
-        <v>199</v>
-      </c>
       <c r="K40" t="s">
         <v>171</v>
       </c>
@@ -20688,10 +20676,10 @@
         <v>434</v>
       </c>
       <c r="N40" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="O40" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="O40" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="V40" t="s">
         <v>80</v>
@@ -20701,6 +20689,9 @@
       </c>
       <c r="X40" t="s">
         <v>170</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>199</v>
       </c>
       <c r="AD40" t="s">
         <v>246</v>
@@ -20734,9 +20725,6 @@
       <c r="H41" t="s">
         <v>170</v>
       </c>
-      <c r="J41" t="s">
-        <v>199</v>
-      </c>
       <c r="K41" t="s">
         <v>171</v>
       </c>
@@ -20747,10 +20735,10 @@
         <v>434</v>
       </c>
       <c r="N41" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="O41" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="O41" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="V41" t="s">
         <v>81</v>
@@ -20760,6 +20748,9 @@
       </c>
       <c r="X41" t="s">
         <v>170</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>199</v>
       </c>
       <c r="AD41" t="s">
         <v>247</v>
@@ -20790,9 +20781,6 @@
       <c r="H42" t="s">
         <v>170</v>
       </c>
-      <c r="J42" t="s">
-        <v>199</v>
-      </c>
       <c r="K42" t="s">
         <v>171</v>
       </c>
@@ -20803,10 +20791,10 @@
         <v>434</v>
       </c>
       <c r="N42" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="O42" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="O42" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="V42" t="s">
         <v>82</v>
@@ -20816,6 +20804,9 @@
       </c>
       <c r="X42" t="s">
         <v>170</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>199</v>
       </c>
       <c r="AD42" t="s">
         <v>248</v>
@@ -20846,9 +20837,6 @@
       <c r="H43" t="s">
         <v>170</v>
       </c>
-      <c r="J43" t="s">
-        <v>199</v>
-      </c>
       <c r="K43" t="s">
         <v>171</v>
       </c>
@@ -20859,10 +20847,10 @@
         <v>434</v>
       </c>
       <c r="N43" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="O43" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="O43" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="V43" t="s">
         <v>83</v>
@@ -20872,6 +20860,9 @@
       </c>
       <c r="X43" t="s">
         <v>170</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>199</v>
       </c>
       <c r="AD43" t="s">
         <v>249</v>
@@ -20902,9 +20893,6 @@
       <c r="H44" t="s">
         <v>170</v>
       </c>
-      <c r="J44" t="s">
-        <v>199</v>
-      </c>
       <c r="K44" t="s">
         <v>171</v>
       </c>
@@ -20915,19 +20903,22 @@
         <v>434</v>
       </c>
       <c r="N44" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="O44" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="O44" s="12" t="s">
-        <v>441</v>
-      </c>
       <c r="V44" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="W44" t="s">
         <v>431</v>
       </c>
       <c r="X44" t="s">
         <v>170</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>199</v>
       </c>
       <c r="AD44" t="s">
         <v>250</v>
@@ -20958,9 +20949,6 @@
       <c r="H45" t="s">
         <v>170</v>
       </c>
-      <c r="J45" t="s">
-        <v>199</v>
-      </c>
       <c r="K45" t="s">
         <v>171</v>
       </c>
@@ -20971,10 +20959,10 @@
         <v>434</v>
       </c>
       <c r="N45" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="O45" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="O45" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="V45" t="s">
         <v>84</v>
@@ -20984,6 +20972,9 @@
       </c>
       <c r="X45" t="s">
         <v>170</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>199</v>
       </c>
       <c r="AD45" t="s">
         <v>251</v>
@@ -21017,9 +21008,6 @@
       <c r="H46" t="s">
         <v>170</v>
       </c>
-      <c r="J46" t="s">
-        <v>199</v>
-      </c>
       <c r="K46" t="s">
         <v>171</v>
       </c>
@@ -21030,10 +21018,10 @@
         <v>434</v>
       </c>
       <c r="N46" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="O46" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="O46" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="V46" t="s">
         <v>85</v>
@@ -21043,6 +21031,9 @@
       </c>
       <c r="X46" t="s">
         <v>170</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>199</v>
       </c>
       <c r="AD46" t="s">
         <v>252</v>
@@ -21076,9 +21067,6 @@
       <c r="H47" t="s">
         <v>170</v>
       </c>
-      <c r="J47" t="s">
-        <v>199</v>
-      </c>
       <c r="K47" t="s">
         <v>171</v>
       </c>
@@ -21089,10 +21077,10 @@
         <v>434</v>
       </c>
       <c r="N47" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="O47" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="O47" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="V47" t="s">
         <v>86</v>
@@ -21102,6 +21090,9 @@
       </c>
       <c r="X47" t="s">
         <v>170</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>199</v>
       </c>
       <c r="AD47" t="s">
         <v>253</v>
@@ -21135,9 +21126,6 @@
       <c r="H48" t="s">
         <v>170</v>
       </c>
-      <c r="J48" t="s">
-        <v>199</v>
-      </c>
       <c r="K48" t="s">
         <v>171</v>
       </c>
@@ -21148,10 +21136,10 @@
         <v>434</v>
       </c>
       <c r="N48" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="O48" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="O48" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="V48" t="s">
         <v>87</v>
@@ -21161,6 +21149,9 @@
       </c>
       <c r="X48" t="s">
         <v>170</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>199</v>
       </c>
       <c r="AD48" t="s">
         <v>254</v>
@@ -21194,9 +21185,6 @@
       <c r="H49" t="s">
         <v>170</v>
       </c>
-      <c r="J49" t="s">
-        <v>199</v>
-      </c>
       <c r="K49" t="s">
         <v>172</v>
       </c>
@@ -21207,10 +21195,10 @@
         <v>434</v>
       </c>
       <c r="N49" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="O49" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="O49" s="7" t="s">
-        <v>443</v>
       </c>
       <c r="V49" t="s">
         <v>88</v>
@@ -21220,6 +21208,9 @@
       </c>
       <c r="X49" t="s">
         <v>170</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>199</v>
       </c>
       <c r="AD49" t="s">
         <v>255</v>
@@ -21259,11 +21250,8 @@
       <c r="I50" t="s">
         <v>194</v>
       </c>
-      <c r="J50" t="s">
-        <v>199</v>
-      </c>
       <c r="K50" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L50" t="s">
         <v>170</v>
@@ -21272,10 +21260,10 @@
         <v>435</v>
       </c>
       <c r="N50" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="V50" t="s">
         <v>89</v>
@@ -21285,6 +21273,9 @@
       </c>
       <c r="X50" t="s">
         <v>170</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>199</v>
       </c>
       <c r="AD50" t="s">
         <v>257</v>
@@ -21321,11 +21312,8 @@
       <c r="I51" t="s">
         <v>194</v>
       </c>
-      <c r="J51" t="s">
-        <v>199</v>
-      </c>
       <c r="K51" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L51" t="s">
         <v>170</v>
@@ -21334,10 +21322,10 @@
         <v>435</v>
       </c>
       <c r="N51" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="V51" t="s">
         <v>90</v>
@@ -21347,6 +21335,9 @@
       </c>
       <c r="X51" t="s">
         <v>170</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>199</v>
       </c>
       <c r="AD51" t="s">
         <v>259</v>
@@ -21377,11 +21368,8 @@
       <c r="H52" t="s">
         <v>170</v>
       </c>
-      <c r="J52" t="s">
-        <v>199</v>
-      </c>
       <c r="K52" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L52" t="s">
         <v>170</v>
@@ -21393,7 +21381,7 @@
         <v>200</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="V52" t="s">
         <v>91</v>
@@ -21403,6 +21391,9 @@
       </c>
       <c r="X52" t="s">
         <v>170</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>199</v>
       </c>
       <c r="AD52" t="s">
         <v>260</v>
@@ -21439,9 +21430,6 @@
       <c r="H53" t="s">
         <v>170</v>
       </c>
-      <c r="J53" t="s">
-        <v>199</v>
-      </c>
       <c r="K53" t="s">
         <v>415</v>
       </c>
@@ -21452,10 +21440,10 @@
         <v>435</v>
       </c>
       <c r="N53" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="O53" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="O53" s="7" t="s">
-        <v>447</v>
       </c>
       <c r="V53" t="s">
         <v>92</v>
@@ -21465,6 +21453,9 @@
       </c>
       <c r="X53" t="s">
         <v>170</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>199</v>
       </c>
       <c r="AD53" t="s">
         <v>262</v>
@@ -21504,11 +21495,8 @@
       <c r="I54" t="s">
         <v>194</v>
       </c>
-      <c r="J54" t="s">
-        <v>199</v>
-      </c>
       <c r="K54" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L54" t="s">
         <v>170</v>
@@ -21517,10 +21505,10 @@
         <v>435</v>
       </c>
       <c r="N54" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="V54" t="s">
         <v>93</v>
@@ -21530,6 +21518,9 @@
       </c>
       <c r="X54" t="s">
         <v>170</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>199</v>
       </c>
       <c r="AD54" t="s">
         <v>264</v>
@@ -21563,9 +21554,6 @@
       <c r="H55" t="s">
         <v>170</v>
       </c>
-      <c r="J55" t="s">
-        <v>199</v>
-      </c>
       <c r="K55" t="s">
         <v>173</v>
       </c>
@@ -21576,10 +21564,10 @@
         <v>435</v>
       </c>
       <c r="N55" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="O55" s="12" t="s">
         <v>448</v>
-      </c>
-      <c r="O55" s="12" t="s">
-        <v>449</v>
       </c>
       <c r="V55" t="s">
         <v>94</v>
@@ -21589,6 +21577,9 @@
       </c>
       <c r="X55" t="s">
         <v>170</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>199</v>
       </c>
       <c r="AD55" t="s">
         <v>266</v>
@@ -21625,9 +21616,6 @@
       <c r="H56" t="s">
         <v>170</v>
       </c>
-      <c r="J56" t="s">
-        <v>199</v>
-      </c>
       <c r="K56" t="s">
         <v>173</v>
       </c>
@@ -21638,10 +21626,10 @@
         <v>435</v>
       </c>
       <c r="N56" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="O56" s="12" t="s">
         <v>448</v>
-      </c>
-      <c r="O56" s="12" t="s">
-        <v>449</v>
       </c>
       <c r="V56" t="s">
         <v>95</v>
@@ -21651,6 +21639,9 @@
       </c>
       <c r="X56" t="s">
         <v>170</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>199</v>
       </c>
       <c r="AD56" t="s">
         <v>268</v>
@@ -21687,9 +21678,6 @@
       <c r="H57" t="s">
         <v>170</v>
       </c>
-      <c r="J57" t="s">
-        <v>199</v>
-      </c>
       <c r="K57" t="s">
         <v>174</v>
       </c>
@@ -21703,7 +21691,7 @@
         <v>201</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="V57" t="s">
         <v>96</v>
@@ -21713,6 +21701,9 @@
       </c>
       <c r="X57" t="s">
         <v>170</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>199</v>
       </c>
       <c r="AD57" t="s">
         <v>270</v>
@@ -21752,11 +21743,8 @@
       <c r="I58" t="s">
         <v>194</v>
       </c>
-      <c r="J58" t="s">
-        <v>199</v>
-      </c>
       <c r="K58" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L58" t="s">
         <v>170</v>
@@ -21765,10 +21753,10 @@
         <v>435</v>
       </c>
       <c r="N58" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="V58" t="s">
         <v>97</v>
@@ -21778,6 +21766,9 @@
       </c>
       <c r="X58" t="s">
         <v>170</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>199</v>
       </c>
       <c r="AD58" t="s">
         <v>272</v>
@@ -21817,11 +21808,8 @@
       <c r="I59" t="s">
         <v>194</v>
       </c>
-      <c r="J59" t="s">
-        <v>199</v>
-      </c>
       <c r="K59" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L59" t="s">
         <v>170</v>
@@ -21830,10 +21818,10 @@
         <v>435</v>
       </c>
       <c r="N59" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="V59" t="s">
         <v>98</v>
@@ -21843,6 +21831,9 @@
       </c>
       <c r="X59" t="s">
         <v>170</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>199</v>
       </c>
       <c r="AD59" t="s">
         <v>275</v>
@@ -21876,11 +21867,8 @@
       <c r="H60" t="s">
         <v>170</v>
       </c>
-      <c r="J60" t="s">
-        <v>199</v>
-      </c>
       <c r="K60" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="L60" t="s">
         <v>170</v>
@@ -21889,10 +21877,10 @@
         <v>434</v>
       </c>
       <c r="N60" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="O60" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="O60" s="7" t="s">
-        <v>451</v>
       </c>
       <c r="V60" t="s">
         <v>99</v>
@@ -21902,6 +21890,9 @@
       </c>
       <c r="X60" t="s">
         <v>170</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>199</v>
       </c>
       <c r="AD60" t="s">
         <v>277</v>
@@ -21938,9 +21929,6 @@
       <c r="H61" t="s">
         <v>170</v>
       </c>
-      <c r="J61" t="s">
-        <v>199</v>
-      </c>
       <c r="K61" t="s">
         <v>175</v>
       </c>
@@ -21951,10 +21939,10 @@
         <v>434</v>
       </c>
       <c r="N61" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="O61" s="12" t="s">
         <v>452</v>
-      </c>
-      <c r="O61" s="12" t="s">
-        <v>453</v>
       </c>
       <c r="V61" t="s">
         <v>100</v>
@@ -21964,6 +21952,9 @@
       </c>
       <c r="X61" t="s">
         <v>170</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>199</v>
       </c>
       <c r="AD61" t="s">
         <v>279</v>
@@ -21997,9 +21988,6 @@
       <c r="H62" t="s">
         <v>170</v>
       </c>
-      <c r="J62" t="s">
-        <v>199</v>
-      </c>
       <c r="K62" t="s">
         <v>175</v>
       </c>
@@ -22010,10 +21998,10 @@
         <v>434</v>
       </c>
       <c r="N62" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="O62" s="12" t="s">
         <v>452</v>
-      </c>
-      <c r="O62" s="12" t="s">
-        <v>453</v>
       </c>
       <c r="V62" t="s">
         <v>101</v>
@@ -22023,6 +22011,9 @@
       </c>
       <c r="X62" t="s">
         <v>170</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>199</v>
       </c>
       <c r="AD62" t="s">
         <v>280</v>
@@ -22059,9 +22050,6 @@
       <c r="H63" t="s">
         <v>170</v>
       </c>
-      <c r="J63" t="s">
-        <v>199</v>
-      </c>
       <c r="K63" t="s">
         <v>175</v>
       </c>
@@ -22072,10 +22060,10 @@
         <v>434</v>
       </c>
       <c r="N63" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="O63" s="12" t="s">
         <v>452</v>
-      </c>
-      <c r="O63" s="12" t="s">
-        <v>453</v>
       </c>
       <c r="V63" t="s">
         <v>102</v>
@@ -22085,6 +22073,9 @@
       </c>
       <c r="X63" t="s">
         <v>170</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>199</v>
       </c>
       <c r="AD63" t="s">
         <v>282</v>
@@ -22121,9 +22112,6 @@
       <c r="I64" t="s">
         <v>195</v>
       </c>
-      <c r="J64" t="s">
-        <v>199</v>
-      </c>
       <c r="K64" t="s">
         <v>176</v>
       </c>
@@ -22134,10 +22122,10 @@
         <v>435</v>
       </c>
       <c r="N64" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="V64" t="s">
         <v>103</v>
@@ -22147,6 +22135,9 @@
       </c>
       <c r="X64" t="s">
         <v>170</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>199</v>
       </c>
       <c r="AD64" t="s">
         <v>283</v>
@@ -22183,9 +22174,6 @@
       <c r="I65" t="s">
         <v>195</v>
       </c>
-      <c r="J65" t="s">
-        <v>199</v>
-      </c>
       <c r="K65" t="s">
         <v>176</v>
       </c>
@@ -22196,10 +22184,10 @@
         <v>435</v>
       </c>
       <c r="N65" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="V65" t="s">
         <v>104</v>
@@ -22209,6 +22197,9 @@
       </c>
       <c r="X65" t="s">
         <v>170</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>199</v>
       </c>
       <c r="AD65" t="s">
         <v>283</v>
@@ -22245,9 +22236,6 @@
       <c r="I66" t="s">
         <v>195</v>
       </c>
-      <c r="J66" t="s">
-        <v>199</v>
-      </c>
       <c r="K66" t="s">
         <v>176</v>
       </c>
@@ -22258,10 +22246,10 @@
         <v>435</v>
       </c>
       <c r="N66" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="V66" t="s">
         <v>105</v>
@@ -22271,6 +22259,9 @@
       </c>
       <c r="X66" t="s">
         <v>170</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>199</v>
       </c>
       <c r="AD66" t="s">
         <v>286</v>
@@ -22307,9 +22298,6 @@
       <c r="I67" t="s">
         <v>196</v>
       </c>
-      <c r="J67" t="s">
-        <v>199</v>
-      </c>
       <c r="K67" t="s">
         <v>177</v>
       </c>
@@ -22320,10 +22308,10 @@
         <v>435</v>
       </c>
       <c r="N67" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="V67" t="s">
         <v>106</v>
@@ -22334,6 +22322,9 @@
       <c r="X67" t="s">
         <v>170</v>
       </c>
+      <c r="AB67" t="s">
+        <v>199</v>
+      </c>
       <c r="AD67" t="s">
         <v>288</v>
       </c>
@@ -22344,7 +22335,7 @@
         <v>289</v>
       </c>
       <c r="AI67" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AJ67" t="s">
         <v>427</v>
@@ -22372,9 +22363,6 @@
       <c r="I68" t="s">
         <v>196</v>
       </c>
-      <c r="J68" t="s">
-        <v>199</v>
-      </c>
       <c r="K68" t="s">
         <v>177</v>
       </c>
@@ -22385,10 +22373,10 @@
         <v>435</v>
       </c>
       <c r="N68" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="V68" t="s">
         <v>107</v>
@@ -22399,6 +22387,9 @@
       <c r="X68" t="s">
         <v>170</v>
       </c>
+      <c r="AB68" t="s">
+        <v>199</v>
+      </c>
       <c r="AD68" t="s">
         <v>290</v>
       </c>
@@ -22409,7 +22400,7 @@
         <v>291</v>
       </c>
       <c r="AI68" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AJ68" t="s">
         <v>427</v>
@@ -22428,9 +22419,6 @@
       <c r="E69">
         <v>303</v>
       </c>
-      <c r="J69" t="s">
-        <v>199</v>
-      </c>
       <c r="K69" t="s">
         <v>177</v>
       </c>
@@ -22441,13 +22429,13 @@
         <v>435</v>
       </c>
       <c r="N69" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="V69" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="W69" t="s">
         <v>432</v>
@@ -22455,8 +22443,8 @@
       <c r="X69" t="s">
         <v>170</v>
       </c>
-      <c r="AA69" t="s">
-        <v>438</v>
+      <c r="AB69" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="70" spans="2:36" x14ac:dyDescent="0.2">
@@ -22472,9 +22460,6 @@
       <c r="E70">
         <v>304</v>
       </c>
-      <c r="J70" t="s">
-        <v>199</v>
-      </c>
       <c r="K70" t="s">
         <v>177</v>
       </c>
@@ -22485,13 +22470,13 @@
         <v>435</v>
       </c>
       <c r="N70" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="V70" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="W70" t="s">
         <v>432</v>
@@ -22499,8 +22484,8 @@
       <c r="X70" t="s">
         <v>170</v>
       </c>
-      <c r="AA70" t="s">
-        <v>438</v>
+      <c r="AB70" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="71" spans="2:36" x14ac:dyDescent="0.2">
@@ -22516,9 +22501,6 @@
       <c r="E71">
         <v>304</v>
       </c>
-      <c r="J71" t="s">
-        <v>199</v>
-      </c>
       <c r="K71" t="s">
         <v>177</v>
       </c>
@@ -22529,13 +22511,13 @@
         <v>435</v>
       </c>
       <c r="N71" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="V71" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="W71" t="s">
         <v>432</v>
@@ -22543,8 +22525,8 @@
       <c r="X71" t="s">
         <v>170</v>
       </c>
-      <c r="AA71" t="s">
-        <v>438</v>
+      <c r="AB71" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="72" spans="2:36" x14ac:dyDescent="0.2">
@@ -22560,9 +22542,6 @@
       <c r="E72">
         <v>305</v>
       </c>
-      <c r="J72" t="s">
-        <v>199</v>
-      </c>
       <c r="K72" t="s">
         <v>177</v>
       </c>
@@ -22573,13 +22552,13 @@
         <v>435</v>
       </c>
       <c r="N72" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="V72" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="W72" t="s">
         <v>432</v>
@@ -22587,8 +22566,8 @@
       <c r="X72" t="s">
         <v>170</v>
       </c>
-      <c r="AA72" t="s">
-        <v>438</v>
+      <c r="AB72" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="73" spans="2:36" x14ac:dyDescent="0.2">
@@ -22604,9 +22583,6 @@
       <c r="E73">
         <v>306</v>
       </c>
-      <c r="J73" t="s">
-        <v>199</v>
-      </c>
       <c r="K73" t="s">
         <v>177</v>
       </c>
@@ -22617,13 +22593,13 @@
         <v>435</v>
       </c>
       <c r="N73" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="V73" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="W73" t="s">
         <v>432</v>
@@ -22631,8 +22607,8 @@
       <c r="X73" t="s">
         <v>170</v>
       </c>
-      <c r="AA73" t="s">
-        <v>438</v>
+      <c r="AB73" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="74" spans="2:36" x14ac:dyDescent="0.2">
@@ -22648,9 +22624,6 @@
       <c r="E74">
         <v>306</v>
       </c>
-      <c r="J74" t="s">
-        <v>199</v>
-      </c>
       <c r="K74" t="s">
         <v>177</v>
       </c>
@@ -22661,13 +22634,13 @@
         <v>435</v>
       </c>
       <c r="N74" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="V74" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="W74" t="s">
         <v>432</v>
@@ -22675,8 +22648,8 @@
       <c r="X74" t="s">
         <v>170</v>
       </c>
-      <c r="AA74" t="s">
-        <v>438</v>
+      <c r="AB74" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="75" spans="2:36" x14ac:dyDescent="0.2">
@@ -22701,9 +22674,6 @@
       <c r="I75" t="s">
         <v>196</v>
       </c>
-      <c r="J75" t="s">
-        <v>199</v>
-      </c>
       <c r="K75" t="s">
         <v>177</v>
       </c>
@@ -22714,10 +22684,10 @@
         <v>435</v>
       </c>
       <c r="N75" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="V75" t="s">
         <v>108</v>
@@ -22728,6 +22698,9 @@
       <c r="X75" t="s">
         <v>170</v>
       </c>
+      <c r="AB75" t="s">
+        <v>199</v>
+      </c>
       <c r="AD75" t="s">
         <v>288</v>
       </c>
@@ -22738,7 +22711,7 @@
         <v>292</v>
       </c>
       <c r="AI75" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AJ75" t="s">
         <v>427</v>
@@ -22766,9 +22739,6 @@
       <c r="I76" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="J76" t="s">
-        <v>199</v>
-      </c>
       <c r="K76" t="s">
         <v>177</v>
       </c>
@@ -22779,10 +22749,10 @@
         <v>435</v>
       </c>
       <c r="N76" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="V76" t="s">
         <v>109</v>
@@ -22793,6 +22763,9 @@
       <c r="X76" t="s">
         <v>170</v>
       </c>
+      <c r="AB76" t="s">
+        <v>199</v>
+      </c>
       <c r="AD76" t="s">
         <v>288</v>
       </c>
@@ -22803,7 +22776,7 @@
         <v>293</v>
       </c>
       <c r="AI76" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AJ76" t="s">
         <v>427</v>
@@ -22829,9 +22802,6 @@
         <v>170</v>
       </c>
       <c r="I77" s="6"/>
-      <c r="J77" t="s">
-        <v>199</v>
-      </c>
       <c r="K77" t="s">
         <v>178</v>
       </c>
@@ -22845,7 +22815,7 @@
         <v>202</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="V77" t="s">
         <v>110</v>
@@ -22855,6 +22825,9 @@
       </c>
       <c r="X77" t="s">
         <v>170</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>199</v>
       </c>
       <c r="AD77" t="s">
         <v>294</v>
@@ -22895,9 +22868,6 @@
         <v>170</v>
       </c>
       <c r="I78" s="6"/>
-      <c r="J78" t="s">
-        <v>199</v>
-      </c>
       <c r="K78" t="s">
         <v>179</v>
       </c>
@@ -22911,7 +22881,7 @@
         <v>203</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="V78" t="s">
         <v>111</v>
@@ -22921,6 +22891,9 @@
       </c>
       <c r="X78" t="s">
         <v>170</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>199</v>
       </c>
       <c r="AD78" t="s">
         <v>297</v>
@@ -22952,9 +22925,6 @@
         <v>170</v>
       </c>
       <c r="I79" s="6"/>
-      <c r="J79" t="s">
-        <v>199</v>
-      </c>
       <c r="K79" t="s">
         <v>179</v>
       </c>
@@ -22968,7 +22938,7 @@
         <v>203</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="V79" t="s">
         <v>112</v>
@@ -22978,6 +22948,9 @@
       </c>
       <c r="X79" t="s">
         <v>170</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>199</v>
       </c>
       <c r="AD79" t="s">
         <v>275</v>
@@ -23017,9 +22990,6 @@
       <c r="H80" t="s">
         <v>170</v>
       </c>
-      <c r="J80" t="s">
-        <v>199</v>
-      </c>
       <c r="K80" t="s">
         <v>179</v>
       </c>
@@ -23033,7 +23003,7 @@
         <v>203</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="V80" t="s">
         <v>113</v>
@@ -23043,6 +23013,9 @@
       </c>
       <c r="X80" t="s">
         <v>170</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>199</v>
       </c>
       <c r="AD80" t="s">
         <v>300</v>
@@ -23076,9 +23049,6 @@
       <c r="H81" t="s">
         <v>170</v>
       </c>
-      <c r="J81" t="s">
-        <v>199</v>
-      </c>
       <c r="K81" t="s">
         <v>180</v>
       </c>
@@ -23092,7 +23062,7 @@
         <v>203</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="V81" t="s">
         <v>114</v>
@@ -23102,6 +23072,9 @@
       </c>
       <c r="X81" t="s">
         <v>170</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>199</v>
       </c>
       <c r="AD81" t="s">
         <v>301</v>
@@ -23135,9 +23108,6 @@
       <c r="H82" t="s">
         <v>170</v>
       </c>
-      <c r="J82" t="s">
-        <v>199</v>
-      </c>
       <c r="K82" t="s">
         <v>181</v>
       </c>
@@ -23148,10 +23118,10 @@
         <v>435</v>
       </c>
       <c r="N82" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="O82" s="12" t="s">
         <v>464</v>
-      </c>
-      <c r="O82" s="12" t="s">
-        <v>465</v>
       </c>
       <c r="V82" t="s">
         <v>115</v>
@@ -23161,6 +23131,9 @@
       </c>
       <c r="X82" t="s">
         <v>170</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>199</v>
       </c>
       <c r="AD82" t="s">
         <v>303</v>
@@ -23194,9 +23167,6 @@
       <c r="H83" t="s">
         <v>170</v>
       </c>
-      <c r="J83" t="s">
-        <v>199</v>
-      </c>
       <c r="K83" t="s">
         <v>181</v>
       </c>
@@ -23207,10 +23177,10 @@
         <v>435</v>
       </c>
       <c r="N83" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="O83" s="12" t="s">
         <v>464</v>
-      </c>
-      <c r="O83" s="12" t="s">
-        <v>465</v>
       </c>
       <c r="V83" t="s">
         <v>116</v>
@@ -23220,6 +23190,9 @@
       </c>
       <c r="X83" t="s">
         <v>170</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>199</v>
       </c>
       <c r="AD83" t="s">
         <v>304</v>
@@ -23253,9 +23226,6 @@
       <c r="H84" t="s">
         <v>170</v>
       </c>
-      <c r="J84" t="s">
-        <v>199</v>
-      </c>
       <c r="K84" t="s">
         <v>181</v>
       </c>
@@ -23266,10 +23236,10 @@
         <v>435</v>
       </c>
       <c r="N84" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="O84" s="12" t="s">
         <v>464</v>
-      </c>
-      <c r="O84" s="12" t="s">
-        <v>465</v>
       </c>
       <c r="V84" t="s">
         <v>117</v>
@@ -23279,6 +23249,9 @@
       </c>
       <c r="X84" t="s">
         <v>170</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>199</v>
       </c>
       <c r="AD84" t="s">
         <v>305</v>
@@ -23315,9 +23288,6 @@
       <c r="H85" t="s">
         <v>170</v>
       </c>
-      <c r="J85" t="s">
-        <v>199</v>
-      </c>
       <c r="K85" t="s">
         <v>181</v>
       </c>
@@ -23328,10 +23298,10 @@
         <v>435</v>
       </c>
       <c r="N85" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="O85" s="12" t="s">
         <v>464</v>
-      </c>
-      <c r="O85" s="12" t="s">
-        <v>465</v>
       </c>
       <c r="V85" t="s">
         <v>118</v>
@@ -23341,6 +23311,9 @@
       </c>
       <c r="X85" t="s">
         <v>170</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>199</v>
       </c>
       <c r="AD85" t="s">
         <v>307</v>
@@ -23371,9 +23344,6 @@
       <c r="H86" t="s">
         <v>170</v>
       </c>
-      <c r="J86" t="s">
-        <v>199</v>
-      </c>
       <c r="K86" t="s">
         <v>181</v>
       </c>
@@ -23384,10 +23354,10 @@
         <v>435</v>
       </c>
       <c r="N86" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="O86" s="12" t="s">
         <v>464</v>
-      </c>
-      <c r="O86" s="12" t="s">
-        <v>465</v>
       </c>
       <c r="V86" t="s">
         <v>119</v>
@@ -23397,6 +23367,9 @@
       </c>
       <c r="X86" t="s">
         <v>170</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>199</v>
       </c>
       <c r="AD86" t="s">
         <v>308</v>
@@ -23433,9 +23406,6 @@
       <c r="H87" t="s">
         <v>170</v>
       </c>
-      <c r="J87" t="s">
-        <v>199</v>
-      </c>
       <c r="K87" t="s">
         <v>181</v>
       </c>
@@ -23446,10 +23416,10 @@
         <v>435</v>
       </c>
       <c r="N87" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="O87" s="12" t="s">
         <v>464</v>
-      </c>
-      <c r="O87" s="12" t="s">
-        <v>465</v>
       </c>
       <c r="V87" t="s">
         <v>120</v>
@@ -23459,6 +23429,9 @@
       </c>
       <c r="X87" t="s">
         <v>170</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>199</v>
       </c>
       <c r="AD87" t="s">
         <v>310</v>
@@ -23495,9 +23468,6 @@
       <c r="H88" t="s">
         <v>170</v>
       </c>
-      <c r="J88" t="s">
-        <v>199</v>
-      </c>
       <c r="K88" t="s">
         <v>181</v>
       </c>
@@ -23508,10 +23478,10 @@
         <v>435</v>
       </c>
       <c r="N88" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="O88" s="12" t="s">
         <v>464</v>
-      </c>
-      <c r="O88" s="12" t="s">
-        <v>465</v>
       </c>
       <c r="V88" t="s">
         <v>121</v>
@@ -23521,6 +23491,9 @@
       </c>
       <c r="X88" t="s">
         <v>170</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>199</v>
       </c>
       <c r="AD88" t="s">
         <v>312</v>
@@ -23560,9 +23533,6 @@
       <c r="H89" t="s">
         <v>170</v>
       </c>
-      <c r="J89" t="s">
-        <v>199</v>
-      </c>
       <c r="K89" t="s">
         <v>181</v>
       </c>
@@ -23573,10 +23543,10 @@
         <v>435</v>
       </c>
       <c r="N89" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="O89" s="12" t="s">
         <v>464</v>
-      </c>
-      <c r="O89" s="12" t="s">
-        <v>465</v>
       </c>
       <c r="V89" t="s">
         <v>122</v>
@@ -23586,6 +23556,9 @@
       </c>
       <c r="X89" t="s">
         <v>170</v>
+      </c>
+      <c r="AB89" t="s">
+        <v>199</v>
       </c>
       <c r="AD89" t="s">
         <v>315</v>
@@ -23622,9 +23595,6 @@
       <c r="H90" t="s">
         <v>170</v>
       </c>
-      <c r="J90" t="s">
-        <v>199</v>
-      </c>
       <c r="K90" t="s">
         <v>181</v>
       </c>
@@ -23635,10 +23605,10 @@
         <v>435</v>
       </c>
       <c r="N90" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="O90" s="12" t="s">
         <v>464</v>
-      </c>
-      <c r="O90" s="12" t="s">
-        <v>465</v>
       </c>
       <c r="V90" t="s">
         <v>123</v>
@@ -23648,6 +23618,9 @@
       </c>
       <c r="X90" t="s">
         <v>170</v>
+      </c>
+      <c r="AB90" t="s">
+        <v>199</v>
       </c>
       <c r="AD90" t="s">
         <v>317</v>
@@ -23678,9 +23651,6 @@
       <c r="H91" t="s">
         <v>170</v>
       </c>
-      <c r="J91" t="s">
-        <v>199</v>
-      </c>
       <c r="K91" t="s">
         <v>181</v>
       </c>
@@ -23691,10 +23661,10 @@
         <v>435</v>
       </c>
       <c r="N91" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="O91" s="12" t="s">
         <v>464</v>
-      </c>
-      <c r="O91" s="12" t="s">
-        <v>465</v>
       </c>
       <c r="V91" t="s">
         <v>124</v>
@@ -23704,6 +23674,9 @@
       </c>
       <c r="X91" t="s">
         <v>170</v>
+      </c>
+      <c r="AB91" t="s">
+        <v>199</v>
       </c>
       <c r="AD91" t="s">
         <v>318</v>
@@ -23740,9 +23713,6 @@
       <c r="H92" t="s">
         <v>170</v>
       </c>
-      <c r="J92" t="s">
-        <v>199</v>
-      </c>
       <c r="K92" t="s">
         <v>182</v>
       </c>
@@ -23753,10 +23723,10 @@
         <v>435</v>
       </c>
       <c r="N92" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="O92" s="12" t="s">
         <v>464</v>
-      </c>
-      <c r="O92" s="12" t="s">
-        <v>465</v>
       </c>
       <c r="V92" t="s">
         <v>125</v>
@@ -23766,6 +23736,9 @@
       </c>
       <c r="X92" t="s">
         <v>170</v>
+      </c>
+      <c r="AB92" t="s">
+        <v>199</v>
       </c>
       <c r="AD92" t="s">
         <v>320</v>
@@ -23805,9 +23778,6 @@
       <c r="H93" t="s">
         <v>170</v>
       </c>
-      <c r="J93" t="s">
-        <v>199</v>
-      </c>
       <c r="K93" t="s">
         <v>181</v>
       </c>
@@ -23818,10 +23788,10 @@
         <v>435</v>
       </c>
       <c r="N93" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="O93" s="12" t="s">
         <v>464</v>
-      </c>
-      <c r="O93" s="12" t="s">
-        <v>465</v>
       </c>
       <c r="V93" t="s">
         <v>126</v>
@@ -23831,6 +23801,9 @@
       </c>
       <c r="X93" t="s">
         <v>170</v>
+      </c>
+      <c r="AB93" t="s">
+        <v>199</v>
       </c>
       <c r="AD93" t="s">
         <v>275</v>
@@ -23864,9 +23837,6 @@
       <c r="H94" t="s">
         <v>170</v>
       </c>
-      <c r="J94" t="s">
-        <v>199</v>
-      </c>
       <c r="K94" t="s">
         <v>181</v>
       </c>
@@ -23877,10 +23847,10 @@
         <v>435</v>
       </c>
       <c r="N94" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="O94" s="12" t="s">
         <v>464</v>
-      </c>
-      <c r="O94" s="12" t="s">
-        <v>465</v>
       </c>
       <c r="V94" t="s">
         <v>127</v>
@@ -23890,6 +23860,9 @@
       </c>
       <c r="X94" t="s">
         <v>170</v>
+      </c>
+      <c r="AB94" t="s">
+        <v>199</v>
       </c>
       <c r="AD94" t="s">
         <v>324</v>
@@ -23926,9 +23899,6 @@
       <c r="H95" t="s">
         <v>170</v>
       </c>
-      <c r="J95" t="s">
-        <v>199</v>
-      </c>
       <c r="K95" t="s">
         <v>183</v>
       </c>
@@ -23942,7 +23912,7 @@
         <v>204</v>
       </c>
       <c r="O95" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="V95" t="s">
         <v>128</v>
@@ -23952,6 +23922,9 @@
       </c>
       <c r="X95" t="s">
         <v>170</v>
+      </c>
+      <c r="AB95" t="s">
+        <v>199</v>
       </c>
       <c r="AD95" t="s">
         <v>325</v>
@@ -23988,9 +23961,6 @@
       <c r="E96">
         <v>333</v>
       </c>
-      <c r="J96" t="s">
-        <v>199</v>
-      </c>
       <c r="K96" t="s">
         <v>183</v>
       </c>
@@ -24004,7 +23974,7 @@
         <v>204</v>
       </c>
       <c r="O96" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="V96" t="s">
         <v>326</v>
@@ -24015,8 +23985,8 @@
       <c r="X96" t="s">
         <v>170</v>
       </c>
-      <c r="AA96" t="s">
-        <v>438</v>
+      <c r="AB96" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="97" spans="2:36" x14ac:dyDescent="0.2">
@@ -24032,9 +24002,6 @@
       <c r="E97">
         <v>334</v>
       </c>
-      <c r="J97" t="s">
-        <v>199</v>
-      </c>
       <c r="K97" t="s">
         <v>183</v>
       </c>
@@ -24048,10 +24015,10 @@
         <v>204</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="V97" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="W97" t="s">
         <v>432</v>
@@ -24059,8 +24026,8 @@
       <c r="X97" t="s">
         <v>170</v>
       </c>
-      <c r="AA97" t="s">
-        <v>438</v>
+      <c r="AB97" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="98" spans="2:36" x14ac:dyDescent="0.2">
@@ -24082,9 +24049,6 @@
       <c r="H98" t="s">
         <v>170</v>
       </c>
-      <c r="J98" t="s">
-        <v>199</v>
-      </c>
       <c r="K98" t="s">
         <v>182</v>
       </c>
@@ -24095,10 +24059,10 @@
         <v>435</v>
       </c>
       <c r="N98" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="O98" s="12" t="s">
         <v>464</v>
-      </c>
-      <c r="O98" s="12" t="s">
-        <v>465</v>
       </c>
       <c r="V98" t="s">
         <v>129</v>
@@ -24108,6 +24072,9 @@
       </c>
       <c r="X98" t="s">
         <v>170</v>
+      </c>
+      <c r="AB98" t="s">
+        <v>199</v>
       </c>
       <c r="AD98" t="s">
         <v>329</v>
@@ -24141,9 +24108,6 @@
       <c r="H99" t="s">
         <v>170</v>
       </c>
-      <c r="J99" t="s">
-        <v>199</v>
-      </c>
       <c r="K99" t="s">
         <v>181</v>
       </c>
@@ -24154,10 +24118,10 @@
         <v>435</v>
       </c>
       <c r="N99" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="O99" s="12" t="s">
         <v>464</v>
-      </c>
-      <c r="O99" s="12" t="s">
-        <v>465</v>
       </c>
       <c r="V99" t="s">
         <v>130</v>
@@ -24167,6 +24131,9 @@
       </c>
       <c r="X99" t="s">
         <v>170</v>
+      </c>
+      <c r="AB99" t="s">
+        <v>199</v>
       </c>
       <c r="AD99" t="s">
         <v>331</v>
@@ -24200,9 +24167,6 @@
       <c r="H100" t="s">
         <v>170</v>
       </c>
-      <c r="J100" t="s">
-        <v>199</v>
-      </c>
       <c r="K100" t="s">
         <v>184</v>
       </c>
@@ -24213,10 +24177,10 @@
         <v>435</v>
       </c>
       <c r="N100" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O100" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="V100" t="s">
         <v>131</v>
@@ -24226,6 +24190,9 @@
       </c>
       <c r="X100" t="s">
         <v>170</v>
+      </c>
+      <c r="AB100" t="s">
+        <v>199</v>
       </c>
       <c r="AD100" t="s">
         <v>332</v>
@@ -24262,9 +24229,6 @@
       <c r="H101" t="s">
         <v>170</v>
       </c>
-      <c r="J101" t="s">
-        <v>199</v>
-      </c>
       <c r="K101" t="s">
         <v>184</v>
       </c>
@@ -24275,10 +24239,10 @@
         <v>435</v>
       </c>
       <c r="N101" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O101" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="V101" t="s">
         <v>132</v>
@@ -24288,6 +24252,9 @@
       </c>
       <c r="X101" t="s">
         <v>170</v>
+      </c>
+      <c r="AB101" t="s">
+        <v>199</v>
       </c>
       <c r="AD101" t="s">
         <v>330</v>
@@ -24330,9 +24297,6 @@
       <c r="H102" t="s">
         <v>170</v>
       </c>
-      <c r="J102" t="s">
-        <v>199</v>
-      </c>
       <c r="K102" t="s">
         <v>184</v>
       </c>
@@ -24343,10 +24307,10 @@
         <v>435</v>
       </c>
       <c r="N102" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O102" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="V102" t="s">
         <v>133</v>
@@ -24356,6 +24320,9 @@
       </c>
       <c r="X102" t="s">
         <v>170</v>
+      </c>
+      <c r="AB102" t="s">
+        <v>199</v>
       </c>
       <c r="AD102" t="s">
         <v>337</v>
@@ -24395,9 +24362,6 @@
       <c r="H103" t="s">
         <v>170</v>
       </c>
-      <c r="J103" t="s">
-        <v>199</v>
-      </c>
       <c r="K103" t="s">
         <v>184</v>
       </c>
@@ -24408,10 +24372,10 @@
         <v>435</v>
       </c>
       <c r="N103" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O103" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="V103" t="s">
         <v>134</v>
@@ -24421,6 +24385,9 @@
       </c>
       <c r="X103" t="s">
         <v>170</v>
+      </c>
+      <c r="AB103" t="s">
+        <v>199</v>
       </c>
       <c r="AD103" t="s">
         <v>340</v>
@@ -24457,9 +24424,6 @@
       <c r="H104" t="s">
         <v>170</v>
       </c>
-      <c r="J104" t="s">
-        <v>199</v>
-      </c>
       <c r="K104" t="s">
         <v>184</v>
       </c>
@@ -24470,10 +24434,10 @@
         <v>435</v>
       </c>
       <c r="N104" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O104" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="V104" t="s">
         <v>135</v>
@@ -24483,6 +24447,9 @@
       </c>
       <c r="X104" t="s">
         <v>170</v>
+      </c>
+      <c r="AB104" t="s">
+        <v>199</v>
       </c>
       <c r="AD104" t="s">
         <v>342</v>
@@ -24519,9 +24486,6 @@
       <c r="H105" t="s">
         <v>170</v>
       </c>
-      <c r="J105" t="s">
-        <v>199</v>
-      </c>
       <c r="K105" t="s">
         <v>184</v>
       </c>
@@ -24532,10 +24496,10 @@
         <v>435</v>
       </c>
       <c r="N105" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O105" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="V105" t="s">
         <v>136</v>
@@ -24545,6 +24509,9 @@
       </c>
       <c r="X105" t="s">
         <v>170</v>
+      </c>
+      <c r="AB105" t="s">
+        <v>199</v>
       </c>
       <c r="AD105" t="s">
         <v>340</v>
@@ -24575,9 +24542,6 @@
       <c r="E106">
         <v>342</v>
       </c>
-      <c r="J106" t="s">
-        <v>199</v>
-      </c>
       <c r="K106" t="s">
         <v>184</v>
       </c>
@@ -24588,13 +24552,13 @@
         <v>435</v>
       </c>
       <c r="N106" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O106" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="V106" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="W106" t="s">
         <v>432</v>
@@ -24602,8 +24566,8 @@
       <c r="X106" t="s">
         <v>170</v>
       </c>
-      <c r="AA106" t="s">
-        <v>438</v>
+      <c r="AB106" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="107" spans="2:36" x14ac:dyDescent="0.2">
@@ -24619,9 +24583,6 @@
       <c r="E107">
         <v>341</v>
       </c>
-      <c r="J107" t="s">
-        <v>199</v>
-      </c>
       <c r="K107" t="s">
         <v>184</v>
       </c>
@@ -24632,13 +24593,13 @@
         <v>435</v>
       </c>
       <c r="N107" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O107" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="V107" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="W107" t="s">
         <v>433</v>
@@ -24646,8 +24607,8 @@
       <c r="X107" t="s">
         <v>170</v>
       </c>
-      <c r="AA107" t="s">
-        <v>438</v>
+      <c r="AB107" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="108" spans="2:36" x14ac:dyDescent="0.2">
@@ -24663,9 +24624,6 @@
       <c r="E108">
         <v>342</v>
       </c>
-      <c r="J108" t="s">
-        <v>199</v>
-      </c>
       <c r="K108" t="s">
         <v>184</v>
       </c>
@@ -24676,13 +24634,13 @@
         <v>435</v>
       </c>
       <c r="N108" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O108" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="V108" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="W108" t="s">
         <v>433</v>
@@ -24690,8 +24648,8 @@
       <c r="X108" t="s">
         <v>170</v>
       </c>
-      <c r="AA108" t="s">
-        <v>438</v>
+      <c r="AB108" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="109" spans="2:36" x14ac:dyDescent="0.2">
@@ -24707,9 +24665,6 @@
       <c r="E109">
         <v>343</v>
       </c>
-      <c r="J109" t="s">
-        <v>199</v>
-      </c>
       <c r="K109" t="s">
         <v>184</v>
       </c>
@@ -24720,13 +24675,13 @@
         <v>435</v>
       </c>
       <c r="N109" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O109" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="V109" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="W109" t="s">
         <v>432</v>
@@ -24734,8 +24689,8 @@
       <c r="X109" t="s">
         <v>170</v>
       </c>
-      <c r="AA109" t="s">
-        <v>438</v>
+      <c r="AB109" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="110" spans="2:36" x14ac:dyDescent="0.2">
@@ -24751,9 +24706,6 @@
       <c r="E110">
         <v>342</v>
       </c>
-      <c r="J110" t="s">
-        <v>199</v>
-      </c>
       <c r="K110" t="s">
         <v>184</v>
       </c>
@@ -24764,13 +24716,13 @@
         <v>435</v>
       </c>
       <c r="N110" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O110" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="V110" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="W110" t="s">
         <v>433</v>
@@ -24778,8 +24730,8 @@
       <c r="X110" t="s">
         <v>170</v>
       </c>
-      <c r="AA110" t="s">
-        <v>438</v>
+      <c r="AB110" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="111" spans="2:36" x14ac:dyDescent="0.2">
@@ -24795,9 +24747,6 @@
       <c r="E111">
         <v>343</v>
       </c>
-      <c r="J111" t="s">
-        <v>199</v>
-      </c>
       <c r="K111" t="s">
         <v>184</v>
       </c>
@@ -24808,13 +24757,13 @@
         <v>435</v>
       </c>
       <c r="N111" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O111" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="V111" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="W111" t="s">
         <v>433</v>
@@ -24822,8 +24771,8 @@
       <c r="X111" t="s">
         <v>170</v>
       </c>
-      <c r="AA111" t="s">
-        <v>438</v>
+      <c r="AB111" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="112" spans="2:36" x14ac:dyDescent="0.2">
@@ -24845,9 +24794,6 @@
       <c r="H112" t="s">
         <v>170</v>
       </c>
-      <c r="J112" t="s">
-        <v>199</v>
-      </c>
       <c r="K112" t="s">
         <v>184</v>
       </c>
@@ -24858,10 +24804,10 @@
         <v>435</v>
       </c>
       <c r="N112" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O112" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="V112" t="s">
         <v>137</v>
@@ -24871,6 +24817,9 @@
       </c>
       <c r="X112" t="s">
         <v>170</v>
+      </c>
+      <c r="AB112" t="s">
+        <v>199</v>
       </c>
       <c r="AE112" t="s">
         <v>170</v>
@@ -24907,9 +24856,6 @@
       <c r="H113" t="s">
         <v>170</v>
       </c>
-      <c r="J113" t="s">
-        <v>199</v>
-      </c>
       <c r="K113" t="s">
         <v>185</v>
       </c>
@@ -24920,10 +24866,10 @@
         <v>435</v>
       </c>
       <c r="N113" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O113" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V113" t="s">
         <v>138</v>
@@ -24933,6 +24879,9 @@
       </c>
       <c r="X113" t="s">
         <v>170</v>
+      </c>
+      <c r="AB113" t="s">
+        <v>199</v>
       </c>
       <c r="AD113" t="s">
         <v>347</v>
@@ -24969,9 +24918,6 @@
       <c r="H114" t="s">
         <v>170</v>
       </c>
-      <c r="J114" t="s">
-        <v>199</v>
-      </c>
       <c r="K114" t="s">
         <v>185</v>
       </c>
@@ -24982,10 +24928,10 @@
         <v>435</v>
       </c>
       <c r="N114" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O114" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V114" t="s">
         <v>139</v>
@@ -24995,6 +24941,9 @@
       </c>
       <c r="X114" t="s">
         <v>170</v>
+      </c>
+      <c r="AB114" t="s">
+        <v>199</v>
       </c>
       <c r="AD114" t="s">
         <v>349</v>
@@ -25028,9 +24977,6 @@
       <c r="H115" t="s">
         <v>170</v>
       </c>
-      <c r="J115" t="s">
-        <v>199</v>
-      </c>
       <c r="K115" t="s">
         <v>185</v>
       </c>
@@ -25041,10 +24987,10 @@
         <v>435</v>
       </c>
       <c r="N115" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O115" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V115" t="s">
         <v>140</v>
@@ -25054,6 +25000,9 @@
       </c>
       <c r="X115" t="s">
         <v>170</v>
+      </c>
+      <c r="AB115" t="s">
+        <v>199</v>
       </c>
       <c r="AD115" t="s">
         <v>350</v>
@@ -25087,9 +25036,6 @@
       <c r="H116" t="s">
         <v>170</v>
       </c>
-      <c r="J116" t="s">
-        <v>199</v>
-      </c>
       <c r="K116" t="s">
         <v>185</v>
       </c>
@@ -25100,10 +25046,10 @@
         <v>435</v>
       </c>
       <c r="N116" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O116" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V116" t="s">
         <v>141</v>
@@ -25113,6 +25059,9 @@
       </c>
       <c r="X116" t="s">
         <v>170</v>
+      </c>
+      <c r="AB116" t="s">
+        <v>199</v>
       </c>
       <c r="AD116" t="s">
         <v>351</v>
@@ -25143,9 +25092,6 @@
       <c r="H117" t="s">
         <v>170</v>
       </c>
-      <c r="J117" t="s">
-        <v>199</v>
-      </c>
       <c r="K117" t="s">
         <v>185</v>
       </c>
@@ -25156,10 +25102,10 @@
         <v>435</v>
       </c>
       <c r="N117" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O117" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V117" t="s">
         <v>142</v>
@@ -25169,6 +25115,9 @@
       </c>
       <c r="X117" t="s">
         <v>170</v>
+      </c>
+      <c r="AB117" t="s">
+        <v>199</v>
       </c>
       <c r="AD117" t="s">
         <v>352</v>
@@ -25199,9 +25148,6 @@
       <c r="H118" t="s">
         <v>170</v>
       </c>
-      <c r="J118" t="s">
-        <v>199</v>
-      </c>
       <c r="K118" t="s">
         <v>186</v>
       </c>
@@ -25212,10 +25158,10 @@
         <v>436</v>
       </c>
       <c r="N118" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="O118" s="12" t="s">
         <v>470</v>
-      </c>
-      <c r="O118" s="12" t="s">
-        <v>471</v>
       </c>
       <c r="V118" t="s">
         <v>143</v>
@@ -25225,6 +25171,9 @@
       </c>
       <c r="X118" t="s">
         <v>170</v>
+      </c>
+      <c r="AB118" t="s">
+        <v>199</v>
       </c>
       <c r="AD118" t="s">
         <v>353</v>
@@ -25264,9 +25213,6 @@
       <c r="H119" t="s">
         <v>170</v>
       </c>
-      <c r="J119" t="s">
-        <v>199</v>
-      </c>
       <c r="K119" t="s">
         <v>187</v>
       </c>
@@ -25277,10 +25223,10 @@
         <v>436</v>
       </c>
       <c r="N119" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="O119" s="12" t="s">
         <v>472</v>
-      </c>
-      <c r="O119" s="12" t="s">
-        <v>473</v>
       </c>
       <c r="V119" t="s">
         <v>144</v>
@@ -25290,6 +25236,9 @@
       </c>
       <c r="X119" t="s">
         <v>170</v>
+      </c>
+      <c r="AB119" t="s">
+        <v>199</v>
       </c>
       <c r="AD119" t="s">
         <v>356</v>
@@ -25323,9 +25272,6 @@
       <c r="E120">
         <v>351</v>
       </c>
-      <c r="J120" t="s">
-        <v>199</v>
-      </c>
       <c r="K120" t="s">
         <v>187</v>
       </c>
@@ -25336,13 +25282,13 @@
         <v>436</v>
       </c>
       <c r="N120" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="O120" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="O120" s="12" t="s">
-        <v>473</v>
-      </c>
       <c r="V120" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="W120" t="s">
         <v>432</v>
@@ -25350,8 +25296,8 @@
       <c r="X120" t="s">
         <v>170</v>
       </c>
-      <c r="AA120" t="s">
-        <v>438</v>
+      <c r="AB120" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="121" spans="2:36" x14ac:dyDescent="0.2">
@@ -25367,9 +25313,6 @@
       <c r="E121">
         <v>352</v>
       </c>
-      <c r="J121" t="s">
-        <v>199</v>
-      </c>
       <c r="K121" t="s">
         <v>187</v>
       </c>
@@ -25380,13 +25323,13 @@
         <v>436</v>
       </c>
       <c r="N121" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="O121" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="O121" s="12" t="s">
-        <v>473</v>
-      </c>
       <c r="V121" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="W121" t="s">
         <v>432</v>
@@ -25394,8 +25337,8 @@
       <c r="X121" t="s">
         <v>170</v>
       </c>
-      <c r="AA121" t="s">
-        <v>438</v>
+      <c r="AB121" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="122" spans="2:36" x14ac:dyDescent="0.2">
@@ -25411,9 +25354,6 @@
       <c r="E122">
         <v>352</v>
       </c>
-      <c r="J122" t="s">
-        <v>199</v>
-      </c>
       <c r="K122" t="s">
         <v>187</v>
       </c>
@@ -25424,13 +25364,13 @@
         <v>436</v>
       </c>
       <c r="N122" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="O122" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="O122" s="12" t="s">
-        <v>473</v>
-      </c>
       <c r="V122" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="W122" t="s">
         <v>432</v>
@@ -25438,8 +25378,8 @@
       <c r="X122" t="s">
         <v>170</v>
       </c>
-      <c r="AA122" t="s">
-        <v>438</v>
+      <c r="AB122" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="123" spans="2:36" x14ac:dyDescent="0.2">
@@ -25455,9 +25395,6 @@
       <c r="E123">
         <v>352</v>
       </c>
-      <c r="J123" t="s">
-        <v>199</v>
-      </c>
       <c r="K123" t="s">
         <v>187</v>
       </c>
@@ -25468,13 +25405,13 @@
         <v>436</v>
       </c>
       <c r="N123" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="O123" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="O123" s="12" t="s">
-        <v>473</v>
-      </c>
       <c r="V123" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="W123" t="s">
         <v>432</v>
@@ -25482,8 +25419,8 @@
       <c r="X123" t="s">
         <v>170</v>
       </c>
-      <c r="AA123" t="s">
-        <v>438</v>
+      <c r="AB123" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="124" spans="2:36" x14ac:dyDescent="0.2">
@@ -25505,9 +25442,6 @@
       <c r="H124" t="s">
         <v>170</v>
       </c>
-      <c r="J124" t="s">
-        <v>199</v>
-      </c>
       <c r="K124" t="s">
         <v>185</v>
       </c>
@@ -25518,10 +25452,10 @@
         <v>435</v>
       </c>
       <c r="N124" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O124" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V124" t="s">
         <v>145</v>
@@ -25531,6 +25465,9 @@
       </c>
       <c r="X124" t="s">
         <v>170</v>
+      </c>
+      <c r="AB124" t="s">
+        <v>199</v>
       </c>
       <c r="AD124" t="s">
         <v>330</v>
@@ -25567,9 +25504,6 @@
       <c r="H125" t="s">
         <v>170</v>
       </c>
-      <c r="J125" t="s">
-        <v>199</v>
-      </c>
       <c r="K125" t="s">
         <v>187</v>
       </c>
@@ -25580,10 +25514,10 @@
         <v>436</v>
       </c>
       <c r="N125" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="O125" s="12" t="s">
         <v>472</v>
-      </c>
-      <c r="O125" s="12" t="s">
-        <v>473</v>
       </c>
       <c r="V125" t="s">
         <v>146</v>
@@ -25593,6 +25527,9 @@
       </c>
       <c r="X125" t="s">
         <v>170</v>
+      </c>
+      <c r="AB125" t="s">
+        <v>199</v>
       </c>
       <c r="AD125" t="s">
         <v>360</v>
@@ -25629,9 +25566,6 @@
       <c r="H126" t="s">
         <v>170</v>
       </c>
-      <c r="J126" t="s">
-        <v>199</v>
-      </c>
       <c r="K126" t="s">
         <v>185</v>
       </c>
@@ -25642,10 +25576,10 @@
         <v>435</v>
       </c>
       <c r="N126" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O126" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V126" t="s">
         <v>147</v>
@@ -25655,6 +25589,9 @@
       </c>
       <c r="X126" t="s">
         <v>170</v>
+      </c>
+      <c r="AB126" t="s">
+        <v>199</v>
       </c>
       <c r="AD126" t="s">
         <v>362</v>
@@ -25691,9 +25628,6 @@
       <c r="H127" t="s">
         <v>170</v>
       </c>
-      <c r="J127" t="s">
-        <v>199</v>
-      </c>
       <c r="K127" t="s">
         <v>188</v>
       </c>
@@ -25704,10 +25638,10 @@
         <v>436</v>
       </c>
       <c r="N127" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="O127" s="12" t="s">
         <v>474</v>
-      </c>
-      <c r="O127" s="12" t="s">
-        <v>475</v>
       </c>
       <c r="V127" t="s">
         <v>148</v>
@@ -25717,6 +25651,9 @@
       </c>
       <c r="X127" t="s">
         <v>170</v>
+      </c>
+      <c r="AB127" t="s">
+        <v>199</v>
       </c>
       <c r="AD127" t="s">
         <v>362</v>
@@ -25753,9 +25690,6 @@
       <c r="H128" t="s">
         <v>170</v>
       </c>
-      <c r="J128" t="s">
-        <v>199</v>
-      </c>
       <c r="K128" t="s">
         <v>189</v>
       </c>
@@ -25766,10 +25700,10 @@
         <v>436</v>
       </c>
       <c r="N128" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="O128" s="12" t="s">
         <v>476</v>
-      </c>
-      <c r="O128" s="12" t="s">
-        <v>477</v>
       </c>
       <c r="V128" t="s">
         <v>149</v>
@@ -25779,6 +25713,9 @@
       </c>
       <c r="X128" t="s">
         <v>170</v>
+      </c>
+      <c r="AB128" t="s">
+        <v>199</v>
       </c>
       <c r="AD128" t="s">
         <v>347</v>
@@ -25815,9 +25752,6 @@
       <c r="H129" t="s">
         <v>170</v>
       </c>
-      <c r="J129" t="s">
-        <v>199</v>
-      </c>
       <c r="K129" t="s">
         <v>185</v>
       </c>
@@ -25828,10 +25762,10 @@
         <v>435</v>
       </c>
       <c r="N129" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O129" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V129" t="s">
         <v>150</v>
@@ -25841,6 +25775,9 @@
       </c>
       <c r="X129" t="s">
         <v>170</v>
+      </c>
+      <c r="AB129" t="s">
+        <v>199</v>
       </c>
       <c r="AD129" t="s">
         <v>319</v>
@@ -25883,9 +25820,6 @@
       <c r="H130" t="s">
         <v>170</v>
       </c>
-      <c r="J130" t="s">
-        <v>199</v>
-      </c>
       <c r="K130" t="s">
         <v>185</v>
       </c>
@@ -25896,10 +25830,10 @@
         <v>435</v>
       </c>
       <c r="N130" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O130" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V130" t="s">
         <v>151</v>
@@ -25909,6 +25843,9 @@
       </c>
       <c r="X130" t="s">
         <v>170</v>
+      </c>
+      <c r="AB130" t="s">
+        <v>199</v>
       </c>
       <c r="AD130" t="s">
         <v>319</v>
@@ -25945,9 +25882,6 @@
       <c r="H131" t="s">
         <v>170</v>
       </c>
-      <c r="J131" t="s">
-        <v>199</v>
-      </c>
       <c r="K131" t="s">
         <v>185</v>
       </c>
@@ -25958,10 +25892,10 @@
         <v>435</v>
       </c>
       <c r="N131" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O131" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V131" t="s">
         <v>152</v>
@@ -25971,6 +25905,9 @@
       </c>
       <c r="X131" t="s">
         <v>170</v>
+      </c>
+      <c r="AB131" t="s">
+        <v>199</v>
       </c>
       <c r="AD131" t="s">
         <v>319</v>
@@ -26007,9 +25944,6 @@
       <c r="H132" t="s">
         <v>170</v>
       </c>
-      <c r="J132" t="s">
-        <v>199</v>
-      </c>
       <c r="K132" t="s">
         <v>185</v>
       </c>
@@ -26020,10 +25954,10 @@
         <v>435</v>
       </c>
       <c r="N132" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O132" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V132" t="s">
         <v>153</v>
@@ -26033,6 +25967,9 @@
       </c>
       <c r="X132" t="s">
         <v>170</v>
+      </c>
+      <c r="AB132" t="s">
+        <v>199</v>
       </c>
       <c r="AD132" t="s">
         <v>371</v>
@@ -26066,9 +26003,6 @@
       <c r="H133" t="s">
         <v>170</v>
       </c>
-      <c r="J133" t="s">
-        <v>199</v>
-      </c>
       <c r="K133" t="s">
         <v>185</v>
       </c>
@@ -26079,10 +26013,10 @@
         <v>435</v>
       </c>
       <c r="N133" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O133" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V133" t="s">
         <v>154</v>
@@ -26092,6 +26026,9 @@
       </c>
       <c r="X133" t="s">
         <v>170</v>
+      </c>
+      <c r="AB133" t="s">
+        <v>199</v>
       </c>
       <c r="AD133" t="s">
         <v>372</v>
@@ -26125,9 +26062,6 @@
       <c r="H134" t="s">
         <v>170</v>
       </c>
-      <c r="J134" t="s">
-        <v>199</v>
-      </c>
       <c r="K134" t="s">
         <v>185</v>
       </c>
@@ -26138,10 +26072,10 @@
         <v>435</v>
       </c>
       <c r="N134" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O134" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V134" t="s">
         <v>155</v>
@@ -26151,6 +26085,9 @@
       </c>
       <c r="X134" t="s">
         <v>170</v>
+      </c>
+      <c r="AB134" t="s">
+        <v>199</v>
       </c>
       <c r="AD134" t="s">
         <v>373</v>
@@ -26184,9 +26121,6 @@
       <c r="H135" t="s">
         <v>170</v>
       </c>
-      <c r="J135" t="s">
-        <v>199</v>
-      </c>
       <c r="K135" t="s">
         <v>185</v>
       </c>
@@ -26197,10 +26131,10 @@
         <v>435</v>
       </c>
       <c r="N135" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O135" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V135" t="s">
         <v>156</v>
@@ -26210,6 +26144,9 @@
       </c>
       <c r="X135" t="s">
         <v>170</v>
+      </c>
+      <c r="AB135" t="s">
+        <v>199</v>
       </c>
       <c r="AD135" t="s">
         <v>374</v>
@@ -26243,9 +26180,6 @@
       <c r="H136" t="s">
         <v>170</v>
       </c>
-      <c r="J136" t="s">
-        <v>199</v>
-      </c>
       <c r="K136" t="s">
         <v>185</v>
       </c>
@@ -26256,10 +26190,10 @@
         <v>435</v>
       </c>
       <c r="N136" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O136" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V136" t="s">
         <v>157</v>
@@ -26269,6 +26203,9 @@
       </c>
       <c r="X136" t="s">
         <v>170</v>
+      </c>
+      <c r="AB136" t="s">
+        <v>199</v>
       </c>
       <c r="AD136" t="s">
         <v>375</v>
@@ -26302,9 +26239,6 @@
       <c r="H137" t="s">
         <v>170</v>
       </c>
-      <c r="J137" t="s">
-        <v>199</v>
-      </c>
       <c r="K137" t="s">
         <v>185</v>
       </c>
@@ -26315,10 +26249,10 @@
         <v>435</v>
       </c>
       <c r="N137" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O137" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V137" t="s">
         <v>158</v>
@@ -26328,6 +26262,9 @@
       </c>
       <c r="X137" t="s">
         <v>170</v>
+      </c>
+      <c r="AB137" t="s">
+        <v>199</v>
       </c>
       <c r="AD137" t="s">
         <v>376</v>
@@ -26361,9 +26298,6 @@
       <c r="H138" t="s">
         <v>170</v>
       </c>
-      <c r="J138" t="s">
-        <v>199</v>
-      </c>
       <c r="K138" t="s">
         <v>185</v>
       </c>
@@ -26374,10 +26308,10 @@
         <v>435</v>
       </c>
       <c r="N138" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O138" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V138" t="s">
         <v>159</v>
@@ -26387,6 +26321,9 @@
       </c>
       <c r="X138" t="s">
         <v>170</v>
+      </c>
+      <c r="AB138" t="s">
+        <v>199</v>
       </c>
       <c r="AD138" t="s">
         <v>377</v>
@@ -26420,9 +26357,6 @@
       <c r="H139" t="s">
         <v>170</v>
       </c>
-      <c r="J139" t="s">
-        <v>199</v>
-      </c>
       <c r="K139" t="s">
         <v>185</v>
       </c>
@@ -26433,10 +26367,10 @@
         <v>435</v>
       </c>
       <c r="N139" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O139" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V139" t="s">
         <v>160</v>
@@ -26446,6 +26380,9 @@
       </c>
       <c r="X139" t="s">
         <v>170</v>
+      </c>
+      <c r="AB139" t="s">
+        <v>199</v>
       </c>
       <c r="AD139" t="s">
         <v>378</v>
@@ -26479,9 +26416,6 @@
       <c r="H140" t="s">
         <v>170</v>
       </c>
-      <c r="J140" t="s">
-        <v>199</v>
-      </c>
       <c r="K140" t="s">
         <v>190</v>
       </c>
@@ -26492,10 +26426,10 @@
         <v>435</v>
       </c>
       <c r="N140" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="O140" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="O140" s="7" t="s">
-        <v>479</v>
       </c>
       <c r="V140" t="s">
         <v>161</v>
@@ -26505,6 +26439,9 @@
       </c>
       <c r="X140" t="s">
         <v>170</v>
+      </c>
+      <c r="AB140" t="s">
+        <v>199</v>
       </c>
       <c r="AD140" t="s">
         <v>379</v>
@@ -26538,9 +26475,6 @@
       <c r="H141" t="s">
         <v>170</v>
       </c>
-      <c r="J141" t="s">
-        <v>199</v>
-      </c>
       <c r="K141" t="s">
         <v>190</v>
       </c>
@@ -26551,10 +26485,10 @@
         <v>435</v>
       </c>
       <c r="N141" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="O141" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="O141" s="7" t="s">
-        <v>479</v>
       </c>
       <c r="V141" t="s">
         <v>162</v>
@@ -26564,6 +26498,9 @@
       </c>
       <c r="X141" t="s">
         <v>170</v>
+      </c>
+      <c r="AB141" t="s">
+        <v>199</v>
       </c>
       <c r="AD141" t="s">
         <v>332</v>
@@ -26594,9 +26531,6 @@
       <c r="H142" t="s">
         <v>170</v>
       </c>
-      <c r="J142" t="s">
-        <v>199</v>
-      </c>
       <c r="K142" t="s">
         <v>190</v>
       </c>
@@ -26607,10 +26541,10 @@
         <v>435</v>
       </c>
       <c r="N142" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="O142" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="O142" s="7" t="s">
-        <v>479</v>
       </c>
       <c r="V142" t="s">
         <v>163</v>
@@ -26620,6 +26554,9 @@
       </c>
       <c r="X142" t="s">
         <v>170</v>
+      </c>
+      <c r="AB142" t="s">
+        <v>199</v>
       </c>
       <c r="AD142" t="s">
         <v>380</v>
@@ -26653,9 +26590,6 @@
       <c r="H143" t="s">
         <v>170</v>
       </c>
-      <c r="J143" t="s">
-        <v>199</v>
-      </c>
       <c r="K143" t="s">
         <v>190</v>
       </c>
@@ -26666,10 +26600,10 @@
         <v>435</v>
       </c>
       <c r="N143" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="O143" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="O143" s="7" t="s">
-        <v>479</v>
       </c>
       <c r="V143" t="s">
         <v>164</v>
@@ -26679,6 +26613,9 @@
       </c>
       <c r="X143" t="s">
         <v>170</v>
+      </c>
+      <c r="AB143" t="s">
+        <v>199</v>
       </c>
       <c r="AD143" t="s">
         <v>381</v>
@@ -26709,9 +26646,6 @@
       <c r="H144" t="s">
         <v>170</v>
       </c>
-      <c r="J144" t="s">
-        <v>199</v>
-      </c>
       <c r="K144" t="s">
         <v>190</v>
       </c>
@@ -26722,10 +26656,10 @@
         <v>435</v>
       </c>
       <c r="N144" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="O144" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="O144" s="7" t="s">
-        <v>479</v>
       </c>
       <c r="V144" t="s">
         <v>165</v>
@@ -26735,6 +26669,9 @@
       </c>
       <c r="X144" t="s">
         <v>170</v>
+      </c>
+      <c r="AB144" t="s">
+        <v>199</v>
       </c>
       <c r="AD144" t="s">
         <v>332</v>
@@ -26768,9 +26705,6 @@
       <c r="I145" t="s">
         <v>197</v>
       </c>
-      <c r="J145" t="s">
-        <v>199</v>
-      </c>
       <c r="K145" t="s">
         <v>191</v>
       </c>
@@ -26781,10 +26715,10 @@
         <v>435</v>
       </c>
       <c r="N145" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="O145" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="V145" t="s">
         <v>166</v>
@@ -26794,6 +26728,9 @@
       </c>
       <c r="X145" t="s">
         <v>170</v>
+      </c>
+      <c r="AB145" t="s">
+        <v>199</v>
       </c>
       <c r="AE145" t="s">
         <v>170</v>
@@ -26824,9 +26761,6 @@
       <c r="I146" t="s">
         <v>198</v>
       </c>
-      <c r="J146" t="s">
-        <v>199</v>
-      </c>
       <c r="K146" t="s">
         <v>192</v>
       </c>
@@ -26837,10 +26771,10 @@
         <v>435</v>
       </c>
       <c r="N146" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O146" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="V146" t="s">
         <v>167</v>
@@ -26851,8 +26785,8 @@
       <c r="X146" t="s">
         <v>170</v>
       </c>
-      <c r="AA146" t="s">
-        <v>506</v>
+      <c r="AB146" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="147" spans="2:36" x14ac:dyDescent="0.2">
@@ -26877,9 +26811,6 @@
       <c r="I147" t="s">
         <v>198</v>
       </c>
-      <c r="J147" t="s">
-        <v>199</v>
-      </c>
       <c r="K147" t="s">
         <v>192</v>
       </c>
@@ -26890,10 +26821,10 @@
         <v>435</v>
       </c>
       <c r="N147" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O147" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="V147" t="s">
         <v>383</v>
@@ -26904,8 +26835,8 @@
       <c r="X147" t="s">
         <v>170</v>
       </c>
-      <c r="AA147" t="s">
-        <v>506</v>
+      <c r="AB147" t="s">
+        <v>199</v>
       </c>
       <c r="AD147" t="s">
         <v>382</v>
@@ -26936,9 +26867,6 @@
       <c r="I148" t="s">
         <v>198</v>
       </c>
-      <c r="J148" t="s">
-        <v>199</v>
-      </c>
       <c r="K148" t="s">
         <v>192</v>
       </c>
@@ -26949,10 +26877,10 @@
         <v>435</v>
       </c>
       <c r="N148" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O148" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="V148" t="s">
         <v>385</v>
@@ -26963,8 +26891,8 @@
       <c r="X148" t="s">
         <v>170</v>
       </c>
-      <c r="AA148" t="s">
-        <v>506</v>
+      <c r="AB148" t="s">
+        <v>199</v>
       </c>
       <c r="AD148" t="s">
         <v>382</v>
@@ -26995,9 +26923,6 @@
       <c r="I149" t="s">
         <v>198</v>
       </c>
-      <c r="J149" t="s">
-        <v>199</v>
-      </c>
       <c r="K149" t="s">
         <v>192</v>
       </c>
@@ -27008,13 +26933,13 @@
         <v>435</v>
       </c>
       <c r="N149" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O149" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="V149" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="W149" t="s">
         <v>432</v>
@@ -27022,8 +26947,8 @@
       <c r="X149" t="s">
         <v>170</v>
       </c>
-      <c r="AA149" t="s">
-        <v>506</v>
+      <c r="AB149" t="s">
+        <v>199</v>
       </c>
       <c r="AD149" t="s">
         <v>382</v>
@@ -27054,9 +26979,6 @@
       <c r="I150" t="s">
         <v>198</v>
       </c>
-      <c r="J150" t="s">
-        <v>199</v>
-      </c>
       <c r="K150" t="s">
         <v>192</v>
       </c>
@@ -27067,13 +26989,13 @@
         <v>435</v>
       </c>
       <c r="N150" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O150" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="V150" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="W150" t="s">
         <v>432</v>
@@ -27081,8 +27003,8 @@
       <c r="X150" t="s">
         <v>170</v>
       </c>
-      <c r="AA150" t="s">
-        <v>506</v>
+      <c r="AB150" t="s">
+        <v>199</v>
       </c>
       <c r="AD150" t="s">
         <v>382</v>
@@ -27113,9 +27035,6 @@
       <c r="E151">
         <v>388</v>
       </c>
-      <c r="J151" t="s">
-        <v>199</v>
-      </c>
       <c r="K151" t="s">
         <v>192</v>
       </c>
@@ -27126,10 +27045,10 @@
         <v>435</v>
       </c>
       <c r="N151" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O151" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="V151" t="s">
         <v>388</v>
@@ -27140,8 +27059,8 @@
       <c r="X151" t="s">
         <v>170</v>
       </c>
-      <c r="AA151" t="s">
-        <v>506</v>
+      <c r="AB151" t="s">
+        <v>199</v>
       </c>
       <c r="AD151" t="s">
         <v>382</v>
@@ -27175,9 +27094,6 @@
       <c r="I152" t="s">
         <v>198</v>
       </c>
-      <c r="J152" t="s">
-        <v>199</v>
-      </c>
       <c r="K152" t="s">
         <v>192</v>
       </c>
@@ -27188,10 +27104,10 @@
         <v>435</v>
       </c>
       <c r="N152" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O152" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="V152" t="s">
         <v>168</v>
@@ -27202,8 +27118,8 @@
       <c r="X152" t="s">
         <v>170</v>
       </c>
-      <c r="AA152" t="s">
-        <v>506</v>
+      <c r="AB152" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="153" spans="2:36" x14ac:dyDescent="0.2">
@@ -27222,9 +27138,6 @@
       <c r="I153" t="s">
         <v>198</v>
       </c>
-      <c r="J153" t="s">
-        <v>199</v>
-      </c>
       <c r="K153" t="s">
         <v>192</v>
       </c>
@@ -27235,13 +27148,13 @@
         <v>435</v>
       </c>
       <c r="N153" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O153" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="V153" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="W153" t="s">
         <v>432</v>
@@ -27249,8 +27162,8 @@
       <c r="X153" t="s">
         <v>170</v>
       </c>
-      <c r="AA153" t="s">
-        <v>506</v>
+      <c r="AB153" t="s">
+        <v>199</v>
       </c>
       <c r="AD153" t="s">
         <v>390</v>
@@ -27281,9 +27194,6 @@
       <c r="I154" t="s">
         <v>198</v>
       </c>
-      <c r="J154" t="s">
-        <v>199</v>
-      </c>
       <c r="K154" t="s">
         <v>192</v>
       </c>
@@ -27294,10 +27204,10 @@
         <v>435</v>
       </c>
       <c r="N154" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O154" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="V154" t="s">
         <v>392</v>
@@ -27308,8 +27218,8 @@
       <c r="X154" t="s">
         <v>170</v>
       </c>
-      <c r="AA154" t="s">
-        <v>506</v>
+      <c r="AB154" t="s">
+        <v>199</v>
       </c>
       <c r="AD154" t="s">
         <v>392</v>
@@ -27340,9 +27250,6 @@
       <c r="I155" t="s">
         <v>198</v>
       </c>
-      <c r="J155" t="s">
-        <v>199</v>
-      </c>
       <c r="K155" t="s">
         <v>192</v>
       </c>
@@ -27353,10 +27260,10 @@
         <v>435</v>
       </c>
       <c r="N155" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O155" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="V155" t="s">
         <v>394</v>
@@ -27367,8 +27274,8 @@
       <c r="X155" t="s">
         <v>170</v>
       </c>
-      <c r="AA155" t="s">
-        <v>506</v>
+      <c r="AB155" t="s">
+        <v>199</v>
       </c>
       <c r="AD155" t="s">
         <v>394</v>
@@ -27399,9 +27306,6 @@
       <c r="I156" t="s">
         <v>198</v>
       </c>
-      <c r="J156" t="s">
-        <v>199</v>
-      </c>
       <c r="K156" t="s">
         <v>192</v>
       </c>
@@ -27412,13 +27316,13 @@
         <v>435</v>
       </c>
       <c r="N156" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O156" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="V156" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="W156" t="s">
         <v>432</v>
@@ -27426,8 +27330,8 @@
       <c r="X156" t="s">
         <v>170</v>
       </c>
-      <c r="AA156" t="s">
-        <v>506</v>
+      <c r="AB156" t="s">
+        <v>199</v>
       </c>
       <c r="AD156" t="s">
         <v>396</v>
@@ -27458,9 +27362,6 @@
       <c r="I157" t="s">
         <v>198</v>
       </c>
-      <c r="J157" t="s">
-        <v>199</v>
-      </c>
       <c r="K157" t="s">
         <v>193</v>
       </c>
@@ -27471,10 +27372,10 @@
         <v>435</v>
       </c>
       <c r="N157" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O157" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="V157" t="s">
         <v>398</v>
@@ -27485,8 +27386,8 @@
       <c r="X157" t="s">
         <v>170</v>
       </c>
-      <c r="AA157" t="s">
-        <v>506</v>
+      <c r="AB157" t="s">
+        <v>199</v>
       </c>
       <c r="AD157" t="s">
         <v>398</v>
@@ -27517,9 +27418,6 @@
       <c r="I158" t="s">
         <v>198</v>
       </c>
-      <c r="J158" t="s">
-        <v>199</v>
-      </c>
       <c r="K158" t="s">
         <v>193</v>
       </c>
@@ -27530,13 +27428,13 @@
         <v>435</v>
       </c>
       <c r="N158" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O158" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="V158" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W158" t="s">
         <v>432</v>
@@ -27544,8 +27442,8 @@
       <c r="X158" t="s">
         <v>170</v>
       </c>
-      <c r="AA158" t="s">
-        <v>506</v>
+      <c r="AB158" t="s">
+        <v>199</v>
       </c>
       <c r="AD158" t="s">
         <v>400</v>
@@ -27576,9 +27474,6 @@
       <c r="I159" t="s">
         <v>198</v>
       </c>
-      <c r="J159" t="s">
-        <v>199</v>
-      </c>
       <c r="K159" t="s">
         <v>193</v>
       </c>
@@ -27589,13 +27484,13 @@
         <v>435</v>
       </c>
       <c r="N159" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O159" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="V159" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="W159" t="s">
         <v>432</v>
@@ -27603,8 +27498,8 @@
       <c r="X159" t="s">
         <v>170</v>
       </c>
-      <c r="AA159" t="s">
-        <v>506</v>
+      <c r="AB159" t="s">
+        <v>199</v>
       </c>
       <c r="AD159" t="s">
         <v>402</v>
@@ -27635,9 +27530,6 @@
       <c r="I160" t="s">
         <v>198</v>
       </c>
-      <c r="J160" t="s">
-        <v>199</v>
-      </c>
       <c r="K160" t="s">
         <v>193</v>
       </c>
@@ -27648,13 +27540,13 @@
         <v>435</v>
       </c>
       <c r="N160" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O160" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="V160" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="W160" t="s">
         <v>432</v>
@@ -27662,8 +27554,8 @@
       <c r="X160" t="s">
         <v>170</v>
       </c>
-      <c r="AA160" t="s">
-        <v>506</v>
+      <c r="AB160" t="s">
+        <v>199</v>
       </c>
       <c r="AD160" t="s">
         <v>404</v>
@@ -27694,9 +27586,6 @@
       <c r="I161" t="s">
         <v>198</v>
       </c>
-      <c r="J161" t="s">
-        <v>199</v>
-      </c>
       <c r="K161" t="s">
         <v>193</v>
       </c>
@@ -27707,10 +27596,10 @@
         <v>435</v>
       </c>
       <c r="N161" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O161" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="V161" t="s">
         <v>406</v>
@@ -27721,8 +27610,8 @@
       <c r="X161" t="s">
         <v>170</v>
       </c>
-      <c r="AA161" t="s">
-        <v>506</v>
+      <c r="AB161" t="s">
+        <v>199</v>
       </c>
       <c r="AD161" t="s">
         <v>406</v>
@@ -27753,9 +27642,6 @@
       <c r="I162" t="s">
         <v>198</v>
       </c>
-      <c r="J162" t="s">
-        <v>199</v>
-      </c>
       <c r="K162" t="s">
         <v>193</v>
       </c>
@@ -27766,10 +27652,10 @@
         <v>435</v>
       </c>
       <c r="N162" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O162" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="V162" t="s">
         <v>408</v>
@@ -27780,8 +27666,8 @@
       <c r="X162" t="s">
         <v>170</v>
       </c>
-      <c r="AA162" t="s">
-        <v>506</v>
+      <c r="AB162" t="s">
+        <v>199</v>
       </c>
       <c r="AD162" t="s">
         <v>408</v>
@@ -27812,9 +27698,6 @@
       <c r="I163" t="s">
         <v>198</v>
       </c>
-      <c r="J163" t="s">
-        <v>199</v>
-      </c>
       <c r="K163" t="s">
         <v>193</v>
       </c>
@@ -27825,13 +27708,13 @@
         <v>435</v>
       </c>
       <c r="N163" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O163" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="V163" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="W163" t="s">
         <v>432</v>
@@ -27839,8 +27722,8 @@
       <c r="X163" t="s">
         <v>170</v>
       </c>
-      <c r="AA163" t="s">
-        <v>506</v>
+      <c r="AB163" t="s">
+        <v>199</v>
       </c>
       <c r="AD163" t="s">
         <v>410</v>
@@ -27868,9 +27751,6 @@
       <c r="E164">
         <v>399</v>
       </c>
-      <c r="J164" t="s">
-        <v>199</v>
-      </c>
       <c r="K164" t="s">
         <v>193</v>
       </c>
@@ -27881,13 +27761,13 @@
         <v>435</v>
       </c>
       <c r="N164" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O164" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="V164" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="W164" t="s">
         <v>432</v>
@@ -27895,11 +27775,11 @@
       <c r="X164" t="s">
         <v>170</v>
       </c>
-      <c r="AA164" t="s">
-        <v>506</v>
+      <c r="AB164" t="s">
+        <v>199</v>
       </c>
       <c r="AD164" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AE164" t="s">
         <v>170</v>
